--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5157,6 +5157,24 @@
       <c r="D265" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>389.1657894736842</v>
+      </c>
+      <c r="C266" t="n">
+        <v>404.68</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7979,6 +7997,16 @@
       </c>
       <c r="B280" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -8147,28 +8175,28 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03070932355837604</v>
+        <v>-0.03669475762244308</v>
       </c>
       <c r="J2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001048532810113634</v>
+        <v>0.00150440510513572</v>
       </c>
       <c r="M2" t="n">
-        <v>5.380806621919915</v>
+        <v>5.388400236325824</v>
       </c>
       <c r="N2" t="n">
-        <v>49.71152783493167</v>
+        <v>49.72409686667925</v>
       </c>
       <c r="O2" t="n">
-        <v>7.050640242909269</v>
+        <v>7.051531526319601</v>
       </c>
       <c r="P2" t="n">
-        <v>397.2686968983529</v>
+        <v>397.3228003418791</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -8224,28 +8252,28 @@
         <v>0.0206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2809380035339551</v>
+        <v>0.2550775401342983</v>
       </c>
       <c r="J3" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K3" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01533340110743531</v>
+        <v>0.01262538170708394</v>
       </c>
       <c r="M3" t="n">
-        <v>12.82563362793663</v>
+        <v>12.91624655805036</v>
       </c>
       <c r="N3" t="n">
-        <v>273.7365818938816</v>
+        <v>276.3826514974415</v>
       </c>
       <c r="O3" t="n">
-        <v>16.54498660905719</v>
+        <v>16.62476019368224</v>
       </c>
       <c r="P3" t="n">
-        <v>428.3772724017371</v>
+        <v>428.6157816077347</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -8282,7 +8310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14020,6 +14048,28 @@
         </is>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>-34.72575359261687,173.09390122199835</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>-34.72559431670463,173.09479465321115</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -8020,7 +8020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8111,35 +8111,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -8198,27 +8203,28 @@
       <c r="P2" t="n">
         <v>397.3228003418791</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.09401579234867 -34.72926175178654, 173.09374275575544 -34.7209008256888)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0940157923487</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.72926175178654</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0937427557554</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.7209008256888</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0938792740521</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.72508128873767</v>
       </c>
     </row>
@@ -8275,27 +8281,28 @@
       <c r="P3" t="n">
         <v>428.6157816077347</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.09491381622564 -34.72924232911231, 173.09464072119482 -34.72088140371432)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.0949138162256</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.72924232911231</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0946407211948</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.72088140371432</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0947772687102</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.72506186641331</v>
       </c>
     </row>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,6 +5173,76 @@
         <v>404.68</v>
       </c>
       <c r="D266" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>399.4578947368421</v>
+      </c>
+      <c r="C267" t="n">
+        <v>457.45</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="n">
+        <v>430.08</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>378.1068421052632</v>
+      </c>
+      <c r="C269" t="n">
+        <v>410.72</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>399.3452631578948</v>
+      </c>
+      <c r="C270" t="n">
+        <v>441.33</v>
+      </c>
+      <c r="D270" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5189,7 +5259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8007,6 +8077,56 @@
       </c>
       <c r="B281" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -8180,28 +8300,28 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03669475762244308</v>
+        <v>-0.04653140261211805</v>
       </c>
       <c r="J2" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00150440510513572</v>
+        <v>0.002420262454309929</v>
       </c>
       <c r="M2" t="n">
-        <v>5.388400236325824</v>
+        <v>5.420714090423366</v>
       </c>
       <c r="N2" t="n">
-        <v>49.72409686667925</v>
+        <v>50.50626756410607</v>
       </c>
       <c r="O2" t="n">
-        <v>7.051531526319601</v>
+        <v>7.106776172365785</v>
       </c>
       <c r="P2" t="n">
-        <v>397.3228003418791</v>
+        <v>397.4128420012056</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8258,28 +8378,28 @@
         <v>0.0206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2550775401342983</v>
+        <v>0.2541139316964177</v>
       </c>
       <c r="J3" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01262538170708394</v>
+        <v>0.01280571969982469</v>
       </c>
       <c r="M3" t="n">
-        <v>12.91624655805036</v>
+        <v>12.94169244343609</v>
       </c>
       <c r="N3" t="n">
-        <v>276.3826514974415</v>
+        <v>276.591962551251</v>
       </c>
       <c r="O3" t="n">
-        <v>16.62476019368224</v>
+        <v>16.63105416235697</v>
       </c>
       <c r="P3" t="n">
-        <v>428.6157816077347</v>
+        <v>428.625362036747</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8317,7 +8437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14077,6 +14197,90 @@
         </is>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>-34.72566081376587,173.09389819214022</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>-34.72511861816749,173.09477911523396</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>-34.72536534678644,173.09478717423</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>-34.72585328421414,173.09390447761234</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>-34.72553986874066,173.0947928747409</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>-34.725661829090555,173.09389822529744</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>-34.72526393294179,173.09478386170278</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5243,6 +5243,40 @@
         <v>441.33</v>
       </c>
       <c r="D270" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>394.6405263157895</v>
+      </c>
+      <c r="C271" t="n">
+        <v>401.69</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>397.0494736842105</v>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5259,7 +5293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8127,6 +8161,26 @@
       </c>
       <c r="B286" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -8300,28 +8354,28 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04653140261211805</v>
+        <v>-0.04711171321266863</v>
       </c>
       <c r="J2" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002420262454309929</v>
+        <v>0.002526883532657731</v>
       </c>
       <c r="M2" t="n">
-        <v>5.420714090423366</v>
+        <v>5.388236699157688</v>
       </c>
       <c r="N2" t="n">
-        <v>50.50626756410607</v>
+        <v>50.12849864571244</v>
       </c>
       <c r="O2" t="n">
-        <v>7.106776172365785</v>
+        <v>7.080148207891727</v>
       </c>
       <c r="P2" t="n">
-        <v>397.4128420012056</v>
+        <v>397.4181595337626</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8378,28 +8432,28 @@
         <v>0.0206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2541139316964177</v>
+        <v>0.2271169471688452</v>
       </c>
       <c r="J3" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01280571969982469</v>
+        <v>0.0101932485752686</v>
       </c>
       <c r="M3" t="n">
-        <v>12.94169244343609</v>
+        <v>13.0412112352653</v>
       </c>
       <c r="N3" t="n">
-        <v>276.591962551251</v>
+        <v>279.8310054571585</v>
       </c>
       <c r="O3" t="n">
-        <v>16.63105416235697</v>
+        <v>16.72815009070515</v>
       </c>
       <c r="P3" t="n">
-        <v>428.625362036747</v>
+        <v>428.8779972483031</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8437,7 +8491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14281,6 +14335,46 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>-34.72570424024641,173.09389961030817</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>-34.725621270249505,173.0947955336137</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>-34.72568252463393,173.09389890114656</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5275,8 +5275,28 @@
       <c r="B272" t="n">
         <v>397.0494736842105</v>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>447.52</v>
+      </c>
       <c r="D272" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>395.7105263157895</v>
+      </c>
+      <c r="C273" t="n">
+        <v>448.89</v>
+      </c>
+      <c r="D273" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5293,7 +5313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8181,6 +8201,16 @@
       </c>
       <c r="B288" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -8354,28 +8384,28 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04711171321266863</v>
+        <v>-0.04749555770525306</v>
       </c>
       <c r="J2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K2" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002526883532657731</v>
+        <v>0.002591891458302187</v>
       </c>
       <c r="M2" t="n">
-        <v>5.388236699157688</v>
+        <v>5.36942251419354</v>
       </c>
       <c r="N2" t="n">
-        <v>50.12849864571244</v>
+        <v>49.93660822333391</v>
       </c>
       <c r="O2" t="n">
-        <v>7.080148207891727</v>
+        <v>7.066583914688477</v>
       </c>
       <c r="P2" t="n">
-        <v>397.4181595337626</v>
+        <v>397.4216983582122</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8432,28 +8462,28 @@
         <v>0.0206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2271169471688452</v>
+        <v>0.2483998377713831</v>
       </c>
       <c r="J3" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0101932485752686</v>
+        <v>0.01233298429035934</v>
       </c>
       <c r="M3" t="n">
-        <v>13.0412112352653</v>
+        <v>13.02675073651598</v>
       </c>
       <c r="N3" t="n">
-        <v>279.8310054571585</v>
+        <v>279.0347296907156</v>
       </c>
       <c r="O3" t="n">
-        <v>16.72815009070515</v>
+        <v>16.70433266223813</v>
       </c>
       <c r="P3" t="n">
-        <v>428.8779972483031</v>
+        <v>428.678230164967</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8491,7 +8521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14368,8 +14398,34 @@
           <t>-34.72568252463393,173.09389890114656</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>-34.72520813279007,173.09478203908026</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>-34.72569459466194,173.09389929531454</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>-34.72519578283718,173.0947816356892</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5297,6 +5297,42 @@
         <v>448.89</v>
       </c>
       <c r="D273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>404.7915789473685</v>
+      </c>
+      <c r="C274" t="n">
+        <v>433.04</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>398.3105263157895</v>
+      </c>
+      <c r="C275" t="n">
+        <v>435.02</v>
+      </c>
+      <c r="D275" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5313,7 +5349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8211,6 +8247,26 @@
       </c>
       <c r="B289" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -8384,28 +8440,28 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04749555770525306</v>
+        <v>-0.03926365671100841</v>
       </c>
       <c r="J2" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002591891458302187</v>
+        <v>0.001794786363876644</v>
       </c>
       <c r="M2" t="n">
-        <v>5.36942251419354</v>
+        <v>5.368257532005236</v>
       </c>
       <c r="N2" t="n">
-        <v>49.93660822333391</v>
+        <v>49.84928669693883</v>
       </c>
       <c r="O2" t="n">
-        <v>7.066583914688477</v>
+        <v>7.060402729089809</v>
       </c>
       <c r="P2" t="n">
-        <v>397.4216983582122</v>
+        <v>397.3455653834558</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8462,28 +8518,28 @@
         <v>0.0206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2483998377713831</v>
+        <v>0.2467099168698274</v>
       </c>
       <c r="J3" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01233298429035934</v>
+        <v>0.01238849151957711</v>
       </c>
       <c r="M3" t="n">
-        <v>13.02675073651598</v>
+        <v>12.93608636340759</v>
       </c>
       <c r="N3" t="n">
-        <v>279.0347296907156</v>
+        <v>276.9046666928543</v>
       </c>
       <c r="O3" t="n">
-        <v>16.70433266223813</v>
+        <v>16.64045271898738</v>
       </c>
       <c r="P3" t="n">
-        <v>428.678230164967</v>
+        <v>428.694169315214</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8521,7 +8577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14431,6 +14487,50 @@
         </is>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>-34.72561273292273,173.0938966219777</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>-34.72533866367725,173.09478630266645</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>-34.725671156793055,173.09389852990978</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>-34.72532081484065,173.09478571966145</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5333,6 +5333,42 @@
         <v>435.02</v>
       </c>
       <c r="D275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>393.4315789473685</v>
+      </c>
+      <c r="C276" t="n">
+        <v>436.12</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>391.0526315789473</v>
+      </c>
+      <c r="C277" t="n">
+        <v>398.72</v>
+      </c>
+      <c r="D277" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5349,7 +5385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8267,6 +8303,26 @@
       </c>
       <c r="B291" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8496,28 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03926365671100841</v>
+        <v>-0.04540577584025776</v>
       </c>
       <c r="J2" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001794786363876644</v>
+        <v>0.002435228287905877</v>
       </c>
       <c r="M2" t="n">
-        <v>5.368257532005236</v>
+        <v>5.358437790534681</v>
       </c>
       <c r="N2" t="n">
-        <v>49.84928669693883</v>
+        <v>49.60553160987515</v>
       </c>
       <c r="O2" t="n">
-        <v>7.060402729089809</v>
+        <v>7.043119451626186</v>
       </c>
       <c r="P2" t="n">
-        <v>397.3455653834558</v>
+        <v>397.4025104801708</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8518,28 +8574,28 @@
         <v>0.0206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2467099168698274</v>
+        <v>0.2197680340784595</v>
       </c>
       <c r="J3" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K3" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01238849151957711</v>
+        <v>0.00985347943949344</v>
       </c>
       <c r="M3" t="n">
-        <v>12.93608636340759</v>
+        <v>13.00170862821542</v>
       </c>
       <c r="N3" t="n">
-        <v>276.9046666928543</v>
+        <v>279.7871659960924</v>
       </c>
       <c r="O3" t="n">
-        <v>16.64045271898738</v>
+        <v>16.72683968943603</v>
       </c>
       <c r="P3" t="n">
-        <v>428.694169315214</v>
+        <v>428.9490368552471</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8577,7 +8633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14531,6 +14587,50 @@
         </is>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>-34.725715138380934,173.09389996620615</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>-34.72531089882029,173.0947853957699</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>-34.72573658355633,173.09390066653674</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>-34.725648043503014,173.09479640812788</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -5385,7 +5385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8323,6 +8323,16 @@
       </c>
       <c r="B293" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395.478947368421</v>
+        <v>395.48</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.6184210526316</v>
+        <v>396.62</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>398.6242105263158</v>
+        <v>398.62</v>
       </c>
       <c r="C5" t="n">
         <v>443.19</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398.6442105263158</v>
+        <v>398.64</v>
       </c>
       <c r="C6" t="n">
         <v>430.94</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.2557894736842</v>
+        <v>395.26</v>
       </c>
       <c r="C7" t="n">
         <v>414.63</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.6484210526315</v>
+        <v>391.65</v>
       </c>
       <c r="C8" t="n">
         <v>468.45</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400.5784210526315</v>
+        <v>400.58</v>
       </c>
       <c r="C9" t="n">
         <v>443.67</v>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>401.3210526315789</v>
+        <v>401.32</v>
       </c>
       <c r="C10" t="n">
         <v>436.54</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397.9357894736842</v>
+        <v>397.94</v>
       </c>
       <c r="C11" t="n">
         <v>417.07</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400.7442105263158</v>
+        <v>400.74</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>398.6321052631579</v>
+        <v>398.63</v>
       </c>
       <c r="C13" t="n">
         <v>465.22</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>387.9184210526316</v>
+        <v>387.92</v>
       </c>
       <c r="C14" t="n">
         <v>426.13</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>403.3415789473684</v>
+        <v>403.34</v>
       </c>
       <c r="C15" t="n">
         <v>440.54</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403.7178947368421</v>
+        <v>403.72</v>
       </c>
       <c r="C16" t="n">
         <v>408.74</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>384.2163157894737</v>
+        <v>384.22</v>
       </c>
       <c r="C17" t="n">
         <v>407.13</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>376.1363157894737</v>
+        <v>376.14</v>
       </c>
       <c r="C18" t="n">
         <v>372.68</v>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>396.4642105263158</v>
+        <v>396.46</v>
       </c>
       <c r="C19" t="n">
         <v>439.4</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>403.5236842105263</v>
+        <v>403.52</v>
       </c>
       <c r="C20" t="n">
         <v>432.39</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>406.2126315789474</v>
+        <v>406.21</v>
       </c>
       <c r="C21" t="n">
         <v>417.7</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396.0463157894737</v>
+        <v>396.05</v>
       </c>
       <c r="C22" t="n">
         <v>450.59</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.1163157894737</v>
+        <v>385.12</v>
       </c>
       <c r="C23" t="n">
         <v>416.6</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>409.3731578947368</v>
+        <v>409.37</v>
       </c>
       <c r="C24" t="n">
         <v>442.35</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>396.2547368421053</v>
+        <v>396.25</v>
       </c>
       <c r="C25" t="n">
         <v>419.1</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>389.7673684210527</v>
+        <v>389.77</v>
       </c>
       <c r="C27" t="n">
         <v>422.61</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>398.7389473684211</v>
+        <v>398.74</v>
       </c>
       <c r="C28" t="n">
         <v>417.88</v>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.7215789473684</v>
+        <v>402.72</v>
       </c>
       <c r="C31" t="n">
         <v>453.7</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>398.6257894736842</v>
+        <v>398.63</v>
       </c>
       <c r="C32" t="n">
         <v>421.75</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>402.4084210526316</v>
+        <v>402.41</v>
       </c>
       <c r="C33" t="n">
         <v>452.63</v>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386.4721052631579</v>
+        <v>386.47</v>
       </c>
       <c r="C35" t="n">
         <v>427.02</v>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>407.6615789473684</v>
+        <v>407.66</v>
       </c>
       <c r="C37" t="n">
         <v>390.66</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4768421052632</v>
+        <v>396.48</v>
       </c>
       <c r="C38" t="n">
         <v>399.34</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>396.0573684210527</v>
+        <v>396.06</v>
       </c>
       <c r="C39" t="n">
         <v>417.07</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>393.6731578947369</v>
+        <v>393.67</v>
       </c>
       <c r="C40" t="n">
         <v>428.18</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>398.2031578947368</v>
+        <v>398.2</v>
       </c>
       <c r="C41" t="n">
         <v>406.77</v>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>387.2994736842105</v>
+        <v>387.3</v>
       </c>
       <c r="C42" t="n">
         <v>447.13</v>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>407.3594736842105</v>
+        <v>407.36</v>
       </c>
       <c r="C43" t="n">
         <v>456.59</v>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.4078947368421</v>
+        <v>390.41</v>
       </c>
       <c r="C44" t="n">
         <v>423.75</v>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>399.5078947368421</v>
+        <v>399.51</v>
       </c>
       <c r="C46" t="n">
         <v>425.77</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>402.6221052631579</v>
+        <v>402.62</v>
       </c>
       <c r="C47" t="n">
         <v>424.22</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>399.1405263157895</v>
+        <v>399.14</v>
       </c>
       <c r="C48" t="n">
         <v>458.08</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>401.1778947368421</v>
+        <v>401.18</v>
       </c>
       <c r="C49" t="n">
         <v>432.6</v>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>397.7584210526316</v>
+        <v>397.76</v>
       </c>
       <c r="C51" t="n">
         <v>432.1</v>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>409.3305263157895</v>
+        <v>409.33</v>
       </c>
       <c r="C52" t="n">
         <v>464.63</v>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>397.2652631578948</v>
+        <v>397.27</v>
       </c>
       <c r="C54" t="n">
         <v>435.64</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>396.9347368421053</v>
+        <v>396.93</v>
       </c>
       <c r="C55" t="n">
         <v>432.63</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>393.5936842105263</v>
+        <v>393.59</v>
       </c>
       <c r="C56" t="n">
         <v>418.88</v>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>399.7978947368421</v>
+        <v>399.8</v>
       </c>
       <c r="C57" t="n">
         <v>447.59</v>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>409.9763157894737</v>
+        <v>409.98</v>
       </c>
       <c r="C58" t="n">
         <v>437.18</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>381.0563157894737</v>
+        <v>381.06</v>
       </c>
       <c r="C59" t="n">
         <v>446.88</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>397.148947368421</v>
+        <v>397.15</v>
       </c>
       <c r="C60" t="n">
         <v>426.86</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>394.0363157894737</v>
+        <v>394.04</v>
       </c>
       <c r="C62" t="n">
         <v>415.23</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>394.9163157894737</v>
+        <v>394.92</v>
       </c>
       <c r="C63" t="n">
         <v>380.37</v>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>401.1205263157895</v>
+        <v>401.12</v>
       </c>
       <c r="C64" t="n">
         <v>436.46</v>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>395.9205263157895</v>
+        <v>395.92</v>
       </c>
       <c r="C65" t="n">
         <v>428.11</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>404.3542105263158</v>
+        <v>404.35</v>
       </c>
       <c r="C66" t="n">
         <v>434.41</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>403.0631578947368</v>
+        <v>403.06</v>
       </c>
       <c r="C67" t="n">
         <v>441.57</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>396.608947368421</v>
+        <v>396.61</v>
       </c>
       <c r="C68" t="n">
         <v>401.66</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>394.9752631578947</v>
+        <v>394.98</v>
       </c>
       <c r="C70" t="n">
         <v>434.04</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>407.0926315789474</v>
+        <v>407.09</v>
       </c>
       <c r="C71" t="n">
         <v>429.24</v>
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>405.1515789473684</v>
+        <v>405.15</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>399.0105263157895</v>
+        <v>399.01</v>
       </c>
       <c r="C73" t="n">
         <v>425.28</v>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>391.4226315789473</v>
+        <v>391.42</v>
       </c>
       <c r="C74" t="n">
         <v>436.72</v>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>415.6284210526316</v>
+        <v>415.63</v>
       </c>
       <c r="C75" t="n">
         <v>445.77</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>388.1415789473684</v>
+        <v>388.14</v>
       </c>
       <c r="C76" t="n">
         <v>417.1</v>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>388.2405263157895</v>
+        <v>388.24</v>
       </c>
       <c r="C78" t="n">
         <v>399.08</v>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>408.458947368421</v>
+        <v>408.46</v>
       </c>
       <c r="C79" t="n">
         <v>429.69</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>400.9015789473684</v>
+        <v>400.9</v>
       </c>
       <c r="C80" t="n">
         <v>450.39</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>385.8405263157895</v>
+        <v>385.84</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>410.6415789473684</v>
+        <v>410.64</v>
       </c>
       <c r="C82" t="n">
         <v>453.15</v>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>400.3747368421053</v>
+        <v>400.37</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>400.4942105263158</v>
+        <v>400.49</v>
       </c>
       <c r="C84" t="n">
         <v>458.69</v>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>393.4315789473685</v>
+        <v>393.43</v>
       </c>
       <c r="C85" t="n">
         <v>421.91</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>394.6157894736842</v>
+        <v>394.62</v>
       </c>
       <c r="C86" t="n">
         <v>417.89</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>383.0094736842105</v>
+        <v>383.01</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>398.1536842105263</v>
+        <v>398.15</v>
       </c>
       <c r="C88" t="n">
         <v>436.77</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>388.0921052631579</v>
+        <v>388.09</v>
       </c>
       <c r="C91" t="n">
         <v>403.55</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>382.318947368421</v>
+        <v>382.32</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>390.8742105263158</v>
+        <v>390.87</v>
       </c>
       <c r="C93" t="n">
         <v>404.56</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>398.6384210526315</v>
+        <v>398.64</v>
       </c>
       <c r="C94" t="n">
         <v>428.69</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>391.7542105263158</v>
+        <v>391.75</v>
       </c>
       <c r="C95" t="n">
         <v>425.65</v>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>404.7157894736842</v>
+        <v>404.72</v>
       </c>
       <c r="C96" t="n">
         <v>460.9</v>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>400.1763157894737</v>
+        <v>400.18</v>
       </c>
       <c r="C97" t="n">
         <v>440.52</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>403.5057894736842</v>
+        <v>403.51</v>
       </c>
       <c r="C98" t="n">
         <v>421.67</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>396.2647368421053</v>
+        <v>396.26</v>
       </c>
       <c r="C100" t="n">
         <v>417.4</v>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>385.4694736842105</v>
+        <v>385.47</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>395.2231578947368</v>
+        <v>395.22</v>
       </c>
       <c r="C102" t="n">
         <v>450.21</v>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>398.4889473684211</v>
+        <v>398.49</v>
       </c>
       <c r="C103" t="n">
         <v>434.64</v>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>378.8278947368421</v>
+        <v>378.83</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>401.9005263157895</v>
+        <v>401.9</v>
       </c>
       <c r="C105" t="n">
         <v>421.21</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>407.9605263157895</v>
+        <v>407.96</v>
       </c>
       <c r="C106" t="n">
         <v>423.18</v>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>399.2231578947368</v>
+        <v>399.22</v>
       </c>
       <c r="C107" t="n">
         <v>442.03</v>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>391.4736842105263</v>
+        <v>391.47</v>
       </c>
       <c r="C108" t="n">
         <v>447.19</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>391.0321052631579</v>
+        <v>391.03</v>
       </c>
       <c r="C109" t="n">
         <v>397.65</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>411.9368421052632</v>
+        <v>411.94</v>
       </c>
       <c r="C111" t="n">
         <v>444.55</v>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>404.0242105263158</v>
+        <v>404.02</v>
       </c>
       <c r="C112" t="n">
         <v>435.69</v>
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>383.3447368421053</v>
+        <v>383.34</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>378.6321052631579</v>
+        <v>378.63</v>
       </c>
       <c r="C114" t="n">
         <v>402.54</v>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>389.0552631578947</v>
+        <v>389.06</v>
       </c>
       <c r="C115" t="n">
         <v>437.61</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>387.4452631578947</v>
+        <v>387.45</v>
       </c>
       <c r="C116" t="n">
         <v>436.25</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>392.2005263157895</v>
+        <v>392.2</v>
       </c>
       <c r="C117" t="n">
         <v>437.59</v>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>390.8805263157895</v>
+        <v>390.88</v>
       </c>
       <c r="C118" t="n">
         <v>428.81</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>390.4694736842105</v>
+        <v>390.47</v>
       </c>
       <c r="C119" t="n">
         <v>420.65</v>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>382.1884210526316</v>
+        <v>382.19</v>
       </c>
       <c r="C120" t="n">
         <v>419.51</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>399.4331578947368</v>
+        <v>399.43</v>
       </c>
       <c r="C121" t="n">
         <v>418.68</v>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>393.1005263157895</v>
+        <v>393.1</v>
       </c>
       <c r="C122" t="n">
         <v>415.12</v>
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>411.0347368421053</v>
+        <v>411.03</v>
       </c>
       <c r="C123" t="n">
         <v>437.77</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>403.5363157894737</v>
+        <v>403.54</v>
       </c>
       <c r="C124" t="n">
         <v>434.24</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>396.1215789473685</v>
+        <v>396.12</v>
       </c>
       <c r="C125" t="n">
         <v>398.77</v>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>400.9384210526316</v>
+        <v>400.94</v>
       </c>
       <c r="C126" t="n">
         <v>445.85</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>387.6910526315789</v>
+        <v>387.69</v>
       </c>
       <c r="C127" t="n">
         <v>406.62</v>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>402.2347368421053</v>
+        <v>402.23</v>
       </c>
       <c r="C128" t="n">
         <v>447.31</v>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>407.5584210526316</v>
+        <v>407.56</v>
       </c>
       <c r="C129" t="n">
         <v>428.68</v>
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>382.3768421052632</v>
+        <v>382.38</v>
       </c>
       <c r="C130" t="n">
         <v>389.1</v>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>395.5547368421053</v>
+        <v>395.55</v>
       </c>
       <c r="C131" t="n">
         <v>438.33</v>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>404.7084210526315</v>
+        <v>404.71</v>
       </c>
       <c r="C132" t="n">
         <v>444.57</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>401.5068421052632</v>
+        <v>401.51</v>
       </c>
       <c r="C133" t="n">
         <v>425.69</v>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>393.5321052631579</v>
+        <v>393.53</v>
       </c>
       <c r="C134" t="n">
         <v>432.47</v>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>393.9842105263158</v>
+        <v>393.98</v>
       </c>
       <c r="C135" t="n">
         <v>411.18</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>391.7247368421053</v>
+        <v>391.72</v>
       </c>
       <c r="C136" t="n">
         <v>422.24</v>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>401.3005263157895</v>
+        <v>401.3</v>
       </c>
       <c r="C137" t="n">
         <v>425.48</v>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>418.0605263157895</v>
+        <v>418.06</v>
       </c>
       <c r="C138" t="n">
         <v>466.25</v>
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>394.4121052631579</v>
+        <v>394.41</v>
       </c>
       <c r="C139" t="n">
         <v>460.67</v>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>397.6468421052632</v>
+        <v>397.65</v>
       </c>
       <c r="C140" t="n">
         <v>425.67</v>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>412.8694736842105</v>
+        <v>412.87</v>
       </c>
       <c r="C141" t="n">
         <v>422.7</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>406.6884210526316</v>
+        <v>406.69</v>
       </c>
       <c r="C142" t="n">
         <v>449.1</v>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>401.9763157894737</v>
+        <v>401.98</v>
       </c>
       <c r="C143" t="n">
         <v>444.02</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>390.9526315789473</v>
+        <v>390.95</v>
       </c>
       <c r="C144" t="n">
         <v>430.09</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>399.6036842105263</v>
+        <v>399.6</v>
       </c>
       <c r="C145" t="n">
         <v>434.5</v>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>402.9031578947368</v>
+        <v>402.9</v>
       </c>
       <c r="C146" t="n">
         <v>459.52</v>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>396.3484210526316</v>
+        <v>396.35</v>
       </c>
       <c r="C147" t="n">
         <v>441.93</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>394.1273684210527</v>
+        <v>394.13</v>
       </c>
       <c r="C148" t="n">
         <v>434.53</v>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>400.268947368421</v>
+        <v>400.27</v>
       </c>
       <c r="C149" t="n">
         <v>427.22</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>401.4268421052632</v>
+        <v>401.43</v>
       </c>
       <c r="C150" t="n">
         <v>430.81</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>395.4815789473685</v>
+        <v>395.48</v>
       </c>
       <c r="C151" t="n">
         <v>428.32</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>402.3678947368421</v>
+        <v>402.37</v>
       </c>
       <c r="C152" t="n">
         <v>425.63</v>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>409.0426315789474</v>
+        <v>409.04</v>
       </c>
       <c r="C153" t="n">
         <v>441.97</v>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>387.7026315789473</v>
+        <v>387.7</v>
       </c>
       <c r="C154" t="n">
         <v>423.91</v>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>397.1121052631579</v>
+        <v>397.11</v>
       </c>
       <c r="C155" t="n">
         <v>433.12</v>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>390.9747368421053</v>
+        <v>390.97</v>
       </c>
       <c r="C156" t="n">
         <v>427.11</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>403.6668421052632</v>
+        <v>403.67</v>
       </c>
       <c r="C157" t="n">
         <v>435.22</v>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>393.8142105263158</v>
+        <v>393.81</v>
       </c>
       <c r="C158" t="n">
         <v>422.83</v>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>388.0331578947368</v>
+        <v>388.03</v>
       </c>
       <c r="C159" t="n">
         <v>446.33</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>396.3568421052632</v>
+        <v>396.36</v>
       </c>
       <c r="C160" t="n">
         <v>425.73</v>
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>400.2715789473684</v>
+        <v>400.27</v>
       </c>
       <c r="C161" t="n">
         <v>449.4</v>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>385.418947368421</v>
+        <v>385.42</v>
       </c>
       <c r="C162" t="n">
         <v>447.47</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>391.7663157894737</v>
+        <v>391.77</v>
       </c>
       <c r="C163" t="n">
         <v>435.6</v>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>396.3094736842105</v>
+        <v>396.31</v>
       </c>
       <c r="C164" t="n">
         <v>433.59</v>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>398.6973684210527</v>
+        <v>398.7</v>
       </c>
       <c r="C165" t="n">
         <v>452.63</v>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>387.3715789473685</v>
+        <v>387.37</v>
       </c>
       <c r="C166" t="n">
         <v>431.26</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>392.6431578947368</v>
+        <v>392.64</v>
       </c>
       <c r="C167" t="n">
         <v>440.6</v>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>387.7021052631579</v>
+        <v>387.7</v>
       </c>
       <c r="C168" t="n">
         <v>417.06</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>397.4842105263158</v>
+        <v>397.48</v>
       </c>
       <c r="C169" t="n">
         <v>430.2</v>
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>403.3268421052632</v>
+        <v>403.33</v>
       </c>
       <c r="C170" t="n">
         <v>449.61</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>396.3184210526316</v>
+        <v>396.32</v>
       </c>
       <c r="C171" t="n">
         <v>432.83</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>401.9747368421053</v>
+        <v>401.97</v>
       </c>
       <c r="C172" t="n">
         <v>452.53</v>
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>399.9326315789473</v>
+        <v>399.93</v>
       </c>
       <c r="C173" t="n">
         <v>443.87</v>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>380.7731578947368</v>
+        <v>380.77</v>
       </c>
       <c r="C174" t="n">
         <v>403.69</v>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>391.6726315789473</v>
+        <v>391.67</v>
       </c>
       <c r="C176" t="n">
         <v>439.61</v>
@@ -3569,7 +3569,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>389.0405263157895</v>
+        <v>389.04</v>
       </c>
       <c r="C177" t="n">
         <v>413.68</v>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>386.031052631579</v>
+        <v>386.03</v>
       </c>
       <c r="C178" t="n">
         <v>462.14</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>398.831052631579</v>
+        <v>398.83</v>
       </c>
       <c r="C180" t="n">
         <v>436.15</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>404.7842105263158</v>
+        <v>404.78</v>
       </c>
       <c r="C181" t="n">
         <v>457.6</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>400.6873684210527</v>
+        <v>400.69</v>
       </c>
       <c r="C182" t="n">
         <v>456.18</v>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>403.3884210526315</v>
+        <v>403.39</v>
       </c>
       <c r="C184" t="n">
         <v>443.73</v>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>401.6573684210526</v>
+        <v>401.66</v>
       </c>
       <c r="C185" t="n">
         <v>443.1</v>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>410.2352631578947</v>
+        <v>410.24</v>
       </c>
       <c r="C186" t="n">
         <v>422.73</v>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>394.6921052631579</v>
+        <v>394.69</v>
       </c>
       <c r="C187" t="n">
         <v>442.83</v>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>394.1105263157895</v>
+        <v>394.11</v>
       </c>
       <c r="C188" t="n">
         <v>439.76</v>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>389.4715789473684</v>
+        <v>389.47</v>
       </c>
       <c r="C189" t="n">
         <v>425.5</v>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>396.5184210526315</v>
+        <v>396.52</v>
       </c>
       <c r="C190" t="n">
         <v>430.56</v>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>401.7531578947368</v>
+        <v>401.75</v>
       </c>
       <c r="C191" t="n">
         <v>444.82</v>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>401.5294736842105</v>
+        <v>401.53</v>
       </c>
       <c r="C192" t="n">
         <v>434.48</v>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>402.0226315789474</v>
+        <v>402.02</v>
       </c>
       <c r="C193" t="n">
         <v>434.95</v>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>394.111052631579</v>
+        <v>394.11</v>
       </c>
       <c r="C195" t="n">
         <v>437.73</v>
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>395.9078947368421</v>
+        <v>395.91</v>
       </c>
       <c r="C196" t="n">
         <v>436.8</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>394.2005263157895</v>
+        <v>394.2</v>
       </c>
       <c r="C197" t="n">
         <v>451.55</v>
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>399.0768421052632</v>
+        <v>399.08</v>
       </c>
       <c r="C198" t="n">
         <v>432.44</v>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>389.7421052631579</v>
+        <v>389.74</v>
       </c>
       <c r="C199" t="n">
         <v>435.25</v>
@@ -3981,7 +3981,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>391.7468421052632</v>
+        <v>391.75</v>
       </c>
       <c r="C200" t="n">
         <v>416.16</v>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>396.9847368421053</v>
+        <v>396.98</v>
       </c>
       <c r="C201" t="n">
         <v>435.33</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>392.2505263157895</v>
+        <v>392.25</v>
       </c>
       <c r="C202" t="n">
         <v>446.27</v>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>397.4815789473685</v>
+        <v>397.48</v>
       </c>
       <c r="C203" t="n">
         <v>439.12</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>399.5026315789473</v>
+        <v>399.5</v>
       </c>
       <c r="C204" t="n">
         <v>422.78</v>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>408.2510526315789</v>
+        <v>408.25</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>383.0947368421053</v>
+        <v>383.09</v>
       </c>
       <c r="C206" t="n">
         <v>393.19</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>402.4505263157895</v>
+        <v>402.45</v>
       </c>
       <c r="C207" t="n">
         <v>442.04</v>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>393.3031578947368</v>
+        <v>393.3</v>
       </c>
       <c r="C208" t="n">
         <v>440.46</v>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>404.6673684210527</v>
+        <v>404.67</v>
       </c>
       <c r="C209" t="n">
         <v>436.24</v>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>398.7394736842105</v>
+        <v>398.74</v>
       </c>
       <c r="C210" t="n">
         <v>436.26</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>396.9852631578947</v>
+        <v>396.99</v>
       </c>
       <c r="C211" t="n">
         <v>437.82</v>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>396.2215789473684</v>
+        <v>396.22</v>
       </c>
       <c r="C212" t="n">
         <v>460.59</v>
@@ -4213,7 +4213,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>393.8005263157895</v>
+        <v>393.8</v>
       </c>
       <c r="C213" t="n">
         <v>427.18</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>398.6742105263158</v>
+        <v>398.67</v>
       </c>
       <c r="C214" t="n">
         <v>439.7</v>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>399.1494736842105</v>
+        <v>399.15</v>
       </c>
       <c r="C215" t="n">
         <v>430.72</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>396.9389473684211</v>
+        <v>396.94</v>
       </c>
       <c r="C216" t="n">
         <v>452.21</v>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>387.728947368421</v>
+        <v>387.73</v>
       </c>
       <c r="C217" t="n">
         <v>442.98</v>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>380.8036842105263</v>
+        <v>380.8</v>
       </c>
       <c r="C219" t="n">
         <v>433.23</v>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>395.6121052631579</v>
+        <v>395.61</v>
       </c>
       <c r="C220" t="n">
         <v>429.79</v>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>404.5663157894737</v>
+        <v>404.57</v>
       </c>
       <c r="C221" t="n">
         <v>415.23</v>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>395.1984210526316</v>
+        <v>395.2</v>
       </c>
       <c r="C222" t="n">
         <v>435.62</v>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>398.6847368421053</v>
+        <v>398.68</v>
       </c>
       <c r="C223" t="n">
         <v>428.63</v>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>403.1515789473684</v>
+        <v>403.15</v>
       </c>
       <c r="C224" t="n">
         <v>438.71</v>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>394.1457894736842</v>
+        <v>394.15</v>
       </c>
       <c r="C225" t="n">
         <v>444.84</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>402.491052631579</v>
+        <v>402.49</v>
       </c>
       <c r="C226" t="n">
         <v>415.52</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>392.1852631578947</v>
+        <v>392.19</v>
       </c>
       <c r="C227" t="n">
         <v>445.23</v>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>394.8715789473685</v>
+        <v>394.87</v>
       </c>
       <c r="C228" t="n">
         <v>426.63</v>
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>376.2489473684211</v>
+        <v>376.25</v>
       </c>
       <c r="C229" t="n">
         <v>412.13</v>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>400.1084210526316</v>
+        <v>400.11</v>
       </c>
       <c r="C230" t="n">
         <v>441.96</v>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>390.8705263157895</v>
+        <v>390.87</v>
       </c>
       <c r="C231" t="n">
         <v>421.38</v>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>395.5742105263158</v>
+        <v>395.57</v>
       </c>
       <c r="C232" t="n">
         <v>457.47</v>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>392.7168421052632</v>
+        <v>392.72</v>
       </c>
       <c r="C233" t="n">
         <v>397.21</v>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>396.5763157894737</v>
+        <v>396.58</v>
       </c>
       <c r="C234" t="n">
         <v>405.7</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>396.6715789473685</v>
+        <v>396.67</v>
       </c>
       <c r="C235" t="n">
         <v>406.21</v>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>394.5905263157895</v>
+        <v>394.59</v>
       </c>
       <c r="C236" t="n">
         <v>439.61</v>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>394.5894736842105</v>
+        <v>394.59</v>
       </c>
       <c r="C237" t="n">
         <v>455.24</v>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>395.6263157894737</v>
+        <v>395.63</v>
       </c>
       <c r="C238" t="n">
         <v>428.45</v>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>403.7842105263158</v>
+        <v>403.78</v>
       </c>
       <c r="C239" t="n">
         <v>411.21</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>395.8431578947368</v>
+        <v>395.84</v>
       </c>
       <c r="C240" t="n">
         <v>439.04</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>397.1157894736842</v>
+        <v>397.12</v>
       </c>
       <c r="C241" t="n">
         <v>451.41</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>411.3752631578947</v>
+        <v>411.38</v>
       </c>
       <c r="C242" t="n">
         <v>415.77</v>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>402.3347368421053</v>
+        <v>402.33</v>
       </c>
       <c r="C243" t="n">
         <v>431.22</v>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>397.2615789473684</v>
+        <v>397.26</v>
       </c>
       <c r="C244" t="n">
         <v>415.71</v>
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>394.1184210526316</v>
+        <v>394.12</v>
       </c>
       <c r="C245" t="n">
         <v>440.43</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>392.2615789473684</v>
+        <v>392.26</v>
       </c>
       <c r="C246" t="n">
         <v>470.53</v>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>398.0226315789474</v>
+        <v>398.02</v>
       </c>
       <c r="C247" t="n">
         <v>440.4</v>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>390.9336842105263</v>
+        <v>390.93</v>
       </c>
       <c r="C248" t="n">
         <v>404.63</v>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>396.8194736842105</v>
+        <v>396.82</v>
       </c>
       <c r="C249" t="n">
         <v>444.18</v>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>394.6942105263158</v>
+        <v>394.69</v>
       </c>
       <c r="C250" t="n">
         <v>430.53</v>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>394.8452631578948</v>
+        <v>394.85</v>
       </c>
       <c r="C251" t="n">
         <v>417.24</v>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>394.6473684210527</v>
+        <v>394.65</v>
       </c>
       <c r="C252" t="n">
         <v>413.11</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>399.8984210526315</v>
+        <v>399.9</v>
       </c>
       <c r="C253" t="n">
         <v>445.13</v>
@@ -4951,7 +4951,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>399.221052631579</v>
+        <v>399.22</v>
       </c>
       <c r="C254" t="n">
         <v>444.61</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>400.1136842105263</v>
+        <v>400.11</v>
       </c>
       <c r="C256" t="n">
         <v>428.13</v>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>391.8452631578948</v>
+        <v>391.85</v>
       </c>
       <c r="C257" t="n">
         <v>441.92</v>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>398.8563157894737</v>
+        <v>398.86</v>
       </c>
       <c r="C258" t="n">
         <v>427.48</v>
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>401.3663157894737</v>
+        <v>401.37</v>
       </c>
       <c r="C259" t="n">
         <v>431.37</v>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>404.7026315789473</v>
+        <v>404.7</v>
       </c>
       <c r="C260" t="n">
         <v>441.19</v>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>398.6952631578947</v>
+        <v>398.7</v>
       </c>
       <c r="C261" t="n">
         <v>462.14</v>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>403.7131578947368</v>
+        <v>403.71</v>
       </c>
       <c r="C262" t="n">
         <v>443.05</v>
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>397.2205263157895</v>
+        <v>397.22</v>
       </c>
       <c r="C263" t="n">
         <v>459.45</v>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>395.3842105263158</v>
+        <v>395.38</v>
       </c>
       <c r="C264" t="n">
         <v>420.69</v>
@@ -5149,7 +5149,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>388.0847368421053</v>
+        <v>388.08</v>
       </c>
       <c r="C265" t="n">
         <v>435.22</v>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>389.1657894736842</v>
+        <v>389.17</v>
       </c>
       <c r="C266" t="n">
         <v>404.68</v>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>399.4578947368421</v>
+        <v>399.46</v>
       </c>
       <c r="C267" t="n">
         <v>457.45</v>
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>378.1068421052632</v>
+        <v>378.11</v>
       </c>
       <c r="C269" t="n">
         <v>410.72</v>
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>399.3452631578948</v>
+        <v>399.35</v>
       </c>
       <c r="C270" t="n">
         <v>441.33</v>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>394.6405263157895</v>
+        <v>394.64</v>
       </c>
       <c r="C271" t="n">
         <v>401.69</v>
@@ -5273,7 +5273,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>397.0494736842105</v>
+        <v>397.05</v>
       </c>
       <c r="C272" t="n">
         <v>447.52</v>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>395.7105263157895</v>
+        <v>395.71</v>
       </c>
       <c r="C273" t="n">
         <v>448.89</v>
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>404.7915789473685</v>
+        <v>404.79</v>
       </c>
       <c r="C274" t="n">
         <v>433.04</v>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>398.3105263157895</v>
+        <v>398.31</v>
       </c>
       <c r="C275" t="n">
         <v>435.02</v>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>393.4315789473685</v>
+        <v>393.43</v>
       </c>
       <c r="C276" t="n">
         <v>436.12</v>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>391.0526315789473</v>
+        <v>391.05</v>
       </c>
       <c r="C277" t="n">
         <v>398.72</v>
@@ -8506,7 +8506,7 @@
         <v>0.107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04540577584025776</v>
+        <v>-0.04540931095757128</v>
       </c>
       <c r="J2" t="n">
         <v>276</v>
@@ -8515,19 +8515,19 @@
         <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002435228287905877</v>
+        <v>0.002435612787050623</v>
       </c>
       <c r="M2" t="n">
-        <v>5.358437790534681</v>
+        <v>5.358519633410594</v>
       </c>
       <c r="N2" t="n">
-        <v>49.60553160987515</v>
+        <v>49.60540475899316</v>
       </c>
       <c r="O2" t="n">
-        <v>7.043119451626186</v>
+        <v>7.04311044631512</v>
       </c>
       <c r="P2" t="n">
-        <v>397.4025104801708</v>
+        <v>397.4023497383975</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72569668224539,173.09389936348828</t>
+          <t>-34.72569667275637,173.0938993631784</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72568641038586,173.09389902804259</t>
+          <t>-34.72568639615234,173.09389902757778</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.72566832906636,173.09389843756546</t>
+          <t>-34.725668367022415,173.09389843880496</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.725668148775064,173.09389843167773</t>
+          <t>-34.72566818673113,173.09389843291726</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.725698693916726,173.09389942918295</t>
+          <t>-34.72569865596066,173.09389942794346</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72573121277348,173.09390049114418</t>
+          <t>-34.72573119853996,173.09390049067935</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72565071270857,173.0938978622727</t>
+          <t>-34.725650698475036,173.09389786180787</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.725644018207916,173.0938976436522</t>
+          <t>-34.72564402769694,173.09389764396212</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.725674534882664,173.09389864022722</t>
+          <t>-34.7256744969266,173.0938986389877</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.72564921818858,173.09389781346655</t>
+          <t>-34.72564925614464,173.09389781470608</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72566825789874,173.09389843524133</t>
+          <t>-34.72566827687677,173.09389843586112</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.72576483710037,173.0939015892074</t>
+          <t>-34.72576482286685,173.09390158874257</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.72562580404206,173.0938970488374</t>
+          <t>-34.72562581827558,173.0938970493022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.725622411718895,173.09389693805528</t>
+          <t>-34.72562239274086,173.09389693743552</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.725798209968154,173.09390267905968</t>
+          <t>-34.7257981767566,173.09390267797508</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72587104765105,173.09390505771117</t>
+          <t>-34.72587101443949,173.09390505662657</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.725687800526664,173.0938990734401</t>
+          <t>-34.725687838482735,173.09389907467963</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.72562416244232,173.09389699522814</t>
+          <t>-34.72562419565388,173.0938969963127</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.725599922751314,173.09389620363987</t>
+          <t>-34.72559994647384,173.0938962044146</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.72569156766591,173.09389919646264</t>
+          <t>-34.725691534454356,173.09389919537807</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.725790096859846,173.09390241411114</t>
+          <t>-34.725790063648304,173.09390241302657</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72557143198106,173.09389527322602</t>
+          <t>-34.72557146044812,173.09389527415567</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.7256896888408,173.0938991351063</t>
+          <t>-34.72568973154137,173.09389913650077</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72574816964443,173.09390104490134</t>
+          <t>-34.725748145921905,173.09390104412662</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.725667294763646,173.09389840378847</t>
+          <t>-34.725667285274625,173.09389840347862</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.725631393072376,173.09389723135672</t>
+          <t>-34.725631407305904,173.09389723182156</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72566831483283,173.09389843710062</t>
+          <t>-34.72566827687677,173.09389843586112</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72563421605458,173.09389732354606</t>
+          <t>-34.72563420182107,173.09389732308125</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.72577787500779,173.0939020149841</t>
+          <t>-34.72577789398583,173.09390201560385</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.725586861120945,173.09389577709038</t>
+          <t>-34.725586875354466,173.0938957775552</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72568768665848,173.09389906972152</t>
+          <t>-34.72568765819144,173.09389906879187</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72569146803124,173.09389919320893</t>
+          <t>-34.725691444308715,173.0938991924342</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.72571296065183,173.0938998950885</t>
+          <t>-34.725712989118875,173.09389989601814</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72567212467266,173.09389856151762</t>
+          <t>-34.72567215313971,173.09389856244724</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.725770416641545,173.09390177141748</t>
+          <t>-34.72577041189704,173.09390177126255</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.72558958446851,173.09389586602586</t>
+          <t>-34.725589579723994,173.0938958658709</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.72574239557843,173.0939008563388</t>
+          <t>-34.72574237660039,173.09390085571903</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72566036303761,173.09389817742093</t>
+          <t>-34.72566034405959,173.09389817680113</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.72563228978438,173.09389726064038</t>
+          <t>-34.7256323087624,173.09389726126017</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72566367470413,173.09389828556914</t>
+          <t>-34.72566367944862,173.09389828572407</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.725645308714064,173.09389768579592</t>
+          <t>-34.72564528973604,173.09389768517616</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.72567613378182,173.09389869244205</t>
+          <t>-34.7256761195483,173.09389869197724</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.72557181628622,173.09389528577614</t>
+          <t>-34.72557182103073,173.0938952859311</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.725680579385696,173.09389883762105</t>
+          <t>-34.72568053668513,173.0938988362266</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72568355893664,173.09389893492352</t>
+          <t>-34.72568360163721,173.093898936318</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72571367707251,173.09389991848448</t>
+          <t>-34.72571371028407,173.09389991956908</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.72565774881377,173.0938980920489</t>
+          <t>-34.725657729835746,173.09389809142914</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72556599477493,173.09389509566503</t>
+          <t>-34.72556596156338,173.09389509458046</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.725826695992765,173.09390360932386</t>
+          <t>-34.7258266627812,173.09390360823926</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72568162792194,173.09389887186285</t>
+          <t>-34.72568161843292,173.09389887155297</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.725709686941414,173.09389978817967</t>
+          <t>-34.725709653729865,173.0938997870951</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72570175412429,173.09389952911945</t>
+          <t>-34.72570172091274,173.09389952803488</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.72564582586542,173.0938977026844</t>
+          <t>-34.72564583060993,173.09389770283934</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.7256927016033,173.0938992334934</t>
+          <t>-34.7256927063478,173.09389923364833</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.72561667560882,173.09389675073282</t>
+          <t>-34.725616713564875,173.09389675197235</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.72562831388674,173.09389713080066</t>
+          <t>-34.725628342353794,173.0938971317303</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.72568649578701,173.09389903083152</t>
+          <t>-34.725686486297995,173.09389903052164</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.72570122273941,173.09389951176615</t>
+          <t>-34.72570118003883,173.09389951037167</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.72559198993403,173.09389594458037</t>
+          <t>-34.72559201365657,173.0938959453551</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.7256094876793,173.09389651599878</t>
+          <t>-34.72560950191283,173.0938965164636</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.725664846597574,173.09389832383937</t>
+          <t>-34.72566485134209,173.09389832399432</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.725733248167344,173.09390055761364</t>
+          <t>-34.72573327188988,173.0939005583883</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.72551504350367,173.09389343176778</t>
+          <t>-34.72551502927014,173.09389343130294</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.725762825429065,173.0939015235126</t>
+          <t>-34.725762839662586,173.09390152397742</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.7257619334616,173.09390149438377</t>
+          <t>-34.72576193820611,173.09390149453873</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.7255796731914,173.0938955423565</t>
+          <t>-34.72557966370238,173.09389554204662</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.72564779958072,173.09389776713948</t>
+          <t>-34.725647813814234,173.0938977676043</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.72578356841714,173.09390220091282</t>
+          <t>-34.72578357316166,173.09390220106778</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.725559997716864,173.09389489982115</t>
+          <t>-34.72556001195039,173.093894900286</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72565254883312,173.0938979222345</t>
+          <t>-34.725652591533695,173.093897923629</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72565147182983,173.09389788706312</t>
+          <t>-34.72565150978589,173.09389788830265</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.725715138380934,173.09389996620615</t>
+          <t>-34.72571515261445,173.09389996667096</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72570446323827,173.09389961759038</t>
+          <t>-34.72570442528221,173.09389961635085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72580908912446,173.0939030343387</t>
+          <t>-34.72580908437996,173.09390303418377</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.7256725706564,173.09389857608198</t>
+          <t>-34.72567260386796,173.09389857716656</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.725763271412795,173.093901538077</t>
+          <t>-34.72576329039083,173.09390153869677</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72581531391865,173.09390323762096</t>
+          <t>-34.72581530442964,173.09390323731105</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.725738191944494,173.09390071906157</t>
+          <t>-34.72573822990056,173.0939007203011</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72566820096464,173.09389843338207</t>
+          <t>-34.72566818673113,173.09389843291726</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10655,7 +10655,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.7257302591274,173.09390046000115</t>
+          <t>-34.72573029708347,173.09390046124068</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.725613416131864,173.09389664428906</t>
+          <t>-34.725613378175815,173.09389664304953</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.725654337512594,173.09389798064694</t>
+          <t>-34.72565430430104,173.09389797956234</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.72562432375558,173.0938970004961</t>
+          <t>-34.72562428579951,173.09389699925657</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.72568959869516,173.09389913216245</t>
+          <t>-34.725689641395725,173.0938991335569</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.72578691329513,173.09390231014598</t>
+          <t>-34.72578690855063,173.09390230999105</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.7256989880762,173.09389943878926</t>
+          <t>-34.72569901654325,173.0938994397189</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.72566954840489,173.09389847738507</t>
+          <t>-34.72566953891587,173.09389847707521</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.725846784238534,173.0939042653433</t>
+          <t>-34.725846765260506,173.09390426472356</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.725638794504725,173.0938974730632</t>
+          <t>-34.72563879924924,173.09389747321816</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.725584166240424,173.09389568908452</t>
+          <t>-34.72558417098494,173.09389568923945</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.72566292981639,173.09389826124354</t>
+          <t>-34.72566295828344,173.09389826217318</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.725732787950086,173.09390054258438</t>
+          <t>-34.72573282116164,173.09390054366898</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72573676859214,173.09390067257942</t>
+          <t>-34.72573678757018,173.0939006731992</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.72554832148274,173.09389451851447</t>
+          <t>-34.72554829301569,173.09389451758483</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72561965041529,173.0938968478802</t>
+          <t>-34.725619688371346,173.09389684911972</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72580606687303,173.09390293564147</t>
+          <t>-34.72580610957359,173.09390293703595</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72584854919541,173.09390432298133</t>
+          <t>-34.72584856817345,173.09390432360107</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.72575458896351,173.09390125453584</t>
+          <t>-34.72575454626295,173.09390125314138</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.72576910241288,173.09390172849896</t>
+          <t>-34.7257690597123,173.0939017271045</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.72572623578477,173.09390032861168</t>
+          <t>-34.725726240529276,173.09390032876664</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.72573813501041,173.09390071720225</t>
+          <t>-34.7257381397549,173.0939007173572</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.72574184047101,173.09390083821077</t>
+          <t>-34.725741835726495,173.09390083805582</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.72581649055659,173.09390327604626</t>
+          <t>-34.725816476323054,173.09390327558143</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.72566103675774,173.09389819942243</t>
+          <t>-34.725661065224784,173.09389820035207</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.72571812267636,173.09390006366363</t>
+          <t>-34.72571812742087,173.09390006381855</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.72555645356941,173.0938947840812</t>
+          <t>-34.72555649626999,173.09389478547564</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.72562404857412,173.09389699150958</t>
+          <t>-34.72562401536257,173.09389699042498</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.7256908892013,173.0938991743062</t>
+          <t>-34.725690903434824,173.09389917477102</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.725647467465166,173.09389775629367</t>
+          <t>-34.725647453231645,173.09389775582886</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.72576688672774,173.09390165614172</t>
+          <t>-34.725766896216754,173.0939016564516</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.72563578174219,173.09389737467626</t>
+          <t>-34.72563582444277,173.09389737607074</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.725587791044504,173.09389580745858</t>
+          <t>-34.72558777681099,173.09389580699377</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72581479202281,173.09390322057746</t>
+          <t>-34.72581476355576,173.0939032196478</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72569599903626,173.09389934117686</t>
+          <t>-34.72569604173684,173.09389934257132</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.725613482554984,173.09389664645823</t>
+          <t>-34.72561346832146,173.0938966459934</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.725642343396636,173.09389758895838</t>
+          <t>-34.72564231492959,173.0938975880287</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.72571423217993,173.09389993661253</t>
+          <t>-34.72571425115797,173.0938999372323</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.72571015664769,173.09389980351875</t>
+          <t>-34.72571019460375,173.09389980475828</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72573052481985,173.09390046867782</t>
+          <t>-34.72573056752042,173.09390047007227</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72564420324373,173.0938976496949</t>
+          <t>-34.72564420798824,173.09389764984982</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72549311913211,173.09389271579215</t>
+          <t>-34.72549312387662,173.0938927159471</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.72570629936281,173.0938996775523</t>
+          <t>-34.72570631834083,173.09389967817202</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.72567713961749,173.0938987252894</t>
+          <t>-34.72567711115043,173.09389872435975</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.725539914214586,173.09389424396133</t>
+          <t>-34.725539909470086,173.09389424380637</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.725595633716125,173.09389606357422</t>
+          <t>-34.72559561948262,173.09389606310938</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.72563811129559,173.09389745075183</t>
+          <t>-34.725638078084025,173.09389744966725</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.72573748501283,173.09390069597544</t>
+          <t>-34.72573750873537,173.09390069675013</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.725659499537194,173.09389814922181</t>
+          <t>-34.72565953274874,173.0938981503064</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.72562975621715,173.0938971779024</t>
+          <t>-34.72562978468419,173.09389717883207</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.7256888443184,173.09389910752694</t>
+          <t>-34.72568883008488,173.09389910706213</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.72570886614157,173.09389976137498</t>
+          <t>-34.72570884241902,173.0938997606003</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.72565350247921,173.09389795337748</t>
+          <t>-34.7256534929902,173.0938979530676</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -11845,7 +11845,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72564306456184,173.09389761250927</t>
+          <t>-34.72564303609478,173.09389761157962</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.72569665852286,173.09389936271359</t>
+          <t>-34.72569667275637,173.0938993631784</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.72563458138169,173.09389733547644</t>
+          <t>-34.72563456240367,173.09389733485668</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72557441153207,173.09389537052823</t>
+          <t>-34.72557443525461,173.09389537130295</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.72576678234857,173.09390165273302</t>
+          <t>-34.72576680607111,173.09390165350774</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.725681960037484,173.09389888270863</t>
+          <t>-34.72568197901552,173.09389888332842</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.725737285743506,173.09390068946792</t>
+          <t>-34.725737328444076,173.09390069086237</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.72562287193617,173.09389695308445</t>
+          <t>-34.72562284346911,173.09389695215484</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.72571168912373,173.0938998535645</t>
+          <t>-34.72571172707979,173.09389985480402</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.72576380279767,173.09390155543034</t>
+          <t>-34.72576383126473,173.09390155636</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.72568876840627,173.0938991050479</t>
+          <t>-34.72568873993923,173.09389910411826</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.72565347875666,173.0938979526028</t>
+          <t>-34.7256534929902,173.0938979530676</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.72578736876788,173.09390232502028</t>
+          <t>-34.72578735927886,173.0939023247104</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.72573015000373,173.0939004564375</t>
+          <t>-34.72573011679217,173.09390045535295</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.72568919541199,173.09389911899254</t>
+          <t>-34.725689190667474,173.09389911883758</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.72566766957976,173.09389841602876</t>
+          <t>-34.72566764585722,173.09389841525407</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.72576976664398,173.09390175019064</t>
+          <t>-34.7257697808775,173.09390175065545</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.72572224565367,173.0939001983068</t>
+          <t>-34.72572227412073,173.09390019923646</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72576678709308,173.09390165288795</t>
+          <t>-34.72576680607111,173.09390165350774</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.725678605670424,173.0938987731659</t>
+          <t>-34.72567864362648,173.09389877440543</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.725625936888285,173.0938970531757</t>
+          <t>-34.725625908421236,173.09389705224606</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.725689114755355,173.09389911635856</t>
+          <t>-34.725689100521826,173.09389911589372</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72563812552911,173.09389745121666</t>
+          <t>-34.72563816822967,173.09389745261112</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.72565653421975,173.09389805238425</t>
+          <t>-34.725656557942294,173.0938980531589</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.72582924853793,173.093903692682</t>
+          <t>-34.725829277004976,173.09390369361162</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72573099452612,173.0939004840169</t>
+          <t>-34.72573101824866,173.09390048479162</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.72575472180973,173.09390125887418</t>
+          <t>-34.725754726554236,173.0939012590291</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.72578185090532,173.0939021448243</t>
+          <t>-34.72578186039434,173.09390214513422</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72566646447476,173.09389837667396</t>
+          <t>-34.72566647396377,173.09389837698384</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.725612799345846,173.09389662414688</t>
+          <t>-34.7256128373019,173.0938966253864</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.72564973059543,173.0938978302001</t>
+          <t>-34.7256497068729,173.0938978294254</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.72562538178085,173.09389703504772</t>
+          <t>-34.72562536754733,173.09389703458288</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72564098646737,173.09389754464553</t>
+          <t>-34.725640962744826,173.0938975438708</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.72556366047702,173.09389501943465</t>
+          <t>-34.72556361777645,173.0938950180402</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72570377528463,173.09389959512404</t>
+          <t>-34.72570379426266,173.09389959574378</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.72570901796581,173.0938997663331</t>
+          <t>-34.72570902271032,173.09389976648802</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.72575083605783,173.0939011319779</t>
+          <t>-34.72575085029135,173.09390113244274</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.725687311842364,173.09389905748125</t>
+          <t>-34.72568729760884,173.09389905701642</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72564012296692,173.09389751644642</t>
+          <t>-34.72564015143398,173.09389751737606</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.7256421393828,173.09389758229597</t>
+          <t>-34.72564213463829,173.093897582141</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.725637693778886,173.0938974371171</t>
+          <t>-34.725637717501414,173.0938974378918</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.7257090132213,173.09389976617814</t>
+          <t>-34.72570902271032,173.09389976648802</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.72569281547148,173.09389923721196</t>
+          <t>-34.72569279649345,173.0938992365922</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.725708206654964,173.0938997398383</t>
+          <t>-34.72570821139948,173.09389973999325</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.725664248789585,173.09389830431692</t>
+          <t>-34.725664220322535,173.09389830338728</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.72574839738081,173.0939010523385</t>
+          <t>-34.72574841635883,173.09390105295824</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.725730325550515,173.09390046217032</t>
+          <t>-34.72573029708347,173.09390046124068</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.725683108208386,173.0938989202042</t>
+          <t>-34.72568315090897,173.09389892159865</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.725725785056525,173.09390031389236</t>
+          <t>-34.72572578980103,173.0939003140473</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13007,7 +13007,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.72567862939296,173.09389877394062</t>
+          <t>-34.72567864362648,173.09389877440543</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.72566041048269,173.0938981789703</t>
+          <t>-34.725660434205246,173.09389817974503</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.725581547272036,173.09389560355774</t>
+          <t>-34.72558155676104,173.09389560386762</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.72580832051421,173.0939030092383</t>
+          <t>-34.725808363214774,173.09390301063277</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.725633836493955,173.09389731115084</t>
+          <t>-34.72563384123846,173.0938973113058</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.725716296040844,173.09390000401157</t>
+          <t>-34.72571632450789,173.09390000494122</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.7256138526266,173.09389665854354</t>
+          <t>-34.72561382890407,173.09389665776885</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.725667290019125,173.09389840363355</t>
+          <t>-34.725667285274625,173.09389840347862</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.72568310346388,173.09389892004924</t>
+          <t>-34.72568306076332,173.0938989186548</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.72568998774479,173.09389914486755</t>
+          <t>-34.72569000197832,173.09389914533236</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.725711812480924,173.09389985759296</t>
+          <t>-34.72571181722544,173.09389985774789</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.725667878338115,173.09389842284614</t>
+          <t>-34.72566791629418,173.09389842408567</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.72566359404749,173.09389828293516</t>
+          <t>-34.725663589302975,173.09389828278023</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72568352098057,173.09389893368402</t>
+          <t>-34.72568351149156,173.0938989333741</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.72576654512317,173.09390164498598</t>
+          <t>-34.72576653563415,173.09390164467612</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.72582897335648,173.09390368369543</t>
+          <t>-34.725829006568034,173.09390368478003</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.7256954818849,173.09389932428837</t>
+          <t>-34.725695500862926,173.09389932490816</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.72561476357213,173.093896688292</t>
+          <t>-34.72561473036056,173.09389668720743</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.725699211068076,173.09389944607148</t>
+          <t>-34.72569919683456,173.0938994456066</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.72566778344795,173.09389841974732</t>
+          <t>-34.72566782614852,173.0938984211418</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.72562751680941,173.09389710477072</t>
+          <t>-34.72562753104294,173.09389710523553</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-34.72570870008378,173.0938997559521</t>
+          <t>-34.72570866212773,173.09389975471257</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-34.725633471166844,173.09389729922046</t>
+          <t>-34.725633480655866,173.09389729953034</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.7257263733755,173.09390033310495</t>
+          <t>-34.72572633067493,173.09390033171047</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -13553,7 +13553,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.725702157407454,173.09389954228936</t>
+          <t>-34.72570217164097,173.0938995427542</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.72587003232638,173.0939050245538</t>
+          <t>-34.72587002283738,173.09390502424392</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -13597,7 +13597,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.72565494955412,173.09389800063423</t>
+          <t>-34.72565493532059,173.0938980001694</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.72573822515605,173.09390072014614</t>
+          <t>-34.72573822990056,173.0939007203011</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.72569582348947,173.0938993354441</t>
+          <t>-34.72569586144554,173.09389933668362</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.72572158142258,173.09390017661516</t>
+          <t>-34.725721552955534,173.09390017568552</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.725686789946494,173.09389904043783</t>
+          <t>-34.725686756734945,173.09389903935323</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.725685931190576,173.09389901239362</t>
+          <t>-34.7256859454241,173.09389901285843</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.725704690974645,173.09389962502752</t>
+          <t>-34.72570469571916,173.09389962518244</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-34.725704700463666,173.0938996253374</t>
+          <t>-34.72570469571916,173.09389962518244</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-34.725695353783195,173.09389932010498</t>
+          <t>-34.72569532057163,173.0938993190204</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.7256218139109,173.09389691853283</t>
+          <t>-34.72562185186696,173.09389691977236</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.725693399045944,173.0938992562696</t>
+          <t>-34.725693427513,173.09389925719924</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-34.725681926825935,173.09389888162409</t>
+          <t>-34.72568188886987,173.09389888038456</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-34.72555338387276,173.09389468383515</t>
+          <t>-34.72555334117219,173.0938946824407</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-34.72563488028569,173.09389734523765</t>
+          <t>-34.72563492298626,173.09389734663213</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-34.72568061259725,173.09389883870566</t>
+          <t>-34.72568062683078,173.09389883917046</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-34.725708946798186,173.09389976400897</t>
+          <t>-34.72570893256466,173.09389976354416</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-34.72572568542185,173.0939003106386</t>
+          <t>-34.72572569965538,173.0939003111034</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-34.72567375203888,173.09389861466207</t>
+          <t>-34.7256737757614,173.09389861543679</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-34.7257376558151,173.09390070155328</t>
+          <t>-34.72573768902667,173.09390070263785</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -14015,7 +14015,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-34.72568459798386,173.09389896885543</t>
+          <t>-34.72568459323935,173.09389896870047</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-34.7257037563066,173.09389959450425</t>
+          <t>-34.72570379426266,173.09389959574378</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-34.725702394632854,173.09389955003638</t>
+          <t>-34.72570235193228,173.09389954864193</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-34.725704178567796,173.09389960829395</t>
+          <t>-34.72570415484527,173.09389960751923</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-34.725656842612764,173.09389806245534</t>
+          <t>-34.72565682837925,173.09389806199053</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-34.72566294879442,173.0938982618633</t>
+          <t>-34.72566295828344,173.09389826217318</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -14169,7 +14169,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-34.725654902109035,173.09389799908482</t>
+          <t>-34.72565493532059,173.0938980001694</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-34.72572943832754,173.09390043319647</t>
+          <t>-34.72572939562698,173.093900431802</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-34.72566623673839,173.09389836923685</t>
+          <t>-34.725666203526835,173.09389836815225</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -14235,7 +14235,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-34.72564361018024,173.09389763032738</t>
+          <t>-34.725643576968686,173.09389762924278</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-34.725613534744575,173.09389664816257</t>
+          <t>-34.72561355846711,173.09389664893726</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-34.72566768855779,173.09389841664853</t>
+          <t>-34.72566764585722,173.09389841525407</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-34.72562245441947,173.09389693944973</t>
+          <t>-34.72562248288651,173.09389694037938</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-34.72568098266888,173.09389885079096</t>
+          <t>-34.725680987413384,173.09389885094592</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-34.72569753625681,173.09389939137753</t>
+          <t>-34.72569757421286,173.09389939261706</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-34.725763337835915,173.09390154024618</t>
+          <t>-34.725763380536485,173.09390154164066</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -14389,7 +14389,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-34.72575359261687,173.09390122199835</t>
+          <t>-34.7257535546608,173.09390122075882</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -14411,7 +14411,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-34.72566081376587,173.09389819214022</t>
+          <t>-34.725660794787835,173.09389819152048</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-34.72585328421414,173.09390447761234</t>
+          <t>-34.72585325574708,173.09390447668267</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-34.725661829090555,173.09389822529744</t>
+          <t>-34.72566178638999,173.09389822390298</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-34.72570424024641,173.09389961030817</t>
+          <t>-34.725704244990915,173.09389961046313</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-34.72568252463393,173.09389890114656</t>
+          <t>-34.72568251988942,173.0938989009916</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-34.72569459466194,173.09389929531454</t>
+          <t>-34.725694599406445,173.0938992954695</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-34.72561273292273,173.0938966219777</t>
+          <t>-34.72561274715624,173.09389662244251</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-34.725671156793055,173.09389852990978</t>
+          <t>-34.725671161537555,173.09389853006473</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-34.725715138380934,173.09389996620615</t>
+          <t>-34.72571515261445,173.09389996667096</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-34.72573658355633,173.09390066653674</t>
+          <t>-34.72573660727888,173.09390066731143</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -8497,13 +8497,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.095</v>
+        <v>0.17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0848</v>
+        <v>0.1319</v>
       </c>
       <c r="H2" t="n">
-        <v>0.107</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.04540931095757128</v>
@@ -8575,13 +8575,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0197</v>
+        <v>0.0214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0206</v>
+        <v>0.026</v>
       </c>
       <c r="I3" t="n">
         <v>0.2197680340784595</v>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>392.01</v>
+        <v>391.13</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395.48</v>
+        <v>399.19</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.62</v>
+        <v>397.78</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>398.62</v>
+        <v>400.53</v>
       </c>
       <c r="C5" t="n">
-        <v>443.19</v>
+        <v>447.29</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398.64</v>
+        <v>394.37</v>
       </c>
       <c r="C6" t="n">
-        <v>430.94</v>
+        <v>421.74</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.26</v>
+        <v>395.12</v>
       </c>
       <c r="C7" t="n">
-        <v>414.63</v>
+        <v>414.33</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.65</v>
+        <v>393.69</v>
       </c>
       <c r="C8" t="n">
-        <v>468.45</v>
+        <v>472.85</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400.58</v>
+        <v>396.45</v>
       </c>
       <c r="C9" t="n">
-        <v>443.67</v>
+        <v>434.77</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>401.32</v>
+        <v>397.61</v>
       </c>
       <c r="C10" t="n">
-        <v>436.54</v>
+        <v>428.54</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397.94</v>
+        <v>399.56</v>
       </c>
       <c r="C11" t="n">
-        <v>417.07</v>
+        <v>420.57</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400.74</v>
+        <v>403.53</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>398.63</v>
+        <v>400.91</v>
       </c>
       <c r="C13" t="n">
-        <v>465.22</v>
+        <v>470.12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>387.92</v>
+        <v>389.96</v>
       </c>
       <c r="C14" t="n">
-        <v>426.13</v>
+        <v>430.53</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>403.34</v>
+        <v>400.42</v>
       </c>
       <c r="C15" t="n">
-        <v>440.54</v>
+        <v>434.24</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403.72</v>
+        <v>403.21</v>
       </c>
       <c r="C16" t="n">
-        <v>408.74</v>
+        <v>407.64</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>384.22</v>
+        <v>386.63</v>
       </c>
       <c r="C17" t="n">
-        <v>407.13</v>
+        <v>412.33</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>376.14</v>
+        <v>377.67</v>
       </c>
       <c r="C18" t="n">
-        <v>372.68</v>
+        <v>375.98</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>396.46</v>
+        <v>392.19</v>
       </c>
       <c r="C19" t="n">
-        <v>439.4</v>
+        <v>430.2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>403.52</v>
+        <v>400.23</v>
       </c>
       <c r="C20" t="n">
-        <v>432.39</v>
+        <v>425.29</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>406.21</v>
+        <v>404.87</v>
       </c>
       <c r="C21" t="n">
-        <v>417.7</v>
+        <v>414.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>396.05</v>
+        <v>395.81</v>
       </c>
       <c r="C22" t="n">
-        <v>450.59</v>
+        <v>450.09</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.12</v>
+        <v>386.65</v>
       </c>
       <c r="C23" t="n">
-        <v>416.6</v>
+        <v>419.9</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>409.37</v>
+        <v>408.82</v>
       </c>
       <c r="C24" t="n">
-        <v>442.35</v>
+        <v>441.15</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>396.25</v>
+        <v>398.95</v>
       </c>
       <c r="C25" t="n">
-        <v>419.1</v>
+        <v>424.9</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.98</v>
+        <v>394.33</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>389.77</v>
+        <v>389.35</v>
       </c>
       <c r="C27" t="n">
-        <v>422.61</v>
+        <v>421.71</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>398.74</v>
+        <v>398.04</v>
       </c>
       <c r="C28" t="n">
-        <v>417.88</v>
+        <v>416.38</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>402.05</v>
+        <v>398.52</v>
       </c>
       <c r="C29" t="n">
-        <v>441.17</v>
+        <v>433.57</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>434.72</v>
+        <v>425.42</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.72</v>
+        <v>398.03</v>
       </c>
       <c r="C31" t="n">
-        <v>453.7</v>
+        <v>443.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>398.63</v>
+        <v>397.6</v>
       </c>
       <c r="C32" t="n">
-        <v>421.75</v>
+        <v>419.55</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>402.41</v>
+        <v>402.69</v>
       </c>
       <c r="C33" t="n">
-        <v>452.63</v>
+        <v>453.23</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>461.86</v>
+        <v>456.76</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386.47</v>
+        <v>389.63</v>
       </c>
       <c r="C35" t="n">
-        <v>427.02</v>
+        <v>433.82</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>438.86</v>
+        <v>445.16</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>407.66</v>
+        <v>410.91</v>
       </c>
       <c r="C37" t="n">
-        <v>390.66</v>
+        <v>397.66</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.48</v>
+        <v>396.15</v>
       </c>
       <c r="C38" t="n">
-        <v>399.34</v>
+        <v>398.64</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>396.06</v>
+        <v>393.87</v>
       </c>
       <c r="C39" t="n">
-        <v>417.07</v>
+        <v>412.37</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>393.67</v>
+        <v>391.35</v>
       </c>
       <c r="C40" t="n">
-        <v>428.18</v>
+        <v>423.18</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>398.2</v>
+        <v>397.65</v>
       </c>
       <c r="C41" t="n">
-        <v>406.77</v>
+        <v>405.57</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>387.3</v>
+        <v>387.39</v>
       </c>
       <c r="C42" t="n">
-        <v>447.13</v>
+        <v>447.33</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>407.36</v>
+        <v>402.16</v>
       </c>
       <c r="C43" t="n">
-        <v>456.59</v>
+        <v>445.39</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.41</v>
+        <v>391.66</v>
       </c>
       <c r="C44" t="n">
-        <v>423.75</v>
+        <v>426.45</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>402.2</v>
+        <v>405.4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>399.51</v>
+        <v>398.11</v>
       </c>
       <c r="C46" t="n">
-        <v>425.77</v>
+        <v>422.77</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>402.62</v>
+        <v>401.37</v>
       </c>
       <c r="C47" t="n">
-        <v>424.22</v>
+        <v>421.52</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>399.14</v>
+        <v>401.69</v>
       </c>
       <c r="C48" t="n">
-        <v>458.08</v>
+        <v>463.58</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>401.18</v>
+        <v>403.31</v>
       </c>
       <c r="C49" t="n">
-        <v>432.6</v>
+        <v>437.2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>406.88</v>
+        <v>406.18</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>397.76</v>
+        <v>397.15</v>
       </c>
       <c r="C51" t="n">
-        <v>432.1</v>
+        <v>430.8</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1345,11 +1345,9 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>409.33</v>
-      </c>
-      <c r="C52" t="n">
-        <v>464.63</v>
-      </c>
+        <v>412.77</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1363,10 +1361,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>405.38</v>
+        <v>400.97</v>
       </c>
       <c r="C53" t="n">
-        <v>440.91</v>
+        <v>431.41</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1381,10 +1379,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>397.27</v>
+        <v>396.34</v>
       </c>
       <c r="C54" t="n">
-        <v>435.64</v>
+        <v>433.64</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1399,10 +1397,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>396.93</v>
+        <v>396.98</v>
       </c>
       <c r="C55" t="n">
-        <v>432.63</v>
+        <v>432.73</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1417,10 +1415,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>393.59</v>
+        <v>391.18</v>
       </c>
       <c r="C56" t="n">
-        <v>418.88</v>
+        <v>413.68</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1435,10 +1433,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>399.8</v>
+        <v>401.93</v>
       </c>
       <c r="C57" t="n">
-        <v>447.59</v>
+        <v>452.19</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1453,10 +1451,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>409.98</v>
+        <v>412.39</v>
       </c>
       <c r="C58" t="n">
-        <v>437.18</v>
+        <v>442.38</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1471,10 +1469,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>381.06</v>
+        <v>375.53</v>
       </c>
       <c r="C59" t="n">
-        <v>446.88</v>
+        <v>434.98</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1489,10 +1487,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>397.15</v>
+        <v>398.22</v>
       </c>
       <c r="C60" t="n">
-        <v>426.86</v>
+        <v>429.16</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1507,10 +1505,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>397.61</v>
+        <v>394.08</v>
       </c>
       <c r="C61" t="n">
-        <v>433.75</v>
+        <v>426.15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1525,10 +1523,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>394.04</v>
+        <v>392.92</v>
       </c>
       <c r="C62" t="n">
-        <v>415.23</v>
+        <v>412.83</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1543,10 +1541,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>394.92</v>
+        <v>396.45</v>
       </c>
       <c r="C63" t="n">
-        <v>380.37</v>
+        <v>383.67</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1561,10 +1559,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>401.12</v>
+        <v>398.38</v>
       </c>
       <c r="C64" t="n">
-        <v>436.46</v>
+        <v>430.56</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1579,10 +1577,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>395.92</v>
+        <v>398.47</v>
       </c>
       <c r="C65" t="n">
-        <v>428.11</v>
+        <v>433.61</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1597,10 +1595,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>404.35</v>
+        <v>400.96</v>
       </c>
       <c r="C66" t="n">
-        <v>434.41</v>
+        <v>427.11</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1615,10 +1613,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>403.06</v>
+        <v>402.51</v>
       </c>
       <c r="C67" t="n">
-        <v>441.57</v>
+        <v>440.37</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1633,10 +1631,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>396.61</v>
+        <v>395.91</v>
       </c>
       <c r="C68" t="n">
-        <v>401.66</v>
+        <v>400.16</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1652,7 +1650,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>435.12</v>
+        <v>437.72</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1667,10 +1665,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>394.98</v>
+        <v>398.46</v>
       </c>
       <c r="C70" t="n">
-        <v>434.04</v>
+        <v>441.54</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1685,10 +1683,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>407.09</v>
+        <v>403.98</v>
       </c>
       <c r="C71" t="n">
-        <v>429.24</v>
+        <v>422.54</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1703,7 +1701,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>405.15</v>
+        <v>400.46</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
@@ -1719,10 +1717,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>399.01</v>
+        <v>396.27</v>
       </c>
       <c r="C73" t="n">
-        <v>425.28</v>
+        <v>419.38</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1737,10 +1735,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>391.42</v>
+        <v>387.43</v>
       </c>
       <c r="C74" t="n">
-        <v>436.72</v>
+        <v>428.12</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1755,10 +1753,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>415.63</v>
+        <v>412.38</v>
       </c>
       <c r="C75" t="n">
-        <v>445.77</v>
+        <v>438.77</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1773,10 +1771,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>388.14</v>
+        <v>389.63</v>
       </c>
       <c r="C76" t="n">
-        <v>417.1</v>
+        <v>420.3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1792,7 +1790,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>395.04</v>
+        <v>397.54</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1807,10 +1805,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>388.24</v>
+        <v>387.27</v>
       </c>
       <c r="C78" t="n">
-        <v>399.08</v>
+        <v>396.98</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1825,10 +1823,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>408.46</v>
+        <v>406</v>
       </c>
       <c r="C79" t="n">
-        <v>429.69</v>
+        <v>424.39</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1843,10 +1841,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>400.9</v>
+        <v>402.39</v>
       </c>
       <c r="C80" t="n">
-        <v>450.39</v>
+        <v>453.59</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1861,7 +1859,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>385.84</v>
+        <v>388.39</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
@@ -1877,10 +1875,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>410.64</v>
+        <v>409.48</v>
       </c>
       <c r="C82" t="n">
-        <v>453.15</v>
+        <v>450.65</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1895,9 +1893,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>400.37</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>399.54</v>
+      </c>
+      <c r="C83" t="n">
+        <v>410.42</v>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>400.49</v>
+        <v>395.34</v>
       </c>
       <c r="C84" t="n">
-        <v>458.69</v>
+        <v>447.59</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>393.43</v>
+        <v>391.39</v>
       </c>
       <c r="C85" t="n">
-        <v>421.91</v>
+        <v>417.51</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>394.62</v>
+        <v>396.24</v>
       </c>
       <c r="C86" t="n">
-        <v>417.89</v>
+        <v>421.39</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1965,9 +1965,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>383.01</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>384.87</v>
+      </c>
+      <c r="C87" t="n">
+        <v>381.53</v>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1981,10 +1983,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>398.15</v>
+        <v>393.97</v>
       </c>
       <c r="C88" t="n">
-        <v>436.77</v>
+        <v>427.77</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2000,7 +2002,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>463.11</v>
+        <v>457.11</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2015,10 +2017,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>396.97</v>
+        <v>398.73</v>
       </c>
       <c r="C90" t="n">
-        <v>435.99</v>
+        <v>439.79</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2033,10 +2035,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>388.09</v>
+        <v>391.25</v>
       </c>
       <c r="C91" t="n">
-        <v>403.55</v>
+        <v>410.35</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2051,7 +2053,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>382.32</v>
+        <v>385.15</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
@@ -2067,10 +2069,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>390.87</v>
+        <v>393.66</v>
       </c>
       <c r="C93" t="n">
-        <v>404.56</v>
+        <v>410.56</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2085,10 +2087,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>398.64</v>
+        <v>396.27</v>
       </c>
       <c r="C94" t="n">
-        <v>428.69</v>
+        <v>423.59</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2103,10 +2105,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>391.75</v>
+        <v>394.54</v>
       </c>
       <c r="C95" t="n">
-        <v>425.65</v>
+        <v>431.65</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2121,10 +2123,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>404.72</v>
+        <v>401.05</v>
       </c>
       <c r="C96" t="n">
-        <v>460.9</v>
+        <v>453</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2139,10 +2141,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>400.18</v>
+        <v>396.41</v>
       </c>
       <c r="C97" t="n">
-        <v>440.52</v>
+        <v>432.42</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>403.51</v>
+        <v>402.48</v>
       </c>
       <c r="C98" t="n">
-        <v>421.67</v>
+        <v>419.47</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2176,7 +2178,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>427.83</v>
+        <v>431.83</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2191,10 +2193,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>396.26</v>
+        <v>393.66</v>
       </c>
       <c r="C100" t="n">
-        <v>417.4</v>
+        <v>411.8</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2209,9 +2211,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>385.47</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>388.21</v>
+      </c>
+      <c r="C101" t="n">
+        <v>379.55</v>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2225,10 +2229,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>395.22</v>
+        <v>398.2</v>
       </c>
       <c r="C102" t="n">
-        <v>450.21</v>
+        <v>456.61</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2243,10 +2247,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>398.49</v>
+        <v>400.44</v>
       </c>
       <c r="C103" t="n">
-        <v>434.64</v>
+        <v>438.84</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2261,7 +2265,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>378.83</v>
+        <v>376.55</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
@@ -2277,10 +2281,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>401.9</v>
+        <v>400.93</v>
       </c>
       <c r="C105" t="n">
-        <v>421.21</v>
+        <v>419.11</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2295,10 +2299,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>407.96</v>
+        <v>406.1</v>
       </c>
       <c r="C106" t="n">
-        <v>423.18</v>
+        <v>419.18</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2313,10 +2317,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>399.22</v>
+        <v>400.43</v>
       </c>
       <c r="C107" t="n">
-        <v>442.03</v>
+        <v>444.63</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2331,10 +2335,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>391.47</v>
+        <v>393.47</v>
       </c>
       <c r="C108" t="n">
-        <v>447.19</v>
+        <v>451.49</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2349,10 +2353,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>391.03</v>
+        <v>390.66</v>
       </c>
       <c r="C109" t="n">
-        <v>397.65</v>
+        <v>396.85</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2368,7 +2372,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>416.42</v>
+        <v>414.12</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2383,10 +2387,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>411.94</v>
+        <v>408.96</v>
       </c>
       <c r="C111" t="n">
-        <v>444.55</v>
+        <v>438.15</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2401,10 +2405,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>404.02</v>
+        <v>402.4</v>
       </c>
       <c r="C112" t="n">
-        <v>435.69</v>
+        <v>432.19</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2419,7 +2423,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>383.34</v>
+        <v>386.04</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
@@ -2435,10 +2439,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>378.63</v>
+        <v>381.79</v>
       </c>
       <c r="C114" t="n">
-        <v>402.54</v>
+        <v>409.34</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2453,10 +2457,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>389.06</v>
+        <v>387.24</v>
       </c>
       <c r="C115" t="n">
-        <v>437.61</v>
+        <v>433.71</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2471,10 +2475,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>387.45</v>
+        <v>382.99</v>
       </c>
       <c r="C116" t="n">
-        <v>436.25</v>
+        <v>426.65</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2489,10 +2493,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>392.2</v>
+        <v>393.87</v>
       </c>
       <c r="C117" t="n">
-        <v>437.59</v>
+        <v>441.19</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2507,10 +2511,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>390.88</v>
+        <v>387.26</v>
       </c>
       <c r="C118" t="n">
-        <v>428.81</v>
+        <v>421.01</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2525,10 +2529,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>390.47</v>
+        <v>392.33</v>
       </c>
       <c r="C119" t="n">
-        <v>420.65</v>
+        <v>424.65</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2543,10 +2547,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>382.19</v>
+        <v>379.82</v>
       </c>
       <c r="C120" t="n">
-        <v>419.51</v>
+        <v>414.41</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2561,10 +2565,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>399.43</v>
+        <v>397.99</v>
       </c>
       <c r="C121" t="n">
-        <v>418.68</v>
+        <v>415.58</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2579,10 +2583,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>393.1</v>
+        <v>394.77</v>
       </c>
       <c r="C122" t="n">
-        <v>415.12</v>
+        <v>418.72</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2597,10 +2601,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>411.03</v>
+        <v>407.55</v>
       </c>
       <c r="C123" t="n">
-        <v>437.77</v>
+        <v>430.27</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2615,10 +2619,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>403.54</v>
+        <v>400.66</v>
       </c>
       <c r="C124" t="n">
-        <v>434.24</v>
+        <v>428.04</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2633,10 +2637,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>396.12</v>
+        <v>395.84</v>
       </c>
       <c r="C125" t="n">
-        <v>398.77</v>
+        <v>398.17</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2651,10 +2655,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>400.94</v>
+        <v>400.33</v>
       </c>
       <c r="C126" t="n">
-        <v>445.85</v>
+        <v>444.55</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2669,10 +2673,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>387.69</v>
+        <v>390.15</v>
       </c>
       <c r="C127" t="n">
-        <v>406.62</v>
+        <v>411.92</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2687,10 +2691,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>402.23</v>
+        <v>396.99</v>
       </c>
       <c r="C128" t="n">
-        <v>447.31</v>
+        <v>436.01</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2705,10 +2709,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>407.56</v>
+        <v>405.19</v>
       </c>
       <c r="C129" t="n">
-        <v>428.68</v>
+        <v>423.58</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2723,10 +2727,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>382.38</v>
+        <v>386.46</v>
       </c>
       <c r="C130" t="n">
-        <v>389.1</v>
+        <v>397.9</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2741,10 +2745,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>395.55</v>
+        <v>398.25</v>
       </c>
       <c r="C131" t="n">
-        <v>438.33</v>
+        <v>444.13</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2759,10 +2763,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>404.71</v>
+        <v>407.63</v>
       </c>
       <c r="C132" t="n">
-        <v>444.57</v>
+        <v>450.87</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2777,10 +2781,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>401.51</v>
+        <v>399.42</v>
       </c>
       <c r="C133" t="n">
-        <v>425.69</v>
+        <v>421.19</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2795,10 +2799,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>393.53</v>
+        <v>390.51</v>
       </c>
       <c r="C134" t="n">
-        <v>432.47</v>
+        <v>425.97</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2813,10 +2817,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>393.98</v>
+        <v>393.24</v>
       </c>
       <c r="C135" t="n">
-        <v>411.18</v>
+        <v>409.58</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2831,10 +2835,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>391.72</v>
+        <v>394.42</v>
       </c>
       <c r="C136" t="n">
-        <v>422.24</v>
+        <v>428.04</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2849,10 +2853,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>401.3</v>
+        <v>398.56</v>
       </c>
       <c r="C137" t="n">
-        <v>425.48</v>
+        <v>419.58</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2867,11 +2871,9 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>418.06</v>
-      </c>
-      <c r="C138" t="n">
-        <v>466.25</v>
-      </c>
+        <v>420.61</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2885,11 +2887,9 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>394.41</v>
-      </c>
-      <c r="C139" t="n">
-        <v>460.67</v>
-      </c>
+        <v>398.45</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>397.65</v>
+        <v>395.56</v>
       </c>
       <c r="C140" t="n">
-        <v>425.67</v>
+        <v>421.17</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>412.87</v>
+        <v>413.84</v>
       </c>
       <c r="C141" t="n">
-        <v>422.7</v>
+        <v>424.8</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>406.69</v>
+        <v>405.2</v>
       </c>
       <c r="C142" t="n">
-        <v>449.1</v>
+        <v>445.9</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>401.98</v>
+        <v>397.33</v>
       </c>
       <c r="C143" t="n">
-        <v>444.02</v>
+        <v>434.02</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>390.95</v>
+        <v>394.02</v>
       </c>
       <c r="C144" t="n">
-        <v>430.09</v>
+        <v>436.69</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2993,10 +2993,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>399.6</v>
+        <v>395.42</v>
       </c>
       <c r="C145" t="n">
-        <v>434.5</v>
+        <v>425.5</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3011,10 +3011,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>402.9</v>
+        <v>404.99</v>
       </c>
       <c r="C146" t="n">
-        <v>459.52</v>
+        <v>464.02</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>396.35</v>
+        <v>395.74</v>
       </c>
       <c r="C147" t="n">
-        <v>441.93</v>
+        <v>440.63</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>394.13</v>
+        <v>395.47</v>
       </c>
       <c r="C148" t="n">
-        <v>434.53</v>
+        <v>437.43</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>400.27</v>
+        <v>399.57</v>
       </c>
       <c r="C149" t="n">
-        <v>427.22</v>
+        <v>425.72</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3083,10 +3083,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>401.43</v>
+        <v>398.45</v>
       </c>
       <c r="C150" t="n">
-        <v>430.81</v>
+        <v>424.41</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>395.48</v>
+        <v>392.56</v>
       </c>
       <c r="C151" t="n">
-        <v>428.32</v>
+        <v>422.02</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>402.37</v>
+        <v>400.09</v>
       </c>
       <c r="C152" t="n">
-        <v>425.63</v>
+        <v>420.73</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>409.04</v>
+        <v>412.11</v>
       </c>
       <c r="C153" t="n">
-        <v>441.97</v>
+        <v>448.57</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>387.7</v>
+        <v>384.59</v>
       </c>
       <c r="C154" t="n">
-        <v>423.91</v>
+        <v>417.21</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>397.11</v>
+        <v>398.51</v>
       </c>
       <c r="C155" t="n">
-        <v>433.12</v>
+        <v>436.12</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>390.97</v>
+        <v>390.14</v>
       </c>
       <c r="C156" t="n">
-        <v>427.11</v>
+        <v>425.31</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>403.67</v>
+        <v>400.69</v>
       </c>
       <c r="C157" t="n">
-        <v>435.22</v>
+        <v>428.82</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>393.81</v>
+        <v>391.31</v>
       </c>
       <c r="C158" t="n">
-        <v>422.83</v>
+        <v>417.43</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3245,10 +3245,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>388.03</v>
+        <v>391.89</v>
       </c>
       <c r="C159" t="n">
-        <v>446.33</v>
+        <v>454.63</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>396.36</v>
+        <v>394.27</v>
       </c>
       <c r="C160" t="n">
-        <v>425.73</v>
+        <v>421.23</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>400.27</v>
+        <v>395.58</v>
       </c>
       <c r="C161" t="n">
-        <v>449.4</v>
+        <v>439.3</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>385.42</v>
+        <v>380.31</v>
       </c>
       <c r="C162" t="n">
-        <v>447.47</v>
+        <v>436.47</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>391.77</v>
+        <v>393.3</v>
       </c>
       <c r="C163" t="n">
-        <v>435.6</v>
+        <v>438.9</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>396.31</v>
+        <v>399.05</v>
       </c>
       <c r="C164" t="n">
-        <v>433.59</v>
+        <v>439.49</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>398.7</v>
+        <v>398.28</v>
       </c>
       <c r="C165" t="n">
-        <v>452.63</v>
+        <v>451.73</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>387.37</v>
+        <v>389.74</v>
       </c>
       <c r="C166" t="n">
-        <v>431.26</v>
+        <v>436.36</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>392.64</v>
+        <v>394.73</v>
       </c>
       <c r="C167" t="n">
-        <v>440.6</v>
+        <v>445.1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>387.7</v>
+        <v>388.21</v>
       </c>
       <c r="C168" t="n">
-        <v>417.06</v>
+        <v>418.16</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3425,10 +3425,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>397.48</v>
+        <v>394.98</v>
       </c>
       <c r="C169" t="n">
-        <v>430.2</v>
+        <v>424.8</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3443,10 +3443,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>403.33</v>
+        <v>398.59</v>
       </c>
       <c r="C170" t="n">
-        <v>449.61</v>
+        <v>439.41</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>396.32</v>
+        <v>393.07</v>
       </c>
       <c r="C171" t="n">
-        <v>432.83</v>
+        <v>425.83</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3479,10 +3479,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>401.97</v>
+        <v>403.79</v>
       </c>
       <c r="C172" t="n">
-        <v>452.53</v>
+        <v>456.43</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>399.93</v>
+        <v>401.23</v>
       </c>
       <c r="C173" t="n">
-        <v>443.87</v>
+        <v>446.67</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3515,11 +3515,9 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>380.77</v>
-      </c>
-      <c r="C174" t="n">
-        <v>403.69</v>
-      </c>
+        <v>379.33</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3551,10 +3549,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>391.67</v>
+        <v>393.86</v>
       </c>
       <c r="C176" t="n">
-        <v>439.61</v>
+        <v>444.31</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3569,10 +3567,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>389.04</v>
+        <v>388.07</v>
       </c>
       <c r="C177" t="n">
-        <v>413.68</v>
+        <v>411.58</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3587,10 +3585,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>386.03</v>
+        <v>380.55</v>
       </c>
       <c r="C178" t="n">
-        <v>462.14</v>
+        <v>450.34</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3605,10 +3603,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>389.28</v>
+        <v>384.87</v>
       </c>
       <c r="C179" t="n">
-        <v>422.66</v>
+        <v>413.16</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3623,10 +3621,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>398.83</v>
+        <v>398.65</v>
       </c>
       <c r="C180" t="n">
-        <v>436.15</v>
+        <v>435.75</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3641,10 +3639,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>404.78</v>
+        <v>406.69</v>
       </c>
       <c r="C181" t="n">
-        <v>457.6</v>
+        <v>461.7</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3659,10 +3657,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>400.69</v>
+        <v>402.92</v>
       </c>
       <c r="C182" t="n">
-        <v>456.18</v>
+        <v>460.98</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3678,7 +3676,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>442.59</v>
+        <v>450.09</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3693,10 +3691,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>403.39</v>
+        <v>404.55</v>
       </c>
       <c r="C184" t="n">
-        <v>443.73</v>
+        <v>446.23</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3711,10 +3709,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>401.66</v>
+        <v>402.12</v>
       </c>
       <c r="C185" t="n">
-        <v>443.1</v>
+        <v>444.1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3729,10 +3727,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>410.24</v>
+        <v>408.42</v>
       </c>
       <c r="C186" t="n">
-        <v>422.73</v>
+        <v>418.83</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3747,10 +3745,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>394.69</v>
+        <v>396.97</v>
       </c>
       <c r="C187" t="n">
-        <v>442.83</v>
+        <v>447.73</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3765,10 +3763,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>394.11</v>
+        <v>396.66</v>
       </c>
       <c r="C188" t="n">
-        <v>439.76</v>
+        <v>445.26</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3783,10 +3781,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>389.47</v>
+        <v>389.19</v>
       </c>
       <c r="C189" t="n">
-        <v>425.5</v>
+        <v>424.9</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3801,10 +3799,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>396.52</v>
+        <v>393.27</v>
       </c>
       <c r="C190" t="n">
-        <v>430.56</v>
+        <v>423.56</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3819,10 +3817,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>401.75</v>
+        <v>397.67</v>
       </c>
       <c r="C191" t="n">
-        <v>444.82</v>
+        <v>436.02</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3837,10 +3835,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>401.53</v>
+        <v>398.09</v>
       </c>
       <c r="C192" t="n">
-        <v>434.48</v>
+        <v>427.08</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3855,10 +3853,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>402.02</v>
+        <v>402.44</v>
       </c>
       <c r="C193" t="n">
-        <v>434.95</v>
+        <v>435.85</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3873,10 +3871,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>396.15</v>
+        <v>398.8</v>
       </c>
       <c r="C194" t="n">
-        <v>449.58</v>
+        <v>455.28</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3891,10 +3889,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>394.11</v>
+        <v>397.45</v>
       </c>
       <c r="C195" t="n">
-        <v>437.73</v>
+        <v>444.93</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3909,10 +3907,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>395.91</v>
+        <v>396.28</v>
       </c>
       <c r="C196" t="n">
-        <v>436.8</v>
+        <v>437.6</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3927,10 +3925,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>394.2</v>
+        <v>394.99</v>
       </c>
       <c r="C197" t="n">
-        <v>451.55</v>
+        <v>453.25</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3945,10 +3943,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>399.08</v>
+        <v>401.4</v>
       </c>
       <c r="C198" t="n">
-        <v>432.44</v>
+        <v>437.44</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3963,10 +3961,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>389.74</v>
+        <v>392.9</v>
       </c>
       <c r="C199" t="n">
-        <v>435.25</v>
+        <v>442.05</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3981,10 +3979,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>391.75</v>
+        <v>390.54</v>
       </c>
       <c r="C200" t="n">
-        <v>416.16</v>
+        <v>413.56</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3999,10 +3997,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>396.98</v>
+        <v>393.5</v>
       </c>
       <c r="C201" t="n">
-        <v>435.33</v>
+        <v>427.83</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4017,10 +4015,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>392.25</v>
+        <v>386.86</v>
       </c>
       <c r="C202" t="n">
-        <v>446.27</v>
+        <v>434.67</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4035,10 +4033,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>397.48</v>
+        <v>393.67</v>
       </c>
       <c r="C203" t="n">
-        <v>439.12</v>
+        <v>430.92</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4053,10 +4051,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>399.5</v>
+        <v>397.27</v>
       </c>
       <c r="C204" t="n">
-        <v>422.78</v>
+        <v>417.98</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4071,7 +4069,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>408.25</v>
+        <v>412.48</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
@@ -4087,10 +4085,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>383.09</v>
+        <v>384.02</v>
       </c>
       <c r="C206" t="n">
-        <v>393.19</v>
+        <v>395.19</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4105,10 +4103,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>402.45</v>
+        <v>399.71</v>
       </c>
       <c r="C207" t="n">
-        <v>442.04</v>
+        <v>436.14</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4123,10 +4121,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>393.3</v>
+        <v>394.51</v>
       </c>
       <c r="C208" t="n">
-        <v>440.46</v>
+        <v>443.06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4141,10 +4139,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>404.67</v>
+        <v>401.6</v>
       </c>
       <c r="C209" t="n">
-        <v>436.24</v>
+        <v>429.64</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4159,10 +4157,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>398.74</v>
+        <v>397.07</v>
       </c>
       <c r="C210" t="n">
-        <v>436.26</v>
+        <v>432.66</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4177,10 +4175,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>396.99</v>
+        <v>398.7</v>
       </c>
       <c r="C211" t="n">
-        <v>437.82</v>
+        <v>441.52</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4195,10 +4193,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>396.22</v>
+        <v>399.47</v>
       </c>
       <c r="C212" t="n">
-        <v>460.59</v>
+        <v>467.59</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4213,10 +4211,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>393.8</v>
+        <v>394.59</v>
       </c>
       <c r="C213" t="n">
-        <v>427.18</v>
+        <v>428.88</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4231,10 +4229,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>398.67</v>
+        <v>395.28</v>
       </c>
       <c r="C214" t="n">
-        <v>439.7</v>
+        <v>432.4</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4249,10 +4247,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>399.15</v>
+        <v>396.6</v>
       </c>
       <c r="C215" t="n">
-        <v>430.72</v>
+        <v>425.22</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4267,10 +4265,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>396.94</v>
+        <v>391.83</v>
       </c>
       <c r="C216" t="n">
-        <v>452.21</v>
+        <v>441.21</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4285,10 +4283,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>387.73</v>
+        <v>383.5</v>
       </c>
       <c r="C217" t="n">
-        <v>442.98</v>
+        <v>433.88</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4303,10 +4301,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>399.13</v>
+        <v>395.6</v>
       </c>
       <c r="C218" t="n">
-        <v>437.41</v>
+        <v>429.81</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4321,10 +4319,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>380.8</v>
+        <v>376.62</v>
       </c>
       <c r="C219" t="n">
-        <v>433.23</v>
+        <v>424.23</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4339,10 +4337,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>395.61</v>
+        <v>398.77</v>
       </c>
       <c r="C220" t="n">
-        <v>429.79</v>
+        <v>436.59</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4357,10 +4355,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>404.57</v>
+        <v>403.45</v>
       </c>
       <c r="C221" t="n">
-        <v>415.23</v>
+        <v>412.83</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4375,10 +4373,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>395.2</v>
+        <v>396.36</v>
       </c>
       <c r="C222" t="n">
-        <v>435.62</v>
+        <v>438.12</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4393,10 +4391,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>398.68</v>
+        <v>400.5</v>
       </c>
       <c r="C223" t="n">
-        <v>428.63</v>
+        <v>432.53</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4411,10 +4409,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>403.15</v>
+        <v>399.34</v>
       </c>
       <c r="C224" t="n">
-        <v>438.71</v>
+        <v>430.51</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4429,10 +4427,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>394.15</v>
+        <v>398.42</v>
       </c>
       <c r="C225" t="n">
-        <v>444.84</v>
+        <v>454.04</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4447,10 +4445,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>402.49</v>
+        <v>403.19</v>
       </c>
       <c r="C226" t="n">
-        <v>415.52</v>
+        <v>417.02</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4465,10 +4463,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>392.19</v>
+        <v>395.67</v>
       </c>
       <c r="C227" t="n">
-        <v>445.23</v>
+        <v>452.73</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4483,10 +4481,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>394.87</v>
+        <v>395.48</v>
       </c>
       <c r="C228" t="n">
-        <v>426.63</v>
+        <v>427.93</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4501,10 +4499,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>376.25</v>
+        <v>378.2</v>
       </c>
       <c r="C229" t="n">
-        <v>412.13</v>
+        <v>416.33</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4519,10 +4517,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>400.11</v>
+        <v>395.98</v>
       </c>
       <c r="C230" t="n">
-        <v>441.96</v>
+        <v>433.06</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4537,10 +4535,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>390.87</v>
+        <v>393.42</v>
       </c>
       <c r="C231" t="n">
-        <v>421.38</v>
+        <v>426.88</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4555,10 +4553,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>395.57</v>
+        <v>396.6</v>
       </c>
       <c r="C232" t="n">
-        <v>457.47</v>
+        <v>459.67</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4573,10 +4571,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>392.72</v>
+        <v>393.27</v>
       </c>
       <c r="C233" t="n">
-        <v>397.21</v>
+        <v>398.41</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4591,10 +4589,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>396.58</v>
+        <v>396.34</v>
       </c>
       <c r="C234" t="n">
-        <v>405.7</v>
+        <v>405.2</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4609,10 +4607,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>396.67</v>
+        <v>396.39</v>
       </c>
       <c r="C235" t="n">
-        <v>406.21</v>
+        <v>405.61</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4627,10 +4625,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>394.59</v>
+        <v>395.38</v>
       </c>
       <c r="C236" t="n">
-        <v>439.61</v>
+        <v>441.31</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4645,10 +4643,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>394.59</v>
+        <v>398.21</v>
       </c>
       <c r="C237" t="n">
-        <v>455.24</v>
+        <v>463.04</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4663,10 +4661,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>395.63</v>
+        <v>397.16</v>
       </c>
       <c r="C238" t="n">
-        <v>428.45</v>
+        <v>431.75</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4681,10 +4679,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>403.78</v>
+        <v>403.04</v>
       </c>
       <c r="C239" t="n">
-        <v>411.21</v>
+        <v>409.61</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4699,10 +4697,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>395.84</v>
+        <v>397.05</v>
       </c>
       <c r="C240" t="n">
-        <v>439.04</v>
+        <v>441.64</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4717,10 +4715,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>397.12</v>
+        <v>398.74</v>
       </c>
       <c r="C241" t="n">
-        <v>451.41</v>
+        <v>454.91</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4735,10 +4733,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>411.38</v>
+        <v>413.09</v>
       </c>
       <c r="C242" t="n">
-        <v>415.77</v>
+        <v>419.47</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4753,10 +4751,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>402.33</v>
+        <v>399.73</v>
       </c>
       <c r="C243" t="n">
-        <v>431.22</v>
+        <v>425.62</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4771,10 +4769,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>397.26</v>
+        <v>396.1</v>
       </c>
       <c r="C244" t="n">
-        <v>415.71</v>
+        <v>413.21</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4789,10 +4787,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>394.12</v>
+        <v>395.28</v>
       </c>
       <c r="C245" t="n">
-        <v>440.43</v>
+        <v>442.93</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4807,10 +4805,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>392.26</v>
+        <v>394.63</v>
       </c>
       <c r="C246" t="n">
-        <v>470.53</v>
+        <v>475.63</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4825,10 +4823,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>398.02</v>
+        <v>394.03</v>
       </c>
       <c r="C247" t="n">
-        <v>440.4</v>
+        <v>431.8</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4843,10 +4841,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>390.93</v>
+        <v>390.28</v>
       </c>
       <c r="C248" t="n">
-        <v>404.63</v>
+        <v>403.23</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4861,10 +4859,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>396.82</v>
+        <v>391.62</v>
       </c>
       <c r="C249" t="n">
-        <v>444.18</v>
+        <v>432.98</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4879,10 +4877,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>394.69</v>
+        <v>396.6</v>
       </c>
       <c r="C250" t="n">
-        <v>430.53</v>
+        <v>434.63</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4897,10 +4895,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>394.85</v>
+        <v>392.15</v>
       </c>
       <c r="C251" t="n">
-        <v>417.24</v>
+        <v>411.44</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4915,10 +4913,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>394.65</v>
+        <v>395.11</v>
       </c>
       <c r="C252" t="n">
-        <v>413.11</v>
+        <v>414.11</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4933,10 +4931,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>399.9</v>
+        <v>400.18</v>
       </c>
       <c r="C253" t="n">
-        <v>445.13</v>
+        <v>445.73</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4951,10 +4949,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>399.22</v>
+        <v>398.15</v>
       </c>
       <c r="C254" t="n">
-        <v>444.61</v>
+        <v>442.31</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4969,10 +4967,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>401.81</v>
+        <v>402.69</v>
       </c>
       <c r="C255" t="n">
-        <v>441.16</v>
+        <v>443.06</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4987,10 +4985,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>400.11</v>
+        <v>396.82</v>
       </c>
       <c r="C256" t="n">
-        <v>428.13</v>
+        <v>421.03</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5005,10 +5003,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>391.85</v>
+        <v>394.45</v>
       </c>
       <c r="C257" t="n">
-        <v>441.92</v>
+        <v>447.52</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5023,10 +5021,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>398.86</v>
+        <v>395.98</v>
       </c>
       <c r="C258" t="n">
-        <v>427.48</v>
+        <v>421.28</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5041,10 +5039,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>401.37</v>
+        <v>398.49</v>
       </c>
       <c r="C259" t="n">
-        <v>431.37</v>
+        <v>425.17</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5059,10 +5057,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>404.7</v>
+        <v>404.24</v>
       </c>
       <c r="C260" t="n">
-        <v>441.19</v>
+        <v>440.19</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5077,10 +5075,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>398.7</v>
+        <v>400.41</v>
       </c>
       <c r="C261" t="n">
-        <v>462.14</v>
+        <v>465.84</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5095,10 +5093,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>403.71</v>
+        <v>399.63</v>
       </c>
       <c r="C262" t="n">
-        <v>443.05</v>
+        <v>434.25</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5113,10 +5111,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>397.22</v>
+        <v>400.66</v>
       </c>
       <c r="C263" t="n">
-        <v>459.45</v>
+        <v>466.85</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5131,10 +5129,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>395.38</v>
+        <v>393.76</v>
       </c>
       <c r="C264" t="n">
-        <v>420.69</v>
+        <v>417.19</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5149,10 +5147,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>388.08</v>
+        <v>383.72</v>
       </c>
       <c r="C265" t="n">
-        <v>435.22</v>
+        <v>425.82</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5167,10 +5165,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>389.17</v>
+        <v>389.03</v>
       </c>
       <c r="C266" t="n">
-        <v>404.68</v>
+        <v>404.38</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5185,11 +5183,9 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>399.46</v>
-      </c>
-      <c r="C267" t="n">
-        <v>457.45</v>
-      </c>
+        <v>401.59</v>
+      </c>
+      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
           <t>L8</t>
@@ -5204,7 +5200,7 @@
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
-        <v>430.08</v>
+        <v>421.78</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5219,10 +5215,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>378.11</v>
+        <v>376.02</v>
       </c>
       <c r="C269" t="n">
-        <v>410.72</v>
+        <v>406.22</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5237,10 +5233,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>399.35</v>
+        <v>400.18</v>
       </c>
       <c r="C270" t="n">
-        <v>441.33</v>
+        <v>443.13</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5255,11 +5251,9 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>394.64</v>
-      </c>
-      <c r="C271" t="n">
-        <v>401.69</v>
-      </c>
+        <v>393.67</v>
+      </c>
+      <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
           <t>L8</t>
@@ -5273,10 +5267,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>397.05</v>
+        <v>398.02</v>
       </c>
       <c r="C272" t="n">
-        <v>447.52</v>
+        <v>449.62</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5291,10 +5285,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>395.71</v>
+        <v>400.03</v>
       </c>
       <c r="C273" t="n">
-        <v>448.89</v>
+        <v>458.19</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5309,10 +5303,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>404.79</v>
+        <v>401.87</v>
       </c>
       <c r="C274" t="n">
-        <v>433.04</v>
+        <v>426.74</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5327,10 +5321,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>398.31</v>
+        <v>399.98</v>
       </c>
       <c r="C275" t="n">
-        <v>435.02</v>
+        <v>438.62</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5345,10 +5339,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>393.43</v>
+        <v>393.15</v>
       </c>
       <c r="C276" t="n">
-        <v>436.12</v>
+        <v>435.52</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5363,14 +5357,50 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>391.05</v>
+        <v>391.47</v>
       </c>
       <c r="C277" t="n">
-        <v>398.72</v>
+        <v>399.62</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>396.29</v>
+      </c>
+      <c r="C278" t="n">
+        <v>442.94</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:17:53+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>393.09</v>
+      </c>
+      <c r="C279" t="n">
+        <v>412.94</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8333,6 +8363,26 @@
       </c>
       <c r="B294" t="n">
         <v>-0.76</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -8500,34 +8550,34 @@
         <v>0.17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1319</v>
+        <v>0.1329</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04540931095757128</v>
+        <v>-0.03845748455697224</v>
       </c>
       <c r="J2" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002435612787050623</v>
+        <v>0.00179186909478557</v>
       </c>
       <c r="M2" t="n">
-        <v>5.358519633410594</v>
+        <v>5.123398449484832</v>
       </c>
       <c r="N2" t="n">
-        <v>49.60540475899316</v>
+        <v>48.89799322391227</v>
       </c>
       <c r="O2" t="n">
-        <v>7.04311044631512</v>
+        <v>6.99271000570682</v>
       </c>
       <c r="P2" t="n">
-        <v>397.4023497383975</v>
+        <v>396.8789291880128</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8578,34 +8628,34 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0214</v>
+        <v>0.0215</v>
       </c>
       <c r="H3" t="n">
         <v>0.026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2197680340784595</v>
+        <v>0.3189844425949681</v>
       </c>
       <c r="J3" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00985347943949344</v>
+        <v>0.0199113483348875</v>
       </c>
       <c r="M3" t="n">
-        <v>13.00170862821542</v>
+        <v>13.4007828463727</v>
       </c>
       <c r="N3" t="n">
-        <v>279.7871659960924</v>
+        <v>290.4356275693349</v>
       </c>
       <c r="O3" t="n">
-        <v>16.72683968943603</v>
+        <v>17.04217203203086</v>
       </c>
       <c r="P3" t="n">
-        <v>428.9490368552471</v>
+        <v>425.6627528482952</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8643,7 +8693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8681,7 +8731,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-34.7257279532966,173.0939003847001</t>
+          <t>-34.72573588611369,173.0939006437605</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -8699,7 +8749,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72569667275637,173.0938993631784</t>
+          <t>-34.725663228720386,173.09389827100478</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -8717,7 +8767,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72568639615234,173.09389902757778</t>
+          <t>-34.725675939256995,173.09389868608952</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -8735,12 +8785,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.725668367022415,173.09389843880496</t>
+          <t>-34.72565114920329,173.0938978765272</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.725247165852636,173.0947833140324</t>
+          <t>-34.725210206139806,173.09478210680288</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8757,12 +8807,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.72566818673113,173.09389843291726</t>
+          <t>-34.725706678923444,173.0938996899475</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.72535759426148,173.0947869210054</t>
+          <t>-34.72544052824877,173.09478962992225</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8779,12 +8829,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72569865596066,173.09389942794346</t>
+          <t>-34.72569991799975,173.09389946915755</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.72550462179682,173.09479172344768</t>
+          <t>-34.72550732616592,173.09479181178216</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8801,12 +8851,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72573119853996,173.09390049067935</t>
+          <t>-34.72571280882757,173.09389989013042</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.7250194579596,173.09477587633833</t>
+          <t>-34.72497979387594,173.09477458078234</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8823,12 +8873,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.725650698475036,173.09389786180787</t>
+          <t>-34.72568792862838,173.09389907762346</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.725242838861874,173.09478317269816</t>
+          <t>-34.72532306848164,173.09478579327316</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8845,12 +8895,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72564402769694,173.09389764396212</t>
+          <t>-34.72567747173305,173.0938987361352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.72530711270341,173.09478527210223</t>
+          <t>-34.72537922921481,173.09478762767878</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8867,12 +8917,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.7256744969266,173.0938986389877</t>
+          <t>-34.72565989333135,173.09389816208184</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.72548262626142,173.0947910049941</t>
+          <t>-34.72545107528837,173.0947899744262</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8889,7 +8939,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.72564925614464,173.09389781470608</t>
+          <t>-34.725624105508224,173.09389699336887</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -8907,12 +8957,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72566827687677,173.09389843586112</t>
+          <t>-34.72564772366858,173.09389776466045</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.72504857500264,173.09477682739504</t>
+          <t>-34.725004403636966,173.0947753846158</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -8929,12 +8979,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.72576482286685,173.09390158874257</t>
+          <t>-34.725746433154576,173.09390098819316</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.72540095431369,173.09478833729708</t>
+          <t>-34.72536129023269,173.09478704172875</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8951,12 +9001,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.72562581827558,173.0938970493022</t>
+          <t>-34.725652140805444,173.09389790890967</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.72527105444738,173.09478409431551</t>
+          <t>-34.72532784620054,173.09478594933006</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -8973,12 +9023,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.72562239274086,173.09389693743552</t>
+          <t>-34.72562699016903,173.09389708757237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.72555771757659,173.0947934577491</t>
+          <t>-34.72556763359652,173.09479378164264</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -8995,12 +9045,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.7257981767566,173.09390267797508</t>
+          <t>-34.72577645165546,173.0939019685019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.725572231023946,173.0947939318115</t>
+          <t>-34.72552535529322,173.09479240067887</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9017,12 +9067,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72587101443949,173.09390505662657</t>
+          <t>-34.72585722215554,173.09390460621327</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.72588278273029,173.09480407561048</t>
+          <t>-34.725853034672056,173.0948031039224</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9039,12 +9089,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.725687838482735,173.09389907467963</t>
+          <t>-34.72572633067493,173.09390033171047</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.725281331050375,173.09478442998463</t>
+          <t>-34.72536426503877,173.09478713889632</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9061,12 +9111,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.72562419565388,173.0938969963127</t>
+          <t>-34.725653853572794,173.09389796484305</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.725344523143804,173.09478649405705</t>
+          <t>-34.7254085265473,173.094788584633</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9083,12 +9133,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.72559994647384,173.0938962044146</t>
+          <t>-34.72561202599104,173.09389659889166</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.725476947086285,173.09479081949186</t>
+          <t>-34.725503089321,173.09479167339148</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9105,12 +9155,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.725691534454356,173.09389919537807</t>
+          <t>-34.72569369794995,173.09389926603086</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.72518045807809,173.09478113513111</t>
+          <t>-34.72518496536018,173.09478128235406</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9127,12 +9177,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.725790063648304,173.09390241302657</t>
+          <t>-34.72577627136417,173.09390196261415</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.725486863106354,173.09479114338473</t>
+          <t>-34.72545711504608,173.09479017170628</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9149,12 +9199,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72557146044812,173.09389527415567</t>
+          <t>-34.725576418458935,173.09389543606775</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.725254738086456,173.0947835613674</t>
+          <t>-34.725265555563325,173.09478391470316</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9171,12 +9221,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.72568973154137,173.09389913650077</t>
+          <t>-34.72566539221598,173.09389834165748</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.72546432669707,173.09479040726464</t>
+          <t>-34.725412042227184,173.09478869946756</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9193,7 +9243,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.72568315090897,173.09389892159865</t>
+          <t>-34.725707039506034,173.09389970172296</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -9211,12 +9261,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.725748145921905,173.09390104412662</t>
+          <t>-34.72575193203913,173.09390116776916</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.725432685578284,173.0947893737527</t>
+          <t>-34.72544079868569,173.09478963875566</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9233,12 +9283,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.725667285274625,173.09389840347862</t>
+          <t>-34.72567359547009,173.09389860954906</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.725475324464824,173.0947907664912</t>
+          <t>-34.72548884631038,173.09479120816331</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9255,12 +9305,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.72563744706447,173.09389742906023</t>
+          <t>-34.72566926847892,173.09389846824362</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.72526537527204,173.0947839088142</t>
+          <t>-34.725333885958385,173.09478614660955</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9278,7 +9328,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.72532351920984,173.09478580799552</t>
+          <t>-34.725407354653996,173.0947885463548</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9295,12 +9345,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.725631407305904,173.09389723182156</t>
+          <t>-34.72567368561575,173.09389861249292</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.72515242278343,173.09478021940475</t>
+          <t>-34.72524346988137,173.0947831933094</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9317,12 +9367,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72566827687677,173.09389843586112</t>
+          <t>-34.72567756187869,173.09389873907907</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.725440438103135,173.09478962697776</t>
+          <t>-34.725460270143394,173.09479027476303</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9339,12 +9389,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72563420182107,173.09389732308125</t>
+          <t>-34.72563167774286,173.09389724065312</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.72516206836714,173.09478053446168</t>
+          <t>-34.725156659628624,173.09478035779424</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9362,7 +9412,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.7250788639389,173.0947778167303</t>
+          <t>-34.72512483821684,173.09477931840132</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9379,12 +9429,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.72577789398583,173.09390201560385</t>
+          <t>-34.725749407960976,173.09390108534083</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.72539293135187,173.09478807523885</t>
+          <t>-34.725331632317385,173.09478607299778</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9402,7 +9452,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.725286198914944,173.09478458898582</t>
+          <t>-34.72522940716137,173.0947827339732</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -9419,12 +9469,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.725586875354466,173.0938957775552</t>
+          <t>-34.725557578017806,173.09389482080186</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.725720700883905,173.0947987813915</t>
+          <t>-34.72565759894025,173.0947967202442</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9441,12 +9491,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72568765819144,173.09389906879187</t>
+          <t>-34.72569063299787,173.09389916593943</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.725642454473665,173.09479622556933</t>
+          <t>-34.72564876466808,173.09479643168382</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -9463,12 +9513,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.725691444308715,173.0938991924342</t>
+          <t>-34.72571118620589,173.0938998371408</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.72548262626142,173.0947910049941</t>
+          <t>-34.72552499471068,173.0947923889009</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -9485,12 +9535,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.725712989118875,173.09389989601814</t>
+          <t>-34.725733902909404,173.0939005789954</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.72538247445781,173.09478773367985</t>
+          <t>-34.72542754727692,173.0947892059175</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -9507,12 +9557,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72567215313971,173.09389856244724</t>
+          <t>-34.72567711115043,173.09389872435975</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.725575476266826,173.09479403781305</t>
+          <t>-34.72558629374309,173.09479439115162</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -9529,12 +9579,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.72577041189704,173.09390177126255</t>
+          <t>-34.72576960058621,173.09390174476772</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.725211648470065,173.09478215391425</t>
+          <t>-34.72520984555725,173.094782095025</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -9551,12 +9601,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.725589579723994,173.0938958658709</t>
+          <t>-34.725636455462315,173.09389739667776</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.72512637069276,173.09477936845704</t>
+          <t>-34.72522733381164,173.09478266625058</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -9573,12 +9623,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.72574237660039,173.09390085571903</t>
+          <t>-34.72573110839431,173.09390048773548</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.72542240897557,173.0947890380823</t>
+          <t>-34.72539806965326,173.09478824307388</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -9596,7 +9646,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.72561667282214,173.09479538344468</t>
+          <t>-34.725587826218884,173.09479444120794</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -9613,12 +9663,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72566034405959,173.09389817680113</t>
+          <t>-34.72567296445056,173.093898588942</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.72540419955666,173.09478844329817</t>
+          <t>-34.72543124324809,173.09478932664103</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -9635,12 +9685,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.7256323087624,173.09389726126017</t>
+          <t>-34.725643576968686,173.09389762924278</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.725418172130574,173.09478889969193</t>
+          <t>-34.7254425114528,173.09478969470075</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -9657,12 +9707,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72566367944862,173.09389828572407</t>
+          <t>-34.72564069230788,173.09389753503922</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.725112938992005,173.09477892973337</t>
+          <t>-34.72506335888821,173.09477731028477</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9679,12 +9729,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.72564528973604,173.09389768517616</t>
+          <t>-34.72562608871252,173.0938970581338</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.72534263008539,173.09478643222317</t>
+          <t>-34.72530116309119,173.09478507776734</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9702,7 +9752,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.725574484664826,173.0947940054237</t>
+          <t>-34.725580794859326,173.09479421153785</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9719,12 +9769,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.7256761195483,173.09389869197724</t>
+          <t>-34.72568161843292,173.09389887155297</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.72534713736735,173.0947865794467</t>
+          <t>-34.725358856300424,173.09478696222797</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9741,14 +9791,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.72557182103073,173.0938952859311</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>-34.72505389359562,173.09477700111756</t>
-        </is>
-      </c>
+          <t>-34.7255408109266,173.09389427324493</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9763,12 +9809,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.725607428562874,173.09389644875486</t>
+          <t>-34.725647182794695,173.09389774699727</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.72526771905869,173.0947839853703</t>
+          <t>-34.725353357416445,173.09478678261522</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9785,12 +9831,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.72568053668513,173.0938988362266</t>
+          <t>-34.725688920230525,173.093899110006</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.725315225810995,173.09478553710437</t>
+          <t>-34.7253332549389,173.09478612599824</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9807,12 +9853,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72568360163721,173.093898936318</t>
+          <t>-34.72568315090897,173.09389892159865</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.72534235964848,173.09478642338976</t>
+          <t>-34.72534145819209,173.09478639394504</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9829,12 +9875,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72571371028407,173.09389991956908</t>
+          <t>-34.72573543538546,173.09390062904114</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.725466309901094,173.09479047204317</t>
+          <t>-34.725513185632295,173.09479200317358</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9851,12 +9897,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.725657729835746,173.09389809142914</t>
+          <t>-34.725638528812276,173.09389746438657</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.72520750177057,173.09478201846906</t>
+          <t>-34.7251660347754,173.0947806640178</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -9873,12 +9919,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72556596156338,173.09389509458046</t>
+          <t>-34.72554423646136,173.09389438511138</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.72530134338246,173.0947850836563</t>
+          <t>-34.72525446764953,173.094783552534</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -9895,12 +9941,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.7258266627812,173.09390360823926</t>
+          <t>-34.72587651332393,173.09390523620314</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.72521390211111,173.0947822275258</t>
+          <t>-34.725321175423204,173.09478573143932</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -9917,12 +9963,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72568161843292,173.09389887155297</t>
+          <t>-34.72567197284841,173.0938985565595</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.725394373682086,173.09478812235042</t>
+          <t>-34.725373640185204,173.09478744512148</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -9939,12 +9985,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.72567747173305,173.0938987361352</t>
+          <t>-34.72570929314727,173.09389977531964</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.72533226333686,173.0947860936091</t>
+          <t>-34.72540077402242,173.09478833140813</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -9961,12 +10007,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.725709653729865,173.0938997870951</t>
+          <t>-34.72571975004256,173.09390011680816</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.72549921305862,173.09479154677874</t>
+          <t>-34.7255208480114,173.09479225345464</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -9983,12 +10029,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72570172091274,173.09389952803488</t>
+          <t>-34.72568792862838,173.09389907762346</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.725813460739815,173.09480181128393</t>
+          <t>-34.725783712681235,173.09480083959755</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10005,12 +10051,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.72564583060993,173.09389770283934</t>
+          <t>-34.72567053051801,173.0938985094577</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.725307833868534,173.09478529565797</t>
+          <t>-34.72536101979576,173.0947870328953</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10027,12 +10073,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.7256927063478,173.09389923364833</t>
+          <t>-34.72566971920717,173.0938984829629</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.72538310547726,173.09478775429116</t>
+          <t>-34.72533352537581,173.09478613483168</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10049,12 +10095,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.725616713564875,173.09389675197235</t>
+          <t>-34.72564727294035,173.0938977499411</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.725326313724665,173.0947858992741</t>
+          <t>-34.72539212004112,173.09478804873856</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -10071,12 +10117,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.725628342353794,173.0938971317303</t>
+          <t>-34.725633300364564,173.0938972936426</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.72526176944642,173.09478379103564</t>
+          <t>-34.72527258692327,173.09478414437143</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -10093,12 +10139,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.725686486297995,173.09389903052164</t>
+          <t>-34.72569279649345,173.0938992365922</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.725621540686426,173.0947955424472</t>
+          <t>-34.72563506253163,173.09479598412094</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -10116,7 +10162,7 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.725319913384254,173.09478569021675</t>
+          <t>-34.72529647551792,173.09478492465504</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -10133,12 +10179,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.72570118003883,173.09389951037167</t>
+          <t>-34.725669809352816,173.09389848590678</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.72532964911332,173.09478600821947</t>
+          <t>-34.72526203988334,173.09478379986902</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -10155,12 +10201,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.72559201365657,173.0938959453551</t>
+          <t>-34.72562004895396,173.09389686089514</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.7253729190201,173.09478742156568</t>
+          <t>-34.72543331659776,173.09478939436403</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -10177,7 +10223,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.72560950191283,173.0938965164636</t>
+          <t>-34.72565178022284,173.09389789713424</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -10195,12 +10241,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.72566485134209,173.09389832399432</t>
+          <t>-34.72568955125007,173.09389913061304</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.725408616692945,173.09478858757748</t>
+          <t>-34.725461802619236,173.0947903248192</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -10217,12 +10263,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.72573327188988,173.0939005583883</t>
+          <t>-34.7257692400036,173.09390173299224</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.7253054900819,173.0947852191018</t>
+          <t>-34.72538301533164,173.0947877513467</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -10239,12 +10285,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.72551502927014,173.09389343130294</t>
+          <t>-34.72554432660701,173.09389438805525</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.72522390827728,173.09478255436102</t>
+          <t>-34.725287010225706,173.09478461548602</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -10261,12 +10307,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.725762839662586,173.09390152397742</t>
+          <t>-34.725749407960976,173.09390108534083</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.72548235582451,173.09479099616067</t>
+          <t>-34.72545350922059,173.0947900539271</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -10284,7 +10330,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.72568121709639,173.0947974917018</t>
+          <t>-34.725658680687864,173.09479675557813</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -10301,12 +10347,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.72576193820611,173.09390149453873</t>
+          <t>-34.72577068233398,173.09390178009417</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.72564479826017,173.09479630212613</t>
+          <t>-34.72566372884338,173.09479692046978</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -10323,12 +10369,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.72557966370238,173.09389554204662</t>
+          <t>-34.725601839532516,173.09389626623562</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.725368862466354,173.0947872890644</t>
+          <t>-34.72541663965473,173.09478884963582</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -10345,12 +10391,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.725647813814234,173.0938977676043</t>
+          <t>-34.72563438211237,173.09389732896895</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.72518226099093,173.0947811940203</t>
+          <t>-34.72515341438549,173.0947802517938</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -10367,7 +10413,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.72578357316166,173.09390220106778</t>
+          <t>-34.72576058602137,173.09390145038066</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10385,12 +10431,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.72556001195039,173.093894900286</t>
+          <t>-34.72557046884596,173.09389524177325</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.72515738079375,173.0947803813499</t>
+          <t>-34.72517991720425,173.09478111746438</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10407,10 +10453,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.725652591533695,173.093897923629</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>-34.72566007362264,173.09389816796957</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-34.72554257310975,173.09479296307543</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10425,12 +10475,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72565150978589,173.09389788830265</t>
+          <t>-34.72569793479547,173.09389940439252</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.72510744010778,173.0947787501217</t>
+          <t>-34.72520750177057,173.09478201846906</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -10447,12 +10497,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72571515261445,173.09389996667096</t>
+          <t>-34.72573354232682,173.09390056721992</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.725438995772926,173.0947895798661</t>
+          <t>-34.725478659853394,173.09479087543696</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10469,12 +10519,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72570442528221,173.09389961635085</t>
+          <t>-34.72568982168703,173.09389913944466</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.725475234319184,173.0947907635467</t>
+          <t>-34.72544368334609,173.09478973297897</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -10491,10 +10541,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72580908437996,173.09390303418377</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>-34.725792317289496,173.09390248662336</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-34.72580300384651,173.09480146972138</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10509,12 +10563,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.72567260386796,173.09389857716656</t>
+          <t>-34.72571028474941,173.09389980770217</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.7253050393537,173.09478520437946</t>
+          <t>-34.725386170428976,173.09478785440325</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -10532,7 +10586,7 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.72506759573345,173.09477744867394</t>
+          <t>-34.725121683119355,173.09477921534543</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -10549,12 +10603,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72568324105461,173.09389892454254</t>
+          <t>-34.72566737542029,173.09389840642248</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.725312070713606,173.09478543404796</t>
+          <t>-34.72527781537041,173.09478431515046</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -10571,12 +10625,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.72576329039083,173.09390153869677</t>
+          <t>-34.72573480436591,173.09390060843407</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.725604503161414,173.09479498593845</t>
+          <t>-34.7255432041292,173.09479298368686</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -10593,7 +10647,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72581530442964,173.09390323731105</t>
+          <t>-34.725789793211355,173.09390240419495</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -10611,12 +10665,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72573822990056,173.0939007203011</t>
+          <t>-34.72571307926452,173.093899898962</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.72559539845225,173.09479468854502</t>
+          <t>-34.725541311070835,173.09479292185264</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -10633,12 +10687,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72566818673113,173.09389843291726</t>
+          <t>-34.72568955125007,173.09389913061304</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.725377877030226,173.0947875835117</t>
+          <t>-34.72542385130577,173.09478908519392</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -10655,12 +10709,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.72573029708347,173.09390046124068</t>
+          <t>-34.7257051464474,173.09389963990176</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.72540528130432,173.09478847863187</t>
+          <t>-34.725351193921114,173.0947867119479</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -10677,12 +10731,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.725613378175815,173.09389664304953</t>
+          <t>-34.72564646162949,173.09389772344636</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.725087517920656,173.09477809939767</t>
+          <t>-34.72515873297838,173.09478042551675</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -10699,12 +10753,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.72565430430104,173.09389797956234</t>
+          <t>-34.725688289210986,173.09389908939895</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.72527123473866,173.09478410020446</t>
+          <t>-34.72534425270691,173.09478648522364</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -10721,12 +10775,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.72562428579951,173.09389699925657</t>
+          <t>-34.72563357080151,173.0938973024742</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.72544115926823,173.09478965053358</t>
+          <t>-34.725460991308495,173.09479029831888</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -10744,7 +10798,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.72538562955514,173.09478783673643</t>
+          <t>-34.72534957129961,173.09478665894744</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10761,12 +10815,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.725689641395725,173.0938991335569</t>
+          <t>-34.72571307926452,173.093899898962</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.725479651455395,173.09479090782625</t>
+          <t>-34.72553013301195,173.0947925567365</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10783,10 +10837,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.72578690855063,173.09390230999105</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>-34.72576220864305,173.09390150337035</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-34.72582085268162,173.0948020527334</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10801,12 +10859,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.72569901654325,173.0938994397189</t>
+          <t>-34.72567215313971,173.09389856244724</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.72518388361249,173.09478124702053</t>
+          <t>-34.725126190401475,173.09477936256812</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10823,12 +10881,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.72566953891587,173.09389847707521</t>
+          <t>-34.72565196051414,173.09389790302194</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.72532424037495,173.09478583155126</t>
+          <t>-34.725286379206224,173.09478459487474</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -10845,7 +10903,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.725846765260506,173.09390426472356</t>
+          <t>-34.725867318467984,173.09390493592755</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -10863,12 +10921,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.72563879924924,173.09389747321816</t>
+          <t>-34.72564754337729,173.0938977587727</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.72544530596757,173.09478978597957</t>
+          <t>-34.725464236551446,173.09479040432015</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -10885,12 +10943,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72558417098494,173.09389568923945</t>
+          <t>-34.72560093807602,173.093896236797</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.72542754727692,173.0947892059175</t>
+          <t>-34.725463605531985,173.09479038370878</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -10907,12 +10965,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.72566295828344,173.09389826217318</t>
+          <t>-34.725652050659804,173.0938979059658</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.72525762274695,173.09478365559025</t>
+          <t>-34.72523418488034,173.09478289002973</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -10929,12 +10987,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72573282116164,173.09390054366898</t>
+          <t>-34.72571479203186,173.09389995489548</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.72521110759624,173.0947821362475</t>
+          <t>-34.72517234497033,173.09478087012985</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -10951,12 +11009,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72573678757018,173.0939006731992</t>
+          <t>-34.725740122959174,173.09390078212232</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.72565768908589,173.09479672318867</t>
+          <t>-34.72566490073662,173.09479695874822</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10974,7 +11032,7 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.725488485727816,173.0947911963854</t>
+          <t>-34.725509219224286,173.0947918736163</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -10991,12 +11049,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.72554829301569,173.09389451758483</t>
+          <t>-34.72557515641982,173.09389539485377</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.725234906045486,173.09478291358542</t>
+          <t>-34.72529259925539,173.09478479804295</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -11013,12 +11071,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.725619688371346,173.09389684911972</t>
+          <t>-34.72563429196672,173.0938973260251</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.72531477508279,173.09478552238204</t>
+          <t>-34.72534632605659,173.09478655294646</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -11035,7 +11093,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72580610957359,173.09390293703595</t>
+          <t>-34.725781770248695,173.09390214219033</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -11053,12 +11111,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72584856817345,173.09390432360107</t>
+          <t>-34.72582008214896,173.0939033933364</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.72561360787054,173.094795283332</t>
+          <t>-34.72555230883843,173.09479328107992</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -11075,12 +11133,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.72575454626295,173.09390125314138</t>
+          <t>-34.725770952770915,173.09390178892576</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.72529746711996,173.09478495704417</t>
+          <t>-34.72533262391943,173.09478610538696</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -11097,12 +11155,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.7257690597123,173.0939017271045</t>
+          <t>-34.72580926467126,173.09390304007152</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.72530972692697,173.09478535749182</t>
+          <t>-34.72539626674048,173.09478818418438</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -11119,12 +11177,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.725726240529276,173.09390032876664</t>
+          <t>-34.72571118620589,173.0938998371408</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-34.72529764741124,173.09478496293312</t>
+          <t>-34.72526519498076,173.0947839029253</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -11141,12 +11199,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.7257381397549,173.0939007173572</t>
+          <t>-34.72577077247963,173.09390178303804</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.72537679528256,173.09478754817803</t>
+          <t>-34.725447108880324,173.09478984486913</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -11163,12 +11221,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.725741835726495,173.09390083805582</t>
+          <t>-34.72572506863584,173.09390029049635</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.725450354123275,173.09478995087036</t>
+          <t>-34.725414295868134,173.09478877307947</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -11185,12 +11243,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.725816476323054,173.09390327558143</t>
+          <t>-34.72583784084146,173.09390397327982</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.72546063072594,173.09479028654096</t>
+          <t>-34.72550660500083,173.0947917882263</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -11207,12 +11265,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.725661065224784,173.09389820035207</t>
+          <t>-34.72567404619836,173.09389862426838</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.72546811281384,173.09479053093278</t>
+          <t>-34.72549605796132,173.09479144372187</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11229,12 +11287,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.72571812742087,173.09390006381855</t>
+          <t>-34.725703073097485,173.09389957219284</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.72550020466063,173.09479157916806</t>
+          <t>-34.725467752231296,173.09479051915486</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11251,12 +11309,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.72555649626999,173.09389478547564</t>
+          <t>-34.72558786695663,173.0938958099376</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.725296024789714,173.0947849099327</t>
+          <t>-34.725363634019295,173.094787118285</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -11273,12 +11331,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.72562401536257,173.09389699042498</t>
+          <t>-34.725649977309835,173.09389783825696</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.72532784620054,173.09478594933006</t>
+          <t>-34.72538373649674,173.09478777490247</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -11295,12 +11353,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.725690903434824,173.09389917477102</t>
+          <t>-34.725693427513,173.09389925719924</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.72564759277483,173.0947963934054</t>
+          <t>-34.7256530015129,173.094796570075</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -11317,12 +11375,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.725647453231645,173.09389775582886</t>
+          <t>-34.725652952116285,173.0938979354044</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.72522318711215,173.0947825308053</t>
+          <t>-34.725234906045486,173.09478291358542</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -11339,12 +11397,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.725766896216754,173.0939016564516</t>
+          <t>-34.725744720387254,173.09390093225963</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.72557682845136,173.09479408198038</t>
+          <t>-34.72552905126431,173.09479252140272</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -11361,12 +11419,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.72563582444277,173.09389737607074</t>
+          <t>-34.72568306076332,173.0938989186548</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.725210025848526,173.09478210091393</t>
+          <t>-34.72531189042232,173.09478542815904</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -11383,12 +11441,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.72558777681099,173.09389580699377</t>
+          <t>-34.72560914133022,173.09389650468816</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.725377967175866,173.0947875864562</t>
+          <t>-34.72542394145141,173.0947890881384</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11405,12 +11463,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72581476355576,173.0939032196478</t>
+          <t>-34.725777984131476,173.09390201854774</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.72573476360268,173.09479924073335</t>
+          <t>-34.725655435445034,173.09479664957635</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -11427,12 +11485,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72569604173684,173.09389934257132</t>
+          <t>-34.72567170241147,173.09389854772792</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.725290976633865,173.09478474504255</t>
+          <t>-34.7252386921624,173.09478303725288</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11449,12 +11507,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.72561346832146,173.0938966459934</t>
+          <t>-34.725587145791415,173.09389578638675</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.7252347257542,173.0947829076965</t>
+          <t>-34.72517793400013,173.09478105268627</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -11471,12 +11529,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.72564231492959,173.0938975880287</t>
+          <t>-34.72566115537044,173.09389820329594</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.72540492072177,173.09478846685397</t>
+          <t>-34.72544548625884,173.09478979186852</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -11493,12 +11551,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.72571425115797,173.0938999372323</t>
+          <t>-34.725741475143906,173.09390082628033</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.725343801978696,173.09478647050128</t>
+          <t>-34.725402396643894,173.09478838440867</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -11515,12 +11573,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.72571019460375,173.09389980475828</t>
+          <t>-34.72571686538178,173.09390002260443</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.725535722041386,173.09479273929458</t>
+          <t>-34.72555014534318,173.09479321041223</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -11537,12 +11595,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72573056752042,173.09390047007227</t>
+          <t>-34.725706228195186,173.09389967522816</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.725436020966896,173.09478948269836</t>
+          <t>-34.72538373649674,173.09478777490247</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11559,12 +11617,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72564420798824,173.09389764984982</t>
+          <t>-34.72566890789631,173.09389845646817</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.72540681378017,173.09478852868799</t>
+          <t>-34.72545999970647,173.09479026592962</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -11581,14 +11639,10 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72549312387662,173.0938927159471</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>-34.72503929000131,173.0947765241168</t>
-        </is>
-      </c>
+          <t>-34.725470136735176,173.09389196526544</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11603,14 +11657,10 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.72570631834083,173.09389967817202</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>-34.725089591270454,173.09477816712004</t>
-        </is>
-      </c>
+          <t>-34.72566989949846,173.09389848885067</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11625,12 +11675,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.72567711115043,173.09389872435975</t>
+          <t>-34.725695951591184,173.09389933962748</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.72540510101306,173.09478847274295</t>
+          <t>-34.72544566655011,173.0947897977575</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -11647,12 +11697,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.725539909470086,173.09389424380637</t>
+          <t>-34.72553116534185,173.0938939582526</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.72543187426755,173.09478934725237</t>
+          <t>-34.72541294368356,173.0947887289123</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -11669,12 +11719,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72559561948262,173.09389606310938</t>
+          <t>-34.72560905118458,173.09389650174433</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.7251938897787,173.09478157385556</t>
+          <t>-34.72522273638394,173.094782516083</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -11691,12 +11741,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.725638078084025,173.09389744966725</t>
+          <t>-34.72567999581123,173.0938988185634</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.72523968376445,173.09478306964195</t>
+          <t>-34.725329829404615,173.0947860141084</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -11713,12 +11763,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.72573750873537,173.09390069675013</t>
+          <t>-34.72570983402115,173.09389979298282</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.72536525664079,173.0947871712855</t>
+          <t>-34.72530576051883,173.0947852279352</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -11735,12 +11785,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.72565953274874,173.0938981503064</t>
+          <t>-34.72569721363027,173.0938993808416</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.72532550241391,173.09478587277385</t>
+          <t>-34.72540663348889,173.094788522799</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -11757,12 +11807,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.72562978468419,173.09389717883207</t>
+          <t>-34.72561094424324,173.09389656356535</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.72509995801941,173.09477850573208</t>
+          <t>-34.72505939247989,173.09477718072898</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -11779,12 +11829,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.72568883008488,173.09389910706213</t>
+          <t>-34.72569432896948,173.09389928663788</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.72525852420336,173.09478368503488</t>
+          <t>-34.72527024313661,173.09478406781534</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -11801,12 +11851,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.72570884241902,173.0938997606003</t>
+          <t>-34.72569676290202,173.09389936612226</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.72532523197699,173.09478586394044</t>
+          <t>-34.72529908974146,173.09478501004457</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -11823,12 +11873,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.7256534929902,173.0938979530676</t>
+          <t>-34.72565980318569,173.09389815913798</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.7253911284391,173.09478801634936</t>
+          <t>-34.72540465028486,173.09478845802056</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -11845,12 +11895,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72564303609478,173.09389761157962</t>
+          <t>-34.72566989949846,173.09389848885067</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.7253587661548,173.09478695928354</t>
+          <t>-34.72541645936345,173.09478884374687</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -11867,12 +11917,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.72569667275637,173.0938993631784</t>
+          <t>-34.725722995285906,173.0939002227874</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.72538121241886,173.09478769245723</t>
+          <t>-34.72543800417091,173.09478954747686</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -11889,12 +11939,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.72563456240367,173.09389733485668</t>
+          <t>-34.72565511561189,173.09389800605712</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.7254054615956,173.09478848452085</t>
+          <t>-34.72544963295818,173.09478992731454</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -11911,12 +11961,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72557443525461,173.09389537130295</t>
+          <t>-34.725546760539615,173.0938944675393</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.7252581636208,173.09478367325704</t>
+          <t>-34.725198667497715,173.09478172991192</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -11933,12 +11983,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.72576680607111,173.09390165350774</t>
+          <t>-34.72579484136762,173.0939025690518</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.72542096664536,173.0947889909707</t>
+          <t>-34.7254813642225,173.0947909637714</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -11955,12 +12005,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.72568197901552,173.09389888332842</t>
+          <t>-34.725669358624565,173.09389847118746</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.72533794251215,173.09478627911068</t>
+          <t>-34.72531089882029,173.0947853957699</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -11977,12 +12027,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.725737328444076,173.09390069086237</t>
+          <t>-34.7257448105329,173.0939009352035</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.72539212004112,173.09478804873856</t>
+          <t>-34.72540834625602,173.09478857874404</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -11999,12 +12049,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.72562284346911,173.09389695215484</t>
+          <t>-34.7256497068729,173.0938978294254</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.72531901192786,173.0947856607721</t>
+          <t>-34.72537670513692,173.09478754523354</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -12021,12 +12071,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.72571172707979,173.09389985480402</t>
+          <t>-34.725734263492015,173.09390059077086</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.725430702374254,173.09478930897419</t>
+          <t>-34.725479381018495,173.0947908989928</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12043,12 +12093,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.72576383126473,173.09390155636</t>
+          <t>-34.72572903504439,173.09390042002653</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.725218860121366,173.09478238947116</t>
+          <t>-34.725144039238685,173.0947799455703</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -12065,12 +12115,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.72568873993923,173.09389910411826</t>
+          <t>-34.725707580379925,173.09389971938617</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.72540456013922,173.09478845507607</t>
+          <t>-34.725445125676295,173.0947897800906</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -12087,12 +12137,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.7256534929902,173.0938979530676</t>
+          <t>-34.72569577129989,173.09389933373976</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.725191185409464,173.09478148552176</t>
+          <t>-34.72528223250678,173.0947844594293</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -12109,12 +12159,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.72578735927886,173.0939023247104</t>
+          <t>-34.72583342370475,173.0939038290299</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.72520858351828,173.09478205380256</t>
+          <t>-34.725307743722894,173.0947852927135</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -12131,12 +12181,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.72573011679217,173.09390045535295</t>
+          <t>-34.72571632450789,173.09390000494122</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.725315586393556,173.09478554888224</t>
+          <t>-34.7252858383324,173.09478457720795</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -12153,12 +12203,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.725689190667474,173.09389911883758</t>
+          <t>-34.72566449075948,173.09389831221887</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.7253337056671,173.0947861407206</t>
+          <t>-34.72528051973961,173.09478440348443</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -12175,12 +12225,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.72566764585722,173.09389841525407</t>
+          <t>-34.725671431974504,173.09389853889633</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.72516206836714,173.09478053446168</t>
+          <t>-34.72517018147493,173.09478079946288</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -12197,12 +12247,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.7257697808775,173.09390175065545</t>
+          <t>-34.72574841635883,173.09390105295824</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.725354709601035,173.0947868267823</t>
+          <t>-34.725308735324944,173.09478532510263</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -12219,12 +12269,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.72572227412073,173.09390019923646</t>
+          <t>-34.725703433680074,173.09389958396832</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.72527051357355,173.09478407664872</t>
+          <t>-34.72522994803522,173.09478275163997</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -12241,12 +12291,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72576680607111,173.09390165350774</t>
+          <t>-34.72576220864305,173.09390150337035</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.72548271640705,173.0947910079386</t>
+          <t>-34.72547280038698,173.09479068404573</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -12263,12 +12313,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.72567864362648,173.09389877440543</t>
+          <t>-34.72570118003883,173.09389951037167</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.72536426503877,173.09478713889632</t>
+          <t>-34.72541294368356,173.0947887289123</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -12285,12 +12335,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.725625908421236,173.09389705224606</t>
+          <t>-34.72566863745938,173.09389844763658</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.72518929235099,173.0947814236881</t>
+          <t>-34.72528124090474,173.09478442704017</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -12307,12 +12357,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.725689100521826,173.09389911589372</t>
+          <t>-34.72571839785782,173.09390007265014</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.72534055673568,173.09478636450032</t>
+          <t>-34.72540365868283,173.09478842563135</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -12329,12 +12379,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72563816822967,173.09389745261112</t>
+          <t>-34.72562176172131,173.09389691682847</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.72516296982356,173.09478056390623</t>
+          <t>-34.72512781302305,173.09477941556833</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -12351,12 +12401,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.725656557942294,173.0938980531589</t>
+          <t>-34.72564483900779,173.09389767045687</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.725241035949054,173.0947831138089</t>
+          <t>-34.72521579516957,173.09478228935947</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -12373,14 +12423,10 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.725829277004976,173.09390369361162</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>-34.72560324112252,173.0947949447156</t>
-        </is>
-      </c>
+          <t>-34.72584225797815,173.09390411752972</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
           <t>L8</t>
@@ -12417,12 +12463,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72573101824866,173.09390048479162</t>
+          <t>-34.72571127635155,173.09389984008467</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.72527943799193,173.09478436815084</t>
+          <t>-34.72523706954086,173.0947829842525</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -12439,12 +12485,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.725754726554236,173.0939012590291</t>
+          <t>-34.72576347068213,173.09390154458453</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.725513185632295,173.09479200317358</t>
+          <t>-34.72553211621595,173.09479262151518</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -12461,12 +12507,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.72578186039434,173.09390214513422</t>
+          <t>-34.725831260209205,173.09390375837688</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.72507633986088,173.09477773428566</t>
+          <t>-34.72518271171913,173.0947812087426</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -12483,12 +12529,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.72575256305868,173.09390118837624</t>
+          <t>-34.725792317289496,173.09390248662336</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.72543223485009,173.0947893590303</t>
+          <t>-34.725517873205405,173.0947921562867</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -12505,12 +12551,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72566647396377,173.09389837698384</t>
+          <t>-34.72566809658547,173.09389842997336</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.72531062838336,173.09478538693648</t>
+          <t>-34.72531423420896,173.09478550471525</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -12527,12 +12573,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.7256128373019,173.0938966253864</t>
+          <t>-34.72559561948262,173.09389606310938</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.72511726598285,173.09477907106714</t>
+          <t>-34.725080306269184,173.0947778638415</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -12549,12 +12595,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.7256497068729,173.0938978294254</t>
+          <t>-34.72562960439289,173.09389717294434</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.72513006666411,173.0947794891797</t>
+          <t>-34.72508679675551,173.09477807584204</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -12572,7 +12618,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.72525257459108,173.09478349070025</t>
+          <t>-34.72518496536018,173.09478128235406</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -12589,12 +12635,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.72562536754733,173.09389703458288</t>
+          <t>-34.72561491065188,173.09389669309516</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.72524229798803,173.0947831550314</t>
+          <t>-34.72521976157778,173.09478241891577</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -12611,12 +12657,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.725640962744826,173.0938975438708</t>
+          <t>-34.72563681604492,173.09389740845322</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.725247977163406,173.09478334053262</t>
+          <t>-34.72523896259933,173.09478304608623</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -12633,12 +12679,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.72556361777645,173.0938950180402</t>
+          <t>-34.72558002428499,173.09389555382205</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.725431603830636,173.09478933841896</t>
+          <t>-34.72546676062928,173.0947904867656</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -12655,12 +12701,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72570379426266,173.09389959574378</t>
+          <t>-34.72568324105461,173.09389892454254</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.7252504110957,173.0947834200331</t>
+          <t>-34.72520623973159,173.09478197724658</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -12677,12 +12723,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.72570902271032,173.09389976648802</t>
+          <t>-34.72568603556975,173.09389901580232</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.725278085807325,173.09478432398384</t>
+          <t>-34.72522850570497,173.0947827045286</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -12699,12 +12745,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.72575085029135,173.09390113244274</t>
+          <t>-34.72575337436951,173.09390121487107</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.72540663348889,173.094788522799</t>
+          <t>-34.725412042227184,173.09478869946756</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -12721,12 +12767,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.72568729760884,173.09389905701642</t>
+          <t>-34.725716594944835,173.0939000137728</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.72536101979576,173.0947870328953</t>
+          <t>-34.725424121742684,173.09478909402736</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -12743,12 +12789,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72564015143398,173.09389751737606</t>
+          <t>-34.72567693085913,173.09389871847202</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.72523247211318,173.09478283408492</t>
+          <t>-34.725311800276685,173.09478542521458</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -12765,12 +12811,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.72564213463829,173.093897582141</t>
+          <t>-34.72567314474186,173.09389859482974</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.72532568270519,173.0947858786628</t>
+          <t>-34.72539239047804,173.09478805757198</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -12787,12 +12833,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.725637717501414,173.0938974378918</t>
+          <t>-34.72563393138412,173.09389731424966</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.725321445860125,173.09478574027273</t>
+          <t>-34.72531333275256,173.09478547527053</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -12809,12 +12855,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.72569063299787,173.09389916593943</t>
+          <t>-34.725666744400726,173.0938983858154</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.725189562787904,173.0947814325215</t>
+          <t>-34.72513817977194,173.0947797541807</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -12831,12 +12877,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.72570902271032,173.09389976648802</t>
+          <t>-34.72567891406342,173.09389878323702</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.72529638537227,173.09478492171058</t>
+          <t>-34.72523148051112,173.09478280169586</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -12853,12 +12899,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.72569279649345,173.0938992365922</t>
+          <t>-34.72568946110443,173.09389912766918</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.725304768916786,173.09478519554605</t>
+          <t>-34.72529755726559,173.09478495998866</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -12875,12 +12921,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.72570821139948,173.09389973999325</t>
+          <t>-34.72570108989319,173.0938995074278</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.725171804096476,173.0947808524631</t>
+          <t>-34.725156479337336,173.0947803519053</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -12897,12 +12943,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.725664220322535,173.09389830338728</t>
+          <t>-34.72564330653173,173.0938976204112</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.7253440724156,173.0947864793347</t>
+          <t>-34.72529899959582,173.09478500710014</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -12919,12 +12965,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.72574841635883,173.09390105295824</t>
+          <t>-34.72571993033385,173.0939001226959</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.725318741490945,173.09478565193865</t>
+          <t>-34.72525744245567,173.09478364970133</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -12941,12 +12987,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.72573029708347,173.09390046124068</t>
+          <t>-34.72574120470696,173.09390081744874</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.725490829514385,173.09479127294193</t>
+          <t>-34.725514267379936,173.09479203850736</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -12963,12 +13009,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.72568315090897,173.09389892159865</t>
+          <t>-34.725714521594924,173.09389994606389</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.72531802032582,173.0947856283829</t>
+          <t>-34.72538562955514,173.09478783673643</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -12985,12 +13031,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.72572578980103,173.0939003140473</t>
+          <t>-34.725774378305545,173.09390190079287</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.72521940099522,173.09478240713793</t>
+          <t>-34.72532396993804,173.09478582271788</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -13007,12 +13053,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.72567864362648,173.09389877440543</t>
+          <t>-34.725712989118875,173.09389989601814</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.7252838551283,173.09478451242967</t>
+          <t>-34.725357774552776,173.09478692689433</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -13029,12 +13075,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.725660434205246,173.09389817974503</t>
+          <t>-34.72568053668513,173.0938988362266</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.72543115310245,173.09478932369657</t>
+          <t>-34.72547442300844,173.09479073704637</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -13051,7 +13097,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.72558155676104,173.09389560386762</t>
+          <t>-34.7255434251505,173.0938943586167</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -13069,12 +13115,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.725808363214774,173.09390301063277</t>
+          <t>-34.725799979669546,173.09390273685256</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.72569789403863,173.0947980364336</t>
+          <t>-34.725679864911875,173.09479744753435</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -13091,12 +13137,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.72563384123846,173.0938973113058</t>
+          <t>-34.72565854114658,173.0938981179239</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.725257532601304,173.0947836526458</t>
+          <t>-34.725310718529,173.09478538988094</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -13113,12 +13159,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.72571632450789,173.09390000494122</t>
+          <t>-34.725705416884345,173.09389964873338</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.72527177561252,173.09478411787123</t>
+          <t>-34.72524833774596,173.09478335231046</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -13135,12 +13181,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.72561382890407,173.09389665776885</t>
+          <t>-34.72564150361873,173.093897561534</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.72530981707261,173.09478536043628</t>
+          <t>-34.72536931319455,173.09478730378677</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -13157,12 +13203,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.725667285274625,173.09389840347862</t>
+          <t>-34.725682339598116,173.09389889510388</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.72530963678133,173.09478535454733</t>
+          <t>-34.72534208921156,173.09478641455632</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -13179,12 +13225,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.72568306076332,173.0938989186548</t>
+          <t>-34.72566764585722,173.09389841525407</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.72529557406151,173.09478489521035</t>
+          <t>-34.72526222017463,173.09478380575794</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -13201,12 +13247,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.72569000197832,173.09389914533236</t>
+          <t>-34.72566070464219,173.09389818857662</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.7250903124356,173.09477819067567</t>
+          <t>-34.725027210484996,173.09477612956078</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -13223,12 +13269,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.72571181722544,173.09389985774789</t>
+          <t>-34.72570469571916,173.09389962518244</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.72539148902166,173.09478802812725</t>
+          <t>-34.72537616426309,173.09478752756672</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -13245,12 +13291,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.72566791629418,173.09389842408567</t>
+          <t>-34.72569847566937,173.0938994220557</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.72527862668118,173.09478434165064</t>
+          <t>-34.72534443299818,173.09478649111256</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -13267,12 +13313,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.725663589302975,173.09389828278023</t>
+          <t>-34.72568657644365,173.0938990334655</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.72535957746555,173.09478698578374</t>
+          <t>-34.725409157566766,173.09478860524433</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -13289,12 +13335,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72568351149156,173.0938989333741</t>
+          <t>-34.72572957591827,173.09390043768974</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.7251658544841,173.09478065812888</t>
+          <t>-34.72526501468948,173.09478389703634</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -13311,12 +13357,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.72576653563415,173.09390164467612</t>
+          <t>-34.72580466724324,173.09390288993396</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.725249058911096,173.09478337586614</t>
+          <t>-34.72533109144356,173.09478605533096</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -13333,12 +13379,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.72566376959428,173.09389828866796</t>
+          <t>-34.72569559100858,173.093899327852</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.72529927003274,173.09478501593352</t>
+          <t>-34.725367780718685,173.09478725373071</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -13355,12 +13401,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.725829006568034,173.09390368478003</t>
+          <t>-34.72586668744845,173.09390491532042</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.725336950910126,173.09478624672153</t>
+          <t>-34.72541808198494,173.09478889674745</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -13377,12 +13423,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.725695500862926,173.09389932490816</t>
+          <t>-34.725667014837676,173.09389839464703</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.725367961009965,173.0947872596197</t>
+          <t>-34.725306661975225,173.0947852573799</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -13399,12 +13445,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.72561473036056,173.09389668720743</t>
+          <t>-34.725624826673425,173.09389701691975</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.72549921305862,173.09479154677874</t>
+          <t>-34.7255208480114,173.09479225345464</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -13421,12 +13467,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.72569919683456,173.0938994456066</t>
+          <t>-34.72568873993923,173.09389910411826</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.72531540610227,173.09478554299332</t>
+          <t>-34.72529286969232,173.09478480687636</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -13443,12 +13489,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.72566782614852,173.0938984211418</t>
+          <t>-34.72565141964025,173.09389788535879</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.725378417904054,173.09478760117855</t>
+          <t>-34.72534326110486,173.09478645283446</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -13465,12 +13511,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.72562753104294,173.09389710523553</t>
+          <t>-34.72566187653564,173.09389822684682</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.72528755109955,173.0947846331528</t>
+          <t>-34.72536147052396,173.09478704761767</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -13487,12 +13533,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-34.72570866212773,173.09389975471257</t>
+          <t>-34.72567016993542,173.09389849768223</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.7252322918219,173.094782828196</t>
+          <t>-34.72514935783159,173.09478011929323</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -13509,12 +13555,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-34.725633480655866,173.09389729953034</t>
+          <t>-34.72562717046032,173.0938970934601</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.72549659883514,173.09479146138875</t>
+          <t>-34.7254830769896,173.09479101971652</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -13531,12 +13577,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.72572633067493,173.09390033171047</t>
+          <t>-34.725694959989035,173.09389930724495</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.72522877614189,173.09478271336198</t>
+          <t>-34.725161166910716,173.0947805050171</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -13553,12 +13599,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.72570217164097,173.0938995427542</t>
+          <t>-34.72569667275637,173.0938993631784</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.72539644703177,173.09478819007333</t>
+          <t>-34.72538472809877,173.09478780729168</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -13575,12 +13621,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.72587002283738,173.09390502424392</t>
+          <t>-34.725852444436256,173.09390445018778</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.72552715820595,173.09479245956854</t>
+          <t>-34.72548929703856,173.09479122288576</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -13597,12 +13643,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.72565493532059,173.0938980001694</t>
+          <t>-34.72569216547391,173.09389921598512</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.72525825376644,173.0947836762015</t>
+          <t>-34.72533848338599,173.09478629677753</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -13619,12 +13665,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.72573822990056,173.0939007203011</t>
+          <t>-34.7257152427601,173.09389996961482</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.725443773491726,173.09478973592343</t>
+          <t>-34.7253941933908,173.09478811646147</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -13641,12 +13687,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.72569586144554,173.09389933668362</t>
+          <t>-34.72568657644365,173.0938990334655</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.72511843787621,173.09477910934507</t>
+          <t>-34.725098605834766,173.09477846156528</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -13663,12 +13709,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.725721552955534,173.09390017568552</t>
+          <t>-34.725716594944835,173.0939000137728</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.725661655493795,173.0947968527464</t>
+          <t>-34.72565083801768,173.09479649940715</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -13685,12 +13731,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.725686756734945,173.09389903935323</t>
+          <t>-34.725688920230525,173.093899110006</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.725585121849825,173.09479435287327</t>
+          <t>-34.7255896291316,173.09479450009772</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -13707,12 +13753,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.7256859454241,173.09389901285843</t>
+          <t>-34.72568846950229,173.09389909528667</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.72558052442241,173.09479420270438</t>
+          <t>-34.72558593316054,173.0947943793737</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -13729,12 +13775,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.72570469571916,173.09389962518244</t>
+          <t>-34.72569757421286,173.09389939261706</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.72527943799193,173.09478436815084</t>
+          <t>-34.725264113233074,173.0947838675917</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -13751,12 +13797,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-34.72570469571916,173.09389962518244</t>
+          <t>-34.72567206299406,173.09389855950337</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.72513854035452,173.09477976595852</t>
+          <t>-34.72506822675295,173.0947774692851</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -13773,12 +13819,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-34.72569532057163,173.0938993190204</t>
+          <t>-34.72568152828727,173.0938988686091</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.725380040525565,173.09478765417907</t>
+          <t>-34.72535029246473,173.09478668250318</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -13795,12 +13841,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.72562185186696,173.09389691977236</t>
+          <t>-34.7256285226451,173.093897137618</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.725535451604486,173.0947927304611</t>
+          <t>-34.725549874906264,173.0947932015788</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -13817,12 +13863,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.725693427513,173.09389925719924</t>
+          <t>-34.72568251988942,173.0938989009916</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.725284576293426,173.0947845359854</t>
+          <t>-34.72526113842694,173.09478377042436</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -13839,12 +13885,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-34.72568188886987,173.09389888038456</t>
+          <t>-34.725667285274625,173.09389840347862</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.72517306613547,173.09478089368554</t>
+          <t>-34.725141515160715,173.09477986312555</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -13861,12 +13907,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-34.72555334117219,173.0938946824407</t>
+          <t>-34.72553792626574,173.09389417904163</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.72549434519422,173.09479138777672</t>
+          <t>-34.725460991308495,173.09479029831888</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -13883,12 +13929,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-34.72563492298626,173.09389734663213</t>
+          <t>-34.725658360855284,173.0938981120362</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.72535507018359,173.09478683856017</t>
+          <t>-34.72540555174124,173.0947884874653</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -13905,12 +13951,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-34.72568062683078,173.09389883917046</t>
+          <t>-34.725691083726126,173.09389918065875</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-34.72549488606804,173.0947914054436</t>
+          <t>-34.725517422477225,173.09479214156428</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -13927,12 +13973,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-34.72570893256466,173.09389976354416</t>
+          <t>-34.72569847566937,173.0938994220557</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-34.725272046049426,173.09478412670467</t>
+          <t>-34.725249509639305,173.09478339058847</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -13949,12 +13995,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-34.72572569965538,173.0939003111034</t>
+          <t>-34.72570433513657,173.093899613407</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-34.725000707665544,173.09477526389352</t>
+          <t>-34.7249547333866,173.09477376222713</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -13971,12 +14017,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-34.7256737757614,173.09389861543679</t>
+          <t>-34.725709743875505,173.09389979003896</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-34.725272316486354,173.09478413553805</t>
+          <t>-34.725349841736524,173.09478666778082</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -13993,12 +14039,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-34.72573768902667,173.09390070263785</t>
+          <t>-34.725743548493824,173.09390089398931</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-34.72559476743281,173.09479466793357</t>
+          <t>-34.72560738782174,173.09479508016213</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -14015,12 +14061,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-34.72568459323935,173.09389896870047</t>
+          <t>-34.72573146897691,173.09390049951094</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-34.72523824143419,173.09478302253055</t>
+          <t>-34.725339204551105,173.09478632033327</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -14037,12 +14083,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-34.72570379426266,173.09389959574378</t>
+          <t>-34.72568657644365,173.0938990334655</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-34.72536129023269,173.09478704172875</t>
+          <t>-34.725324330520586,173.09478583449575</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -14059,12 +14105,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-34.72570235193228,173.09389954864193</t>
+          <t>-34.72572669125751,173.09390034348596</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-34.725481093785596,173.09479095493796</t>
+          <t>-34.72553337825485,173.09479266273797</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -14081,12 +14127,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-34.72570415484527,173.09389960751923</t>
+          <t>-34.725700008145395,173.09389947210144</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-34.72551832393358,173.09479217100912</t>
+          <t>-34.72550930936993,173.09479187656078</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -14103,12 +14149,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-34.72565682837925,173.09389806199053</t>
+          <t>-34.72565430430104,173.09389797956234</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-34.7252296775983,173.0947827428066</t>
+          <t>-34.72522426885983,173.09478256613886</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -14125,12 +14171,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-34.72566295828344,173.09389826217318</t>
+          <t>-34.72567260386796,173.09389857716656</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-34.72523436517164,173.09478289591866</t>
+          <t>-34.72525509866901,173.09478357314524</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -14147,12 +14193,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-34.72563961056009,173.09389749971288</t>
+          <t>-34.72563167774286,173.09389724065312</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-34.72526546541768,173.09478391175867</t>
+          <t>-34.72524833774596,173.09478335231046</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -14169,12 +14215,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-34.72565493532059,173.0938980001694</t>
+          <t>-34.72568459323935,173.09389896870047</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-34.72538292518599,173.0947877484022</t>
+          <t>-34.72544692858904,173.09478983898018</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -14191,12 +14237,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-34.72572939562698,173.093900431802</t>
+          <t>-34.725705957758244,173.09389966639657</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-34.725258614349,173.09478368797934</t>
+          <t>-34.72520813279007,173.09478203908026</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -14213,12 +14259,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-34.725666203526835,173.09389836815225</t>
+          <t>-34.72569216547391,173.09389921598512</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-34.72538878465251,173.094787939793</t>
+          <t>-34.7254446749481,173.09478976536823</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -14235,12 +14281,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-34.725643576968686,173.09389762924278</t>
+          <t>-34.72566953891587,173.09389847707521</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-34.72535371799901,173.09478679439312</t>
+          <t>-34.72540960829496,173.09478861996672</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -14257,12 +14303,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-34.72561355846711,173.09389664893726</t>
+          <t>-34.72561770516704,173.0938967843548</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-34.72526519498076,173.0947839029253</t>
+          <t>-34.7252742095448,173.0947841973718</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -14279,12 +14325,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-34.72566764585722,173.09389841525407</t>
+          <t>-34.72565223095109,173.09389791185353</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-34.72507633986088,173.09477773428566</t>
+          <t>-34.72504298597271,173.0947766448392</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -14301,12 +14347,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-34.72562248288651,173.09389694037938</t>
+          <t>-34.72565926231179,173.0938981414748</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-34.72524842789161,173.09478335525492</t>
+          <t>-34.7253277560549,173.09478594638557</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -14323,12 +14369,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-34.725680987413384,173.09389885094592</t>
+          <t>-34.725649977309835,173.09389783825696</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-34.72510058903892,173.09477852634325</t>
+          <t>-34.72503388126267,173.09477634744994</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -14345,12 +14391,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-34.72569757421286,173.09389939261706</t>
+          <t>-34.72571217780803,173.09389986952337</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-34.725449993540735,173.09478993909246</t>
+          <t>-34.725481544513784,173.09479096966038</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -14367,12 +14413,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-34.725763380536485,173.09390154164066</t>
+          <t>-34.72580268403898,173.09390282516873</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-34.72531901192786,173.0947856607721</t>
+          <t>-34.72540374882847,173.0947884285758</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -14389,12 +14435,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-34.7257535546608,173.09390122075882</t>
+          <t>-34.72575481669989,173.09390126197297</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-34.72559431670463,173.09479465321115</t>
+          <t>-34.7255970210737,173.0947947415458</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -14411,14 +14457,10 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-34.725660794787835,173.09389819152048</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>-34.72511861816749,173.09477911523396</t>
-        </is>
-      </c>
+          <t>-34.72564159376437,173.09389756447783</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
           <t>L8</t>
@@ -14434,7 +14476,7 @@
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-34.72536534678644,173.09478717423</t>
+          <t>-34.725440167666214,173.09478961814432</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -14451,12 +14493,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-34.72585325574708,173.09390447668267</t>
+          <t>-34.725872096187246,173.0939050919531</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-34.72553986874066,173.0947928747409</t>
+          <t>-34.725580434276786,173.0947941997599</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -14473,12 +14515,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-34.72566178638999,173.09389822390298</t>
+          <t>-34.72565430430104,173.09389797956234</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-34.72526393294179,173.09478386170278</t>
+          <t>-34.72524770672648,173.0947833316992</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -14495,14 +14537,10 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-34.725704244990915,173.09389961046313</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>-34.725621270249505,173.0947955336137</t>
-        </is>
-      </c>
+          <t>-34.725712989118875,173.09389989601814</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
           <t>L8</t>
@@ -14517,12 +14555,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-34.72568251988942,173.0938989009916</t>
+          <t>-34.7256737757614,173.09389861543679</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-34.72520813279007,173.09478203908026</t>
+          <t>-34.72518920220535,173.09478142074363</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -14539,12 +14577,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-34.725694599406445,173.0938992954695</t>
+          <t>-34.72565565648579,173.0938980237203</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-34.72519578283718,173.0947816356892</t>
+          <t>-34.72511194738993,173.09477889734438</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -14561,12 +14599,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-34.72561274715624,173.09389662244251</t>
+          <t>-34.72563906968618,173.09389748204973</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-34.72533866367725,173.09478630266645</t>
+          <t>-34.72539545542974,173.09478815768412</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -14583,12 +14621,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-34.725671161537555,173.09389853006473</t>
+          <t>-34.72565610721403,173.09389803843962</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-34.72532081484065,173.09478571966145</t>
+          <t>-34.72528836241031,173.09478465965302</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -14605,12 +14643,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-34.72571515261445,173.09389996667096</t>
+          <t>-34.725717676692625,173.09390004909923</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-34.72531089882029,173.0947853957699</t>
+          <t>-34.72531630755867,173.09478557243798</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -14627,17 +14665,61 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-34.72573660727888,173.09390066731143</t>
+          <t>-34.72573282116164,173.09390054366898</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-34.725648043503014,173.09479640812788</t>
+          <t>-34.7256399303959,173.09479614312352</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>-34.72568937095877,173.0938991247253</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>-34.72524941949364,173.09478338764401</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:17:53+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>-34.72571821756652,173.09390006676244</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>-34.725519856409406,173.09479222106532</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399.19</v>
+        <v>395.16</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.78</v>
+        <v>398.49</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400.53</v>
+        <v>399.15</v>
       </c>
       <c r="C5" t="n">
         <v>447.29</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394.37</v>
+        <v>397.56</v>
       </c>
       <c r="C6" t="n">
-        <v>421.74</v>
+        <v>434.51</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.12</v>
+        <v>396.95</v>
       </c>
       <c r="C7" t="n">
-        <v>414.33</v>
+        <v>427.79</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.69</v>
+        <v>395.93</v>
       </c>
       <c r="C8" t="n">
-        <v>472.85</v>
+        <v>439.05</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>396.45</v>
+        <v>394.91</v>
       </c>
       <c r="C9" t="n">
-        <v>434.77</v>
+        <v>435.92</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.61</v>
+        <v>395.72</v>
       </c>
       <c r="C10" t="n">
-        <v>428.54</v>
+        <v>437.62</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>399.56</v>
+        <v>397.87</v>
       </c>
       <c r="C11" t="n">
-        <v>420.57</v>
+        <v>427.96</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -639,9 +639,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>403.53</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>399.29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>427.96</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>L7</t>
@@ -655,10 +657,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>400.91</v>
+        <v>399.61</v>
       </c>
       <c r="C13" t="n">
-        <v>470.12</v>
+        <v>438.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -673,10 +675,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>389.96</v>
+        <v>398</v>
       </c>
       <c r="C14" t="n">
-        <v>430.53</v>
+        <v>436.91</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -691,10 +693,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>400.42</v>
+        <v>398.88</v>
       </c>
       <c r="C15" t="n">
-        <v>434.24</v>
+        <v>438.87</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -709,10 +711,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>403.21</v>
+        <v>399.6</v>
       </c>
       <c r="C16" t="n">
-        <v>407.64</v>
+        <v>432.62</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -727,10 +729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>386.63</v>
+        <v>396.23</v>
       </c>
       <c r="C17" t="n">
-        <v>412.33</v>
+        <v>430.97</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -745,10 +747,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.67</v>
+        <v>391.58</v>
       </c>
       <c r="C18" t="n">
-        <v>375.98</v>
+        <v>412.14</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -763,10 +765,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.19</v>
+        <v>392.02</v>
       </c>
       <c r="C19" t="n">
-        <v>430.2</v>
+        <v>412.08</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -781,10 +783,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>400.23</v>
+        <v>391.99</v>
       </c>
       <c r="C20" t="n">
-        <v>425.29</v>
+        <v>410.29</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -799,10 +801,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>404.87</v>
+        <v>399.1</v>
       </c>
       <c r="C21" t="n">
-        <v>414.8</v>
+        <v>423.43</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -817,10 +819,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.81</v>
+        <v>400.34</v>
       </c>
       <c r="C22" t="n">
-        <v>450.09</v>
+        <v>432.44</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -835,10 +837,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>386.65</v>
+        <v>395.78</v>
       </c>
       <c r="C23" t="n">
-        <v>419.9</v>
+        <v>428.26</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -853,10 +855,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>408.82</v>
+        <v>397.09</v>
       </c>
       <c r="C24" t="n">
-        <v>441.15</v>
+        <v>437.05</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -871,10 +873,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>398.95</v>
+        <v>398.14</v>
       </c>
       <c r="C25" t="n">
-        <v>424.9</v>
+        <v>428.65</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -889,9 +891,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>394.33</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>400.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>433.02</v>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>L7</t>
@@ -905,10 +909,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>389.35</v>
+        <v>394.21</v>
       </c>
       <c r="C27" t="n">
-        <v>421.71</v>
+        <v>423.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -923,10 +927,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>398.04</v>
+        <v>393.91</v>
       </c>
       <c r="C28" t="n">
-        <v>416.38</v>
+        <v>419.04</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -941,10 +945,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>398.52</v>
+        <v>395.3</v>
       </c>
       <c r="C29" t="n">
-        <v>433.57</v>
+        <v>423.89</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -958,9 +962,11 @@
           <t>2004-03-23 22:06:52+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>395.3</v>
+      </c>
       <c r="C30" t="n">
-        <v>425.42</v>
+        <v>424.27</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -975,10 +981,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>398.03</v>
+        <v>395.99</v>
       </c>
       <c r="C31" t="n">
-        <v>443.6</v>
+        <v>428.14</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -993,10 +999,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>397.6</v>
+        <v>398.05</v>
       </c>
       <c r="C32" t="n">
-        <v>419.55</v>
+        <v>427.7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1011,10 +1017,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>402.69</v>
+        <v>398.98</v>
       </c>
       <c r="C33" t="n">
-        <v>453.23</v>
+        <v>431.96</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1028,9 +1034,11 @@
           <t>2004-06-03 21:58:42+00:00</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>398.98</v>
+      </c>
       <c r="C34" t="n">
-        <v>456.76</v>
+        <v>435.5</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1045,10 +1053,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>389.63</v>
+        <v>397.42</v>
       </c>
       <c r="C35" t="n">
-        <v>433.82</v>
+        <v>435.29</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1062,9 +1070,11 @@
           <t>2004-07-13 22:06:34+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>397.42</v>
+      </c>
       <c r="C36" t="n">
-        <v>445.16</v>
+        <v>436.39</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1079,10 +1089,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.91</v>
+        <v>399.35</v>
       </c>
       <c r="C37" t="n">
-        <v>397.66</v>
+        <v>432.51</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1097,10 +1107,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.15</v>
+        <v>399.08</v>
       </c>
       <c r="C38" t="n">
-        <v>398.64</v>
+        <v>430.74</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1115,10 +1125,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>393.87</v>
+        <v>398.43</v>
       </c>
       <c r="C39" t="n">
-        <v>412.37</v>
+        <v>429.07</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1133,10 +1143,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.35</v>
+        <v>397.46</v>
       </c>
       <c r="C40" t="n">
-        <v>423.18</v>
+        <v>426.71</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1151,10 +1161,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>397.65</v>
+        <v>397.46</v>
       </c>
       <c r="C41" t="n">
-        <v>405.57</v>
+        <v>425.15</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1169,10 +1179,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>387.39</v>
+        <v>395.28</v>
       </c>
       <c r="C42" t="n">
-        <v>447.33</v>
+        <v>420.47</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1187,10 +1197,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.16</v>
+        <v>397.07</v>
       </c>
       <c r="C43" t="n">
-        <v>445.39</v>
+        <v>418.59</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1205,10 +1215,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>391.66</v>
+        <v>396.39</v>
       </c>
       <c r="C44" t="n">
-        <v>426.45</v>
+        <v>419.57</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1222,9 +1232,11 @@
           <t>2005-02-06 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>394.32</v>
+      </c>
       <c r="C45" t="n">
-        <v>405.4</v>
+        <v>420.54</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1239,10 +1251,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>398.11</v>
+        <v>394.79</v>
       </c>
       <c r="C46" t="n">
-        <v>422.77</v>
+        <v>420.79</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1257,10 +1269,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>401.37</v>
+        <v>395.67</v>
       </c>
       <c r="C47" t="n">
-        <v>421.52</v>
+        <v>424.7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1275,10 +1287,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>401.69</v>
+        <v>396.42</v>
       </c>
       <c r="C48" t="n">
-        <v>463.58</v>
+        <v>429.02</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1293,10 +1305,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>403.31</v>
+        <v>397.19</v>
       </c>
       <c r="C49" t="n">
-        <v>437.2</v>
+        <v>429.84</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1310,9 +1322,11 @@
           <t>2005-05-29 22:07:09+00:00</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>397.96</v>
+      </c>
       <c r="C50" t="n">
-        <v>406.18</v>
+        <v>430.65</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1327,10 +1341,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>397.15</v>
+        <v>399.35</v>
       </c>
       <c r="C51" t="n">
-        <v>430.8</v>
+        <v>428.81</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1345,9 +1359,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>412.77</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>401.03</v>
+      </c>
+      <c r="C52" t="n">
+        <v>428.81</v>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1361,10 +1377,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>400.97</v>
+        <v>402.2</v>
       </c>
       <c r="C53" t="n">
-        <v>431.41</v>
+        <v>427.36</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1379,10 +1395,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>396.34</v>
+        <v>401.94</v>
       </c>
       <c r="C54" t="n">
-        <v>433.64</v>
+        <v>432.05</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1397,10 +1413,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>396.98</v>
+        <v>401.32</v>
       </c>
       <c r="C55" t="n">
-        <v>432.73</v>
+        <v>433.65</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1415,10 +1431,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>391.18</v>
+        <v>400.05</v>
       </c>
       <c r="C56" t="n">
-        <v>413.68</v>
+        <v>431.15</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1433,10 +1449,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>401.93</v>
+        <v>400.26</v>
       </c>
       <c r="C57" t="n">
-        <v>452.19</v>
+        <v>433.49</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1451,10 +1467,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>412.39</v>
+        <v>399.96</v>
       </c>
       <c r="C58" t="n">
-        <v>442.38</v>
+        <v>434.34</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1469,10 +1485,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>375.53</v>
+        <v>395.72</v>
       </c>
       <c r="C59" t="n">
-        <v>434.98</v>
+        <v>434.93</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1487,10 +1503,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>398.22</v>
+        <v>396.08</v>
       </c>
       <c r="C60" t="n">
-        <v>429.16</v>
+        <v>434.11</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1505,10 +1521,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>394.08</v>
+        <v>395.83</v>
       </c>
       <c r="C61" t="n">
-        <v>426.15</v>
+        <v>433.11</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1523,10 +1539,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>392.92</v>
+        <v>395.18</v>
       </c>
       <c r="C62" t="n">
-        <v>412.83</v>
+        <v>430.2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1541,10 +1557,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>396.45</v>
+        <v>394.93</v>
       </c>
       <c r="C63" t="n">
-        <v>383.67</v>
+        <v>421.53</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1559,10 +1575,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>398.38</v>
+        <v>395.42</v>
       </c>
       <c r="C64" t="n">
-        <v>430.56</v>
+        <v>422.82</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1577,10 +1593,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>398.47</v>
+        <v>395.81</v>
       </c>
       <c r="C65" t="n">
-        <v>433.61</v>
+        <v>424.17</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1595,10 +1611,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>400.96</v>
+        <v>396.38</v>
       </c>
       <c r="C66" t="n">
-        <v>427.11</v>
+        <v>424.49</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1613,10 +1629,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>402.51</v>
+        <v>396.99</v>
       </c>
       <c r="C67" t="n">
-        <v>440.37</v>
+        <v>426.08</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1631,10 +1647,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>395.91</v>
+        <v>396.89</v>
       </c>
       <c r="C68" t="n">
-        <v>400.16</v>
+        <v>423.73</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1648,9 +1664,11 @@
           <t>2006-07-03 22:07:28+00:00</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>396.89</v>
+      </c>
       <c r="C69" t="n">
-        <v>437.72</v>
+        <v>424.89</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1665,10 +1683,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>398.46</v>
+        <v>395.63</v>
       </c>
       <c r="C70" t="n">
-        <v>441.54</v>
+        <v>424.82</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1683,10 +1701,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>403.98</v>
+        <v>396.32</v>
       </c>
       <c r="C71" t="n">
-        <v>422.54</v>
+        <v>424.65</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1701,9 +1719,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>400.46</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>398.42</v>
+      </c>
+      <c r="C72" t="n">
+        <v>423.3</v>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1717,10 +1737,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>396.27</v>
+        <v>398.62</v>
       </c>
       <c r="C73" t="n">
-        <v>419.38</v>
+        <v>422.68</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1735,10 +1755,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>387.43</v>
+        <v>397.86</v>
       </c>
       <c r="C74" t="n">
-        <v>428.12</v>
+        <v>427.12</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1753,10 +1773,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>412.38</v>
+        <v>400.1</v>
       </c>
       <c r="C75" t="n">
-        <v>438.77</v>
+        <v>427.2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1771,10 +1791,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>389.63</v>
+        <v>396.43</v>
       </c>
       <c r="C76" t="n">
-        <v>420.3</v>
+        <v>426.64</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1788,9 +1808,11 @@
           <t>2007-02-28 22:08:05+00:00</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>396.48</v>
+      </c>
       <c r="C77" t="n">
-        <v>397.54</v>
+        <v>421.18</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1805,10 +1827,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>387.27</v>
+        <v>394.18</v>
       </c>
       <c r="C78" t="n">
-        <v>396.98</v>
+        <v>416.34</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1823,10 +1845,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>406</v>
+        <v>396.54</v>
       </c>
       <c r="C79" t="n">
-        <v>424.39</v>
+        <v>417.68</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1841,10 +1863,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>402.39</v>
+        <v>396.32</v>
       </c>
       <c r="C80" t="n">
-        <v>453.59</v>
+        <v>418.56</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1859,9 +1881,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>388.39</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>396.01</v>
+      </c>
+      <c r="C81" t="n">
+        <v>424.99</v>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1875,10 +1899,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>409.48</v>
+        <v>401.56</v>
       </c>
       <c r="C82" t="n">
-        <v>450.65</v>
+        <v>442.88</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1893,10 +1917,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>399.54</v>
+        <v>401.16</v>
       </c>
       <c r="C83" t="n">
-        <v>410.42</v>
+        <v>434.76</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1911,10 +1935,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>395.34</v>
+        <v>399.03</v>
       </c>
       <c r="C84" t="n">
-        <v>447.59</v>
+        <v>440.56</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1929,10 +1953,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>391.39</v>
+        <v>397.75</v>
       </c>
       <c r="C85" t="n">
-        <v>417.51</v>
+        <v>435.95</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1947,10 +1971,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>396.24</v>
+        <v>396.73</v>
       </c>
       <c r="C86" t="n">
-        <v>421.39</v>
+        <v>429.51</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1965,10 +1989,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>384.87</v>
+        <v>393.48</v>
       </c>
       <c r="C87" t="n">
-        <v>381.53</v>
+        <v>415.69</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1983,10 +2007,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>393.97</v>
+        <v>391.62</v>
       </c>
       <c r="C88" t="n">
-        <v>427.77</v>
+        <v>412.05</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2000,9 +2024,11 @@
           <t>2008-06-22 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>391.62</v>
+      </c>
       <c r="C89" t="n">
-        <v>457.11</v>
+        <v>421.06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2017,10 +2043,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>398.73</v>
+        <v>393.45</v>
       </c>
       <c r="C90" t="n">
-        <v>439.79</v>
+        <v>425.52</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2035,10 +2061,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>391.25</v>
+        <v>393.01</v>
       </c>
       <c r="C91" t="n">
-        <v>410.35</v>
+        <v>422.99</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2053,9 +2079,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>385.15</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>391.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>422.99</v>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2069,10 +2097,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>393.66</v>
+        <v>391.27</v>
       </c>
       <c r="C93" t="n">
-        <v>410.56</v>
+        <v>421.19</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2087,10 +2115,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>396.27</v>
+        <v>393.17</v>
       </c>
       <c r="C94" t="n">
-        <v>423.59</v>
+        <v>428.19</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2105,10 +2133,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>394.54</v>
+        <v>393.37</v>
       </c>
       <c r="C95" t="n">
-        <v>431.65</v>
+        <v>428.69</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2123,10 +2151,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>401.05</v>
+        <v>394.33</v>
       </c>
       <c r="C96" t="n">
-        <v>453</v>
+        <v>431.73</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2141,10 +2169,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>396.41</v>
+        <v>394.63</v>
       </c>
       <c r="C97" t="n">
-        <v>432.42</v>
+        <v>428.77</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2159,10 +2187,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>402.48</v>
+        <v>395.5</v>
       </c>
       <c r="C98" t="n">
-        <v>419.47</v>
+        <v>427.6</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2176,9 +2204,11 @@
           <t>2009-03-21 22:07:47+00:00</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>397.4</v>
+      </c>
       <c r="C99" t="n">
-        <v>431.83</v>
+        <v>428.93</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2193,10 +2223,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>393.66</v>
+        <v>397.52</v>
       </c>
       <c r="C100" t="n">
-        <v>411.8</v>
+        <v>423.88</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2211,10 +2241,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>388.21</v>
+        <v>390.94</v>
       </c>
       <c r="C101" t="n">
-        <v>379.55</v>
+        <v>395.68</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2229,10 +2259,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>398.2</v>
+        <v>393.36</v>
       </c>
       <c r="C102" t="n">
-        <v>456.61</v>
+        <v>415.99</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2247,10 +2277,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>400.44</v>
+        <v>395.62</v>
       </c>
       <c r="C103" t="n">
-        <v>438.84</v>
+        <v>425</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2265,9 +2295,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>376.55</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
+        <v>390.85</v>
+      </c>
+      <c r="C104" t="n">
+        <v>425</v>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2281,10 +2313,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>400.93</v>
+        <v>392.87</v>
       </c>
       <c r="C105" t="n">
-        <v>419.11</v>
+        <v>423.53</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2299,10 +2331,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>406.1</v>
+        <v>395.07</v>
       </c>
       <c r="C106" t="n">
-        <v>419.18</v>
+        <v>422.66</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2317,10 +2349,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>400.43</v>
+        <v>395.84</v>
       </c>
       <c r="C107" t="n">
-        <v>444.63</v>
+        <v>426.32</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2335,10 +2367,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>393.47</v>
+        <v>395.54</v>
       </c>
       <c r="C108" t="n">
-        <v>451.49</v>
+        <v>429.92</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2353,10 +2385,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>390.66</v>
+        <v>395.51</v>
       </c>
       <c r="C109" t="n">
-        <v>396.85</v>
+        <v>428.35</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2370,9 +2402,11 @@
           <t>2010-06-12 22:09:43+00:00</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>395.51</v>
+      </c>
       <c r="C110" t="n">
-        <v>414.12</v>
+        <v>426.32</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2387,10 +2421,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>408.96</v>
+        <v>397.19</v>
       </c>
       <c r="C111" t="n">
-        <v>438.15</v>
+        <v>427.8</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2405,10 +2439,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>402.4</v>
+        <v>400.34</v>
       </c>
       <c r="C112" t="n">
-        <v>432.19</v>
+        <v>428.09</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2423,9 +2457,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>386.04</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
+        <v>397.01</v>
+      </c>
+      <c r="C113" t="n">
+        <v>420.33</v>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2439,10 +2475,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>381.79</v>
+        <v>393.97</v>
       </c>
       <c r="C114" t="n">
-        <v>409.34</v>
+        <v>418.13</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2457,10 +2493,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>387.24</v>
+        <v>393.29</v>
       </c>
       <c r="C115" t="n">
-        <v>433.71</v>
+        <v>425.5</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2475,10 +2511,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>382.99</v>
+        <v>388.09</v>
       </c>
       <c r="C116" t="n">
-        <v>426.65</v>
+        <v>425.47</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2493,10 +2529,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>393.87</v>
+        <v>389.06</v>
       </c>
       <c r="C117" t="n">
-        <v>441.19</v>
+        <v>428.62</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2511,10 +2547,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>387.26</v>
+        <v>388.8</v>
       </c>
       <c r="C118" t="n">
-        <v>421.01</v>
+        <v>427.35</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2529,10 +2565,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>392.33</v>
+        <v>387.36</v>
       </c>
       <c r="C119" t="n">
-        <v>424.65</v>
+        <v>426.09</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2547,10 +2583,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>379.82</v>
+        <v>386.42</v>
       </c>
       <c r="C120" t="n">
-        <v>414.41</v>
+        <v>424.42</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2565,10 +2601,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>397.99</v>
+        <v>387.7</v>
       </c>
       <c r="C121" t="n">
-        <v>415.58</v>
+        <v>423.32</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2583,10 +2619,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>394.77</v>
+        <v>389.53</v>
       </c>
       <c r="C122" t="n">
-        <v>418.72</v>
+        <v>424.49</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2601,10 +2637,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>407.55</v>
+        <v>393.29</v>
       </c>
       <c r="C123" t="n">
-        <v>430.27</v>
+        <v>420.77</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2619,10 +2655,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>400.66</v>
+        <v>396.16</v>
       </c>
       <c r="C124" t="n">
-        <v>428.04</v>
+        <v>421.4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2637,10 +2673,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>395.84</v>
+        <v>399.7</v>
       </c>
       <c r="C125" t="n">
-        <v>398.17</v>
+        <v>418.8</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2655,10 +2691,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>400.33</v>
+        <v>399.83</v>
       </c>
       <c r="C126" t="n">
-        <v>444.55</v>
+        <v>423.95</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2673,10 +2709,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>390.15</v>
+        <v>398.22</v>
       </c>
       <c r="C127" t="n">
-        <v>411.92</v>
+        <v>421.94</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2691,10 +2727,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>396.99</v>
+        <v>396.79</v>
       </c>
       <c r="C128" t="n">
-        <v>436.01</v>
+        <v>423.74</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2709,10 +2745,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>405.19</v>
+        <v>398.16</v>
       </c>
       <c r="C129" t="n">
-        <v>423.58</v>
+        <v>429.01</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2727,10 +2763,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>386.46</v>
+        <v>396.21</v>
       </c>
       <c r="C130" t="n">
-        <v>397.9</v>
+        <v>419.16</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2745,10 +2781,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>398.25</v>
+        <v>392.36</v>
       </c>
       <c r="C131" t="n">
-        <v>444.13</v>
+        <v>421.01</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2763,10 +2799,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>407.63</v>
+        <v>402.94</v>
       </c>
       <c r="C132" t="n">
-        <v>450.87</v>
+        <v>447.5</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2781,10 +2817,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>399.42</v>
+        <v>401.77</v>
       </c>
       <c r="C133" t="n">
-        <v>421.19</v>
+        <v>438.73</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2799,10 +2835,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>390.51</v>
+        <v>398.95</v>
       </c>
       <c r="C134" t="n">
-        <v>425.97</v>
+        <v>435.54</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2817,10 +2853,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>393.24</v>
+        <v>397.7</v>
       </c>
       <c r="C135" t="n">
-        <v>409.58</v>
+        <v>426.9</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2835,10 +2871,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>394.42</v>
+        <v>397.04</v>
       </c>
       <c r="C136" t="n">
-        <v>428.04</v>
+        <v>427.13</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2853,10 +2889,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>398.56</v>
+        <v>397.3</v>
       </c>
       <c r="C137" t="n">
-        <v>419.58</v>
+        <v>425.87</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2871,9 +2907,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>420.61</v>
-      </c>
-      <c r="C138" t="inlineStr"/>
+        <v>400.63</v>
+      </c>
+      <c r="C138" t="n">
+        <v>425.87</v>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2887,9 +2925,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>398.45</v>
-      </c>
-      <c r="C139" t="inlineStr"/>
+        <v>399.32</v>
+      </c>
+      <c r="C139" t="n">
+        <v>420.87</v>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2903,10 +2943,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>395.56</v>
+        <v>398.85</v>
       </c>
       <c r="C140" t="n">
-        <v>421.17</v>
+        <v>420.92</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2921,10 +2961,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>413.84</v>
+        <v>400.51</v>
       </c>
       <c r="C141" t="n">
-        <v>424.8</v>
+        <v>421.48</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2939,10 +2979,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>405.2</v>
+        <v>401.15</v>
       </c>
       <c r="C142" t="n">
-        <v>445.9</v>
+        <v>425.01</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2957,10 +2997,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>397.33</v>
+        <v>401.91</v>
       </c>
       <c r="C143" t="n">
-        <v>434.02</v>
+        <v>426.16</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2975,10 +3015,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>394.02</v>
+        <v>401.12</v>
       </c>
       <c r="C144" t="n">
-        <v>436.69</v>
+        <v>427.47</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2993,10 +3033,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>395.42</v>
+        <v>400.6</v>
       </c>
       <c r="C145" t="n">
-        <v>425.5</v>
+        <v>427.25</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3011,10 +3051,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>404.99</v>
+        <v>400.97</v>
       </c>
       <c r="C146" t="n">
-        <v>464.02</v>
+        <v>430.93</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3029,10 +3069,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>395.74</v>
+        <v>400.57</v>
       </c>
       <c r="C147" t="n">
-        <v>440.63</v>
+        <v>431.81</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3047,10 +3087,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>395.47</v>
+        <v>397.13</v>
       </c>
       <c r="C148" t="n">
-        <v>437.43</v>
+        <v>440.85</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3065,10 +3105,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>399.57</v>
+        <v>397.52</v>
       </c>
       <c r="C149" t="n">
-        <v>425.72</v>
+        <v>431.58</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3083,10 +3123,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>398.45</v>
+        <v>397.83</v>
       </c>
       <c r="C150" t="n">
-        <v>424.41</v>
+        <v>429.19</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3101,10 +3141,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>392.56</v>
+        <v>396.51</v>
       </c>
       <c r="C151" t="n">
-        <v>422.02</v>
+        <v>427.39</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3119,10 +3159,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>400.09</v>
+        <v>397.23</v>
       </c>
       <c r="C152" t="n">
-        <v>420.73</v>
+        <v>426.06</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3137,10 +3177,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>412.11</v>
+        <v>400.56</v>
       </c>
       <c r="C153" t="n">
-        <v>448.57</v>
+        <v>428.29</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3155,10 +3195,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>384.59</v>
+        <v>398.35</v>
       </c>
       <c r="C154" t="n">
-        <v>417.21</v>
+        <v>432.89</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3173,10 +3213,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>398.51</v>
+        <v>398.4</v>
       </c>
       <c r="C155" t="n">
-        <v>436.12</v>
+        <v>433.97</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3191,10 +3231,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>390.14</v>
+        <v>391.08</v>
       </c>
       <c r="C156" t="n">
-        <v>425.31</v>
+        <v>426.21</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3209,10 +3249,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>400.69</v>
+        <v>393.48</v>
       </c>
       <c r="C157" t="n">
-        <v>428.82</v>
+        <v>426.87</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3227,10 +3267,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>391.31</v>
+        <v>395.16</v>
       </c>
       <c r="C158" t="n">
-        <v>417.43</v>
+        <v>426.92</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3245,10 +3285,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>391.89</v>
+        <v>393.51</v>
       </c>
       <c r="C159" t="n">
-        <v>454.63</v>
+        <v>431.55</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3263,10 +3303,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>394.27</v>
+        <v>394.54</v>
       </c>
       <c r="C160" t="n">
-        <v>421.23</v>
+        <v>430.53</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3281,10 +3321,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>395.58</v>
+        <v>394.75</v>
       </c>
       <c r="C161" t="n">
-        <v>439.3</v>
+        <v>432.28</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3299,10 +3339,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>380.31</v>
+        <v>392.34</v>
       </c>
       <c r="C162" t="n">
-        <v>436.47</v>
+        <v>432.98</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3317,10 +3357,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>393.3</v>
+        <v>391.07</v>
       </c>
       <c r="C163" t="n">
-        <v>438.9</v>
+        <v>438.11</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3335,10 +3375,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>399.05</v>
+        <v>392.4</v>
       </c>
       <c r="C164" t="n">
-        <v>439.49</v>
+        <v>438.34</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3353,10 +3393,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>398.28</v>
+        <v>396.88</v>
       </c>
       <c r="C165" t="n">
-        <v>451.73</v>
+        <v>443.37</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3371,10 +3411,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>389.74</v>
+        <v>395.09</v>
       </c>
       <c r="C166" t="n">
-        <v>436.36</v>
+        <v>441.62</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3389,10 +3429,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>394.73</v>
+        <v>395.45</v>
       </c>
       <c r="C167" t="n">
-        <v>445.1</v>
+        <v>443.17</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3407,10 +3447,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>388.21</v>
+        <v>392.74</v>
       </c>
       <c r="C168" t="n">
-        <v>418.16</v>
+        <v>437.84</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3425,10 +3465,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>394.98</v>
+        <v>393.19</v>
       </c>
       <c r="C169" t="n">
-        <v>424.8</v>
+        <v>435.23</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3443,10 +3483,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>398.59</v>
+        <v>394.09</v>
       </c>
       <c r="C170" t="n">
-        <v>439.41</v>
+        <v>435.93</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3461,10 +3501,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>393.07</v>
+        <v>393.94</v>
       </c>
       <c r="C171" t="n">
-        <v>425.83</v>
+        <v>434.48</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3479,10 +3519,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>403.79</v>
+        <v>395.73</v>
       </c>
       <c r="C172" t="n">
-        <v>456.43</v>
+        <v>432.93</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3497,10 +3537,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>401.23</v>
+        <v>398.33</v>
       </c>
       <c r="C173" t="n">
-        <v>446.67</v>
+        <v>438.63</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3515,9 +3555,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>379.33</v>
-      </c>
-      <c r="C174" t="inlineStr"/>
+        <v>395.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>442.09</v>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3531,10 +3573,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>403.56</v>
+        <v>396.98</v>
       </c>
       <c r="C175" t="n">
-        <v>443.44</v>
+        <v>448.85</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3549,10 +3591,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>393.86</v>
+        <v>394.5</v>
       </c>
       <c r="C176" t="n">
-        <v>444.31</v>
+        <v>444.81</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3567,10 +3609,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>388.07</v>
+        <v>391.2</v>
       </c>
       <c r="C177" t="n">
-        <v>411.58</v>
+        <v>433.11</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3585,10 +3627,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>380.55</v>
+        <v>391.51</v>
       </c>
       <c r="C178" t="n">
-        <v>450.34</v>
+        <v>437.42</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3603,10 +3645,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>384.87</v>
+        <v>390.18</v>
       </c>
       <c r="C179" t="n">
-        <v>413.16</v>
+        <v>432.57</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3621,10 +3663,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>398.65</v>
+        <v>389.2</v>
       </c>
       <c r="C180" t="n">
-        <v>435.75</v>
+        <v>431.03</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3639,10 +3681,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>406.69</v>
+        <v>392.12</v>
       </c>
       <c r="C181" t="n">
-        <v>461.7</v>
+        <v>436.14</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3657,10 +3699,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>402.92</v>
+        <v>393.62</v>
       </c>
       <c r="C182" t="n">
-        <v>460.98</v>
+        <v>438.92</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3674,9 +3716,11 @@
           <t>2018-05-25 22:16:28+00:00</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>393.62</v>
+      </c>
       <c r="C183" t="n">
-        <v>450.09</v>
+        <v>440.51</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3691,10 +3735,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>404.55</v>
+        <v>395.19</v>
       </c>
       <c r="C184" t="n">
-        <v>446.23</v>
+        <v>441.23</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3709,10 +3753,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>402.12</v>
+        <v>397.19</v>
       </c>
       <c r="C185" t="n">
-        <v>444.1</v>
+        <v>445.29</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3727,10 +3771,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>408.42</v>
+        <v>398.6</v>
       </c>
       <c r="C186" t="n">
-        <v>418.83</v>
+        <v>442.35</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3745,10 +3789,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>396.97</v>
+        <v>403.01</v>
       </c>
       <c r="C187" t="n">
-        <v>447.73</v>
+        <v>441.4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3763,10 +3807,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>396.66</v>
+        <v>401.74</v>
       </c>
       <c r="C188" t="n">
-        <v>445.26</v>
+        <v>440.43</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3781,10 +3825,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>389.19</v>
+        <v>398.67</v>
       </c>
       <c r="C189" t="n">
-        <v>424.9</v>
+        <v>436.16</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3799,10 +3843,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>393.27</v>
+        <v>394.02</v>
       </c>
       <c r="C190" t="n">
-        <v>423.56</v>
+        <v>435.36</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3817,10 +3861,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>397.67</v>
+        <v>394.75</v>
       </c>
       <c r="C191" t="n">
-        <v>436.02</v>
+        <v>435.49</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3835,10 +3879,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>398.09</v>
+        <v>395.31</v>
       </c>
       <c r="C192" t="n">
-        <v>427.08</v>
+        <v>434.09</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3853,10 +3897,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>402.44</v>
+        <v>396.33</v>
       </c>
       <c r="C193" t="n">
-        <v>435.85</v>
+        <v>434.34</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3871,10 +3915,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>398.8</v>
+        <v>396.59</v>
       </c>
       <c r="C194" t="n">
-        <v>455.28</v>
+        <v>435.42</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3889,10 +3933,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>397.45</v>
+        <v>396.7</v>
       </c>
       <c r="C195" t="n">
-        <v>444.93</v>
+        <v>435.37</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3907,10 +3951,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>396.28</v>
+        <v>397.71</v>
       </c>
       <c r="C196" t="n">
-        <v>437.6</v>
+        <v>437.19</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3925,10 +3969,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>394.99</v>
+        <v>396.88</v>
       </c>
       <c r="C197" t="n">
-        <v>453.25</v>
+        <v>447.76</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3943,10 +3987,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>401.4</v>
+        <v>397.53</v>
       </c>
       <c r="C198" t="n">
-        <v>437.44</v>
+        <v>443.31</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3961,10 +4005,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>392.9</v>
+        <v>396.6</v>
       </c>
       <c r="C199" t="n">
-        <v>442.05</v>
+        <v>443.05</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3979,10 +4023,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>390.54</v>
+        <v>394.96</v>
       </c>
       <c r="C200" t="n">
-        <v>413.56</v>
+        <v>436.57</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3997,10 +4041,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>393.5</v>
+        <v>394.67</v>
       </c>
       <c r="C201" t="n">
-        <v>427.83</v>
+        <v>434.83</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4015,10 +4059,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>386.86</v>
+        <v>393.37</v>
       </c>
       <c r="C202" t="n">
-        <v>434.67</v>
+        <v>434.8</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4033,10 +4077,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>393.67</v>
+        <v>393.41</v>
       </c>
       <c r="C203" t="n">
-        <v>430.92</v>
+        <v>434.25</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4051,10 +4095,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>397.27</v>
+        <v>393.89</v>
       </c>
       <c r="C204" t="n">
-        <v>417.98</v>
+        <v>432.21</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4069,9 +4113,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>412.48</v>
-      </c>
-      <c r="C205" t="inlineStr"/>
+        <v>395.72</v>
+      </c>
+      <c r="C205" t="n">
+        <v>424.99</v>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>L8</t>
@@ -4085,10 +4131,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>384.02</v>
+        <v>394.05</v>
       </c>
       <c r="C206" t="n">
-        <v>395.19</v>
+        <v>420.03</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4103,10 +4149,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>399.71</v>
+        <v>395.67</v>
       </c>
       <c r="C207" t="n">
-        <v>436.14</v>
+        <v>422.98</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4121,10 +4167,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>394.51</v>
+        <v>392.75</v>
       </c>
       <c r="C208" t="n">
-        <v>443.06</v>
+        <v>424.8</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4139,10 +4185,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>401.6</v>
+        <v>398.06</v>
       </c>
       <c r="C209" t="n">
-        <v>429.64</v>
+        <v>436.35</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4157,10 +4203,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>397.07</v>
+        <v>397.73</v>
       </c>
       <c r="C210" t="n">
-        <v>432.66</v>
+        <v>435.12</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4175,10 +4221,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>398.7</v>
+        <v>397.97</v>
       </c>
       <c r="C211" t="n">
-        <v>441.52</v>
+        <v>436.72</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4193,10 +4239,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>399.47</v>
+        <v>398.27</v>
       </c>
       <c r="C212" t="n">
-        <v>467.59</v>
+        <v>442.89</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4211,10 +4257,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>394.59</v>
+        <v>398.29</v>
       </c>
       <c r="C213" t="n">
-        <v>428.88</v>
+        <v>440.06</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4229,10 +4275,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>395.28</v>
+        <v>397.02</v>
       </c>
       <c r="C214" t="n">
-        <v>432.4</v>
+        <v>440.61</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4247,10 +4293,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>396.6</v>
+        <v>396.49</v>
       </c>
       <c r="C215" t="n">
-        <v>425.22</v>
+        <v>438.52</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4265,10 +4311,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>391.83</v>
+        <v>394.57</v>
       </c>
       <c r="C216" t="n">
-        <v>441.21</v>
+        <v>431.93</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4283,10 +4329,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>383.5</v>
+        <v>392.36</v>
       </c>
       <c r="C217" t="n">
-        <v>433.88</v>
+        <v>432.32</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4301,10 +4347,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>395.6</v>
+        <v>392.56</v>
       </c>
       <c r="C218" t="n">
-        <v>429.81</v>
+        <v>432.5</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4319,10 +4365,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>376.62</v>
+        <v>389.9</v>
       </c>
       <c r="C219" t="n">
-        <v>424.23</v>
+        <v>431.12</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4337,10 +4383,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>398.77</v>
+        <v>390.49</v>
       </c>
       <c r="C220" t="n">
-        <v>436.59</v>
+        <v>431.82</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4355,10 +4401,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>403.45</v>
+        <v>392.34</v>
       </c>
       <c r="C221" t="n">
-        <v>412.83</v>
+        <v>429.11</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4373,10 +4419,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>396.36</v>
+        <v>392.84</v>
       </c>
       <c r="C222" t="n">
-        <v>438.12</v>
+        <v>430.24</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4391,10 +4437,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>400.5</v>
+        <v>393.33</v>
       </c>
       <c r="C223" t="n">
-        <v>432.53</v>
+        <v>431.15</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4409,10 +4455,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>399.34</v>
+        <v>394.27</v>
       </c>
       <c r="C224" t="n">
-        <v>430.51</v>
+        <v>429.81</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4427,10 +4473,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>398.42</v>
+        <v>396.13</v>
       </c>
       <c r="C225" t="n">
-        <v>454.04</v>
+        <v>432.33</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4445,10 +4491,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>403.19</v>
+        <v>397.08</v>
       </c>
       <c r="C226" t="n">
-        <v>417.02</v>
+        <v>430.73</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4463,10 +4509,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>395.67</v>
+        <v>399.46</v>
       </c>
       <c r="C227" t="n">
-        <v>452.73</v>
+        <v>434.3</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4481,10 +4527,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>395.48</v>
+        <v>398.19</v>
       </c>
       <c r="C228" t="n">
-        <v>427.93</v>
+        <v>437.93</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4499,10 +4545,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>378.2</v>
+        <v>394.19</v>
       </c>
       <c r="C229" t="n">
-        <v>416.33</v>
+        <v>433.61</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4517,10 +4563,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>395.98</v>
+        <v>393.7</v>
       </c>
       <c r="C230" t="n">
-        <v>433.06</v>
+        <v>429.41</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4535,10 +4581,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>393.42</v>
+        <v>393.66</v>
       </c>
       <c r="C231" t="n">
-        <v>426.88</v>
+        <v>428.99</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4553,10 +4599,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>396.6</v>
+        <v>394.08</v>
       </c>
       <c r="C232" t="n">
-        <v>459.67</v>
+        <v>433.37</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4571,10 +4617,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>393.27</v>
+        <v>393.98</v>
       </c>
       <c r="C233" t="n">
-        <v>398.41</v>
+        <v>429</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4589,10 +4635,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>396.34</v>
+        <v>393.12</v>
       </c>
       <c r="C234" t="n">
-        <v>405.2</v>
+        <v>427.53</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4607,10 +4653,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>396.39</v>
+        <v>393.48</v>
       </c>
       <c r="C235" t="n">
-        <v>405.61</v>
+        <v>425.09</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4625,10 +4671,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>395.38</v>
+        <v>393.67</v>
       </c>
       <c r="C236" t="n">
-        <v>441.31</v>
+        <v>426.71</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4643,10 +4689,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>398.21</v>
+        <v>393.93</v>
       </c>
       <c r="C237" t="n">
-        <v>463.04</v>
+        <v>427.74</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4661,10 +4707,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>397.16</v>
+        <v>394.22</v>
       </c>
       <c r="C238" t="n">
-        <v>431.75</v>
+        <v>428.11</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4679,10 +4725,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>403.04</v>
+        <v>394.96</v>
       </c>
       <c r="C239" t="n">
-        <v>409.61</v>
+        <v>426.57</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4697,10 +4743,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>397.05</v>
+        <v>395.12</v>
       </c>
       <c r="C240" t="n">
-        <v>441.64</v>
+        <v>427.73</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4715,10 +4761,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>398.74</v>
+        <v>395.37</v>
       </c>
       <c r="C241" t="n">
-        <v>454.91</v>
+        <v>429.8</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4733,10 +4779,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>413.09</v>
+        <v>399.49</v>
       </c>
       <c r="C242" t="n">
-        <v>419.47</v>
+        <v>430.28</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4751,10 +4797,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>399.73</v>
+        <v>399.87</v>
       </c>
       <c r="C243" t="n">
-        <v>425.62</v>
+        <v>432.55</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4769,10 +4815,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>396.1</v>
+        <v>400.39</v>
       </c>
       <c r="C244" t="n">
-        <v>413.21</v>
+        <v>432.41</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4787,10 +4833,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>395.28</v>
+        <v>399.82</v>
       </c>
       <c r="C245" t="n">
-        <v>442.93</v>
+        <v>433.58</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4805,10 +4851,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>394.63</v>
+        <v>399.3</v>
       </c>
       <c r="C246" t="n">
-        <v>475.63</v>
+        <v>437.78</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4823,10 +4869,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>394.03</v>
+        <v>398.88</v>
       </c>
       <c r="C247" t="n">
-        <v>431.8</v>
+        <v>434.66</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4841,10 +4887,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>390.28</v>
+        <v>397.73</v>
       </c>
       <c r="C248" t="n">
-        <v>403.23</v>
+        <v>433.35</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4859,10 +4905,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>391.62</v>
+        <v>396.85</v>
       </c>
       <c r="C249" t="n">
-        <v>432.98</v>
+        <v>430.61</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4877,10 +4923,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>396.6</v>
+        <v>396.82</v>
       </c>
       <c r="C250" t="n">
-        <v>434.63</v>
+        <v>431.06</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4895,10 +4941,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>392.15</v>
+        <v>393.84</v>
       </c>
       <c r="C251" t="n">
-        <v>411.44</v>
+        <v>430.73</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4913,10 +4959,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>395.11</v>
+        <v>393.98</v>
       </c>
       <c r="C252" t="n">
-        <v>414.11</v>
+        <v>428.88</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4931,10 +4977,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>400.18</v>
+        <v>394.43</v>
       </c>
       <c r="C253" t="n">
-        <v>445.73</v>
+        <v>432.5</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4949,10 +4995,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>398.15</v>
+        <v>394.75</v>
       </c>
       <c r="C254" t="n">
-        <v>442.31</v>
+        <v>432.43</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4967,10 +5013,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>402.69</v>
+        <v>395.54</v>
       </c>
       <c r="C255" t="n">
-        <v>443.06</v>
+        <v>433.49</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4985,10 +5031,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>396.82</v>
+        <v>395.76</v>
       </c>
       <c r="C256" t="n">
-        <v>421.03</v>
+        <v>428.03</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5003,10 +5049,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>394.45</v>
+        <v>395.8</v>
       </c>
       <c r="C257" t="n">
-        <v>447.52</v>
+        <v>429.6</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5021,10 +5067,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>395.98</v>
+        <v>395.82</v>
       </c>
       <c r="C258" t="n">
-        <v>421.28</v>
+        <v>428.85</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5039,10 +5085,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>398.49</v>
+        <v>396.04</v>
       </c>
       <c r="C259" t="n">
-        <v>425.17</v>
+        <v>428.54</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5057,10 +5103,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>404.24</v>
+        <v>397.21</v>
       </c>
       <c r="C260" t="n">
-        <v>440.19</v>
+        <v>431.62</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5075,10 +5121,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>400.41</v>
+        <v>397.94</v>
       </c>
       <c r="C261" t="n">
-        <v>465.84</v>
+        <v>434.36</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5093,10 +5139,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>399.63</v>
+        <v>398.19</v>
       </c>
       <c r="C262" t="n">
-        <v>434.25</v>
+        <v>434.33</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5111,10 +5157,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>400.66</v>
+        <v>398.38</v>
       </c>
       <c r="C263" t="n">
-        <v>466.85</v>
+        <v>436.83</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5129,10 +5175,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>393.76</v>
+        <v>398.27</v>
       </c>
       <c r="C264" t="n">
-        <v>417.19</v>
+        <v>437.7</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5147,10 +5193,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>383.72</v>
+        <v>397.11</v>
       </c>
       <c r="C265" t="n">
-        <v>425.82</v>
+        <v>437.07</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5165,10 +5211,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>389.03</v>
+        <v>394.54</v>
       </c>
       <c r="C266" t="n">
-        <v>404.38</v>
+        <v>435.72</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5183,9 +5229,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>401.59</v>
-      </c>
-      <c r="C267" t="inlineStr"/>
+        <v>392.02</v>
+      </c>
+      <c r="C267" t="n">
+        <v>415.8</v>
+      </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>L8</t>
@@ -5198,9 +5246,11 @@
           <t>2025-03-17 22:17:32+00:00</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr"/>
+      <c r="B268" t="n">
+        <v>392.02</v>
+      </c>
       <c r="C268" t="n">
-        <v>421.78</v>
+        <v>417.29</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5215,10 +5265,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>376.02</v>
+        <v>388.82</v>
       </c>
       <c r="C269" t="n">
-        <v>406.22</v>
+        <v>415.08</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5233,10 +5283,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>400.18</v>
+        <v>390.11</v>
       </c>
       <c r="C270" t="n">
-        <v>443.13</v>
+        <v>420.27</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5251,9 +5301,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>393.67</v>
-      </c>
-      <c r="C271" t="inlineStr"/>
+        <v>390.7</v>
+      </c>
+      <c r="C271" t="n">
+        <v>420.27</v>
+      </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>L8</t>
@@ -5267,10 +5319,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>398.02</v>
+        <v>393.08</v>
       </c>
       <c r="C272" t="n">
-        <v>449.62</v>
+        <v>425.03</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5285,10 +5337,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>400.03</v>
+        <v>394.08</v>
       </c>
       <c r="C273" t="n">
-        <v>458.19</v>
+        <v>430.55</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5303,10 +5355,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>401.87</v>
+        <v>395.91</v>
       </c>
       <c r="C274" t="n">
-        <v>426.74</v>
+        <v>434.28</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5321,10 +5373,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>399.98</v>
+        <v>396.42</v>
       </c>
       <c r="C275" t="n">
-        <v>438.62</v>
+        <v>434.9</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5339,10 +5391,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>393.15</v>
+        <v>396.06</v>
       </c>
       <c r="C276" t="n">
-        <v>435.52</v>
+        <v>434.98</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5357,10 +5409,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>391.47</v>
+        <v>395.6</v>
       </c>
       <c r="C277" t="n">
-        <v>399.62</v>
+        <v>431.05</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5375,10 +5427,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>396.29</v>
+        <v>397.18</v>
       </c>
       <c r="C278" t="n">
-        <v>442.94</v>
+        <v>436.8</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5393,10 +5445,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>393.09</v>
+        <v>396.4</v>
       </c>
       <c r="C279" t="n">
-        <v>412.94</v>
+        <v>433.02</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -8556,28 +8608,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03845748455697224</v>
+        <v>-0.07038721587968715</v>
       </c>
       <c r="J2" t="n">
         <v>278</v>
       </c>
       <c r="K2" t="n">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00179186909478557</v>
+        <v>0.03158270296971255</v>
       </c>
       <c r="M2" t="n">
-        <v>5.123398449484832</v>
+        <v>2.367760984724699</v>
       </c>
       <c r="N2" t="n">
-        <v>48.89799322391227</v>
+        <v>9.028196993230647</v>
       </c>
       <c r="O2" t="n">
-        <v>6.99271000570682</v>
+        <v>3.004695823745001</v>
       </c>
       <c r="P2" t="n">
-        <v>396.8789291880128</v>
+        <v>396.9541755407337</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8634,28 +8686,28 @@
         <v>0.026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3189844425949681</v>
+        <v>0.262909635472747</v>
       </c>
       <c r="J3" t="n">
         <v>278</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0199113483348875</v>
+        <v>0.07550431705909233</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4007828463727</v>
+        <v>5.347671090633647</v>
       </c>
       <c r="N3" t="n">
-        <v>290.4356275693349</v>
+        <v>49.03247805079945</v>
       </c>
       <c r="O3" t="n">
-        <v>17.04217203203086</v>
+        <v>7.002319476487734</v>
       </c>
       <c r="P3" t="n">
-        <v>425.6627528482952</v>
+        <v>426.1378193887199</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8749,7 +8801,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.725663228720386,173.09389827100478</t>
+          <t>-34.72569955741715,173.0938994573821</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -8767,7 +8819,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.725675939256995,173.09389868608952</t>
+          <t>-34.72566953891587,173.09389847707521</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -8785,7 +8837,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.72565114920329,173.0938978765272</t>
+          <t>-34.725663589302975,173.09389828278023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8807,12 +8859,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.725706678923444,173.0938996899475</t>
+          <t>-34.725677922461294,173.09389875085452</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.72544052824877,173.09478962992225</t>
+          <t>-34.72532541226827,173.09478586982937</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8829,12 +8881,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72569991799975,173.09389946915755</t>
+          <t>-34.72568342134591,173.09389893043024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.72550732616592,173.09479181178216</t>
+          <t>-34.725385990137696,173.09478784851433</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8851,12 +8903,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.72571280882757,173.09389989013042</t>
+          <t>-34.72569261620215,173.09389923070447</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.72497979387594,173.09477458078234</t>
+          <t>-34.725284486147785,173.09478453304095</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8873,12 +8925,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72568792862838,173.09389907762346</t>
+          <t>-34.725701811058386,173.09389953097875</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.72532306848164,173.09478579327316</t>
+          <t>-34.72531270173308,173.09478545465927</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8895,12 +8947,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72567747173305,173.0938987361352</t>
+          <t>-34.72569450926079,173.09389929252563</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.72537922921481,173.09478762767878</t>
+          <t>-34.72529737697431,173.0947849540997</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8917,12 +8969,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.72565989333135,173.09389816208184</t>
+          <t>-34.72567512794616,173.09389865959474</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.72545107528837,173.0947899744262</t>
+          <t>-34.725384457661846,173.09478779845827</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8939,10 +8991,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.725624105508224,173.09389699336887</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>-34.72566232726389,173.09389824156614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-34.725384457661846,173.09478779845827</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8957,12 +9013,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72564772366858,173.09389776466045</t>
+          <t>-34.725659442603096,173.09389814736255</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.725004403636966,173.0947753846158</t>
+          <t>-34.725289444158,173.0947846949866</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -8979,12 +9035,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.725746433154576,173.09390098819316</t>
+          <t>-34.72567395605271,173.0938986213245</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.72536129023269,173.09478704172875</t>
+          <t>-34.72530377731474,173.09478516315693</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9001,12 +9057,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.725652140805444,173.09389790890967</t>
+          <t>-34.72566602323552,173.09389836226453</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.72532784620054,173.09478594933006</t>
+          <t>-34.72528610876931,173.09478458604136</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -9023,12 +9079,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.72562699016903,173.09389708757237</t>
+          <t>-34.72565953274874,173.0938981503064</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.72556763359652,173.09479378164264</t>
+          <t>-34.725342449794105,173.09478642633422</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9045,12 +9101,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.72577645165546,173.0939019685019</t>
+          <t>-34.725689911832674,173.09389914238852</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.72552535529322,173.09479240067887</t>
+          <t>-34.72535732382457,173.09478691217197</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9067,12 +9123,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72585722215554,173.09390460621327</t>
+          <t>-34.7257318295595,173.09390051128642</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.725853034672056,173.0948031039224</t>
+          <t>-34.72552706806032,173.09479245662405</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -9089,12 +9145,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.72572633067493,173.09390033171047</t>
+          <t>-34.72572786315095,173.09390038175624</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.72536426503877,173.09478713889632</t>
+          <t>-34.72552760893413,173.09479247429095</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -9111,12 +9167,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.725653853572794,173.09389796484305</t>
+          <t>-34.72572813358789,173.09390039058783</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.7254085265473,173.094788584633</t>
+          <t>-34.725543745003016,173.09479300135376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9133,12 +9189,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.72561202599104,173.09389659889166</t>
+          <t>-34.72566404003124,173.09389829749952</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.725503089321,173.09479167339148</t>
+          <t>-34.72542529363597,173.09478913230555</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -9155,12 +9211,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.72569369794995,173.09389926603086</t>
+          <t>-34.72565286197064,173.09389793246058</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.72518496536018,173.09478128235406</t>
+          <t>-34.7253440724156,173.0947864793347</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -9177,12 +9233,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.72577627136417,173.09390196261415</t>
+          <t>-34.7256939683869,173.09389927486242</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.72545711504608,173.09479017170628</t>
+          <t>-34.725381753292694,173.09478771012405</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9199,12 +9255,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.725576418458935,173.09389543606775</t>
+          <t>-34.725682159306814,173.09389888921612</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.725265555563325,173.09478391470316</t>
+          <t>-34.725302515275786,173.09478512193436</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9221,12 +9277,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.72566539221598,173.09389834165748</t>
+          <t>-34.72567269401361,173.09389858011042</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.725412042227184,173.09478869946756</t>
+          <t>-34.72537823761278,173.0947875952896</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -9243,10 +9299,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.725707039506034,173.09389970172296</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>-34.725649616727246,173.0938978264815</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-34.725338843968544,173.0947863085554</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9261,12 +9321,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72575193203913,173.09390116776916</t>
+          <t>-34.725708121253824,173.09389973704938</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.72544079868569,173.09478963875566</t>
+          <t>-34.725426465529274,173.09478917058377</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -9283,12 +9343,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.72567359547009,173.09389860954906</t>
+          <t>-34.7257108256233,173.09389982536536</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.72548884631038,173.09479120816331</t>
+          <t>-34.725464867570906,173.0947904249315</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -9305,12 +9365,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-34.72566926847892,173.09389846824362</t>
+          <t>-34.725698295378066,173.09389941616797</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.725333885958385,173.09478614660955</t>
+          <t>-34.725421146936625,173.09478899685965</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9325,10 +9385,14 @@
           <t>2004-03-23 22:06:52+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-34.725698295378066,173.09389941616797</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.725407354653996,173.0947885463548</t>
+          <t>-34.72541772140239,173.09478888496955</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -9345,12 +9409,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-34.72567368561575,173.09389861249292</t>
+          <t>-34.725692075328254,173.09389921304125</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.72524346988137,173.0947831933094</t>
+          <t>-34.72538283504035,173.09478774545775</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9367,12 +9431,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72567756187869,173.09389873907907</t>
+          <t>-34.72567350532445,173.0938986066052</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.725460270143394,173.09479027476303</t>
+          <t>-34.72538680144845,173.09478787501462</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9389,12 +9453,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72563167774286,173.09389724065312</t>
+          <t>-34.72566512177902,173.09389833282592</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.725156659628624,173.09478035779424</t>
+          <t>-34.7253483994063,173.0947866206693</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -9409,10 +9473,14 @@
           <t>2004-06-03 21:58:42+00:00</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-34.72566512177902,173.09389833282592</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.72512483821684,173.09477931840132</t>
+          <t>-34.72531648784994,173.09478557832693</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -9429,12 +9497,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.725749407960976,173.09390108534083</t>
+          <t>-34.72567918450038,173.09389879206864</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.725331632317385,173.09478607299778</t>
+          <t>-34.72531838090838,173.09478564016078</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -9449,10 +9517,14 @@
           <t>2004-07-13 22:06:34+00:00</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-34.72567918450038,173.09389879206864</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.72522940716137,173.0947827339732</t>
+          <t>-34.72530846488802,173.09478531626925</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -9469,12 +9541,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.725557578017806,173.09389482080186</t>
+          <t>-34.72566178638999,173.09389822390298</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.72565759894025,173.0947967202442</t>
+          <t>-34.72534344139614,173.0947864587234</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -9491,12 +9563,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72569063299787,173.09389916593943</t>
+          <t>-34.725664220322535,173.09389830338728</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.72564876466808,173.09479643168382</t>
+          <t>-34.725359397174266,173.09478697989482</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -9513,12 +9585,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72571118620589,173.0938998371408</t>
+          <t>-34.72567007978977,173.09389849473837</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.72552499471068,173.0947923889009</t>
+          <t>-34.725374451495945,173.09478747162171</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -9535,12 +9607,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.725733902909404,173.0939005789954</t>
+          <t>-34.725678823917775,173.0938987802932</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.72542754727692,173.0947892059175</t>
+          <t>-34.725395725866655,173.09478816651753</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -9557,12 +9629,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72567711115043,173.09389872435975</t>
+          <t>-34.725678823917775,173.0938987802932</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.72558629374309,173.09479439115162</t>
+          <t>-34.725409788586234,173.09478862585564</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -9579,12 +9651,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.72576960058621,173.09390174476772</t>
+          <t>-34.72569847566937,173.0938994220557</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.72520984555725,173.094782095025</t>
+          <t>-34.72545197674475,173.09479000387097</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -9601,12 +9673,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.725636455462315,173.09389739667776</t>
+          <t>-34.725682339598116,173.09389889510388</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.72522733381164,173.09478266625058</t>
+          <t>-34.72546892412458,173.0947905574331</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -9623,12 +9695,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-34.72573110839431,173.09390048773548</t>
+          <t>-34.72568846950229,173.09389909528667</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.72539806965326,173.09478824307388</t>
+          <t>-34.72546008985211,173.0947902688741</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -9643,10 +9715,14 @@
           <t>2005-02-06 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-34.72570712965168,173.09389970466685</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.725587826218884,173.09479444120794</t>
+          <t>-34.7254513457253,173.09478998325963</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -9663,12 +9739,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-34.72567296445056,173.093898588942</t>
+          <t>-34.725702892806176,173.09389956630514</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.72543124324809,173.09478932664103</t>
+          <t>-34.72544909208435,173.0947899096477</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -9685,12 +9761,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.725643576968686,173.09389762924278</t>
+          <t>-34.725694959989035,173.09389930724495</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.7254425114528,173.09478969470075</t>
+          <t>-34.72541384513995,173.09478875835708</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -9707,12 +9783,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72564069230788,173.09389753503922</t>
+          <t>-34.72568819906534,173.09389908645508</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.72506335888821,173.09477731028477</t>
+          <t>-34.72537490222413,173.09478748634407</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9729,12 +9805,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.72562608871252,173.0938970581338</t>
+          <t>-34.72568125785032,173.0938988597775</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.72530116309119,173.09478507776734</t>
+          <t>-34.72536751028177,173.09478724489733</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9749,10 +9825,14 @@
           <t>2005-05-29 22:07:09+00:00</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-34.7256743166353,173.09389863309997</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.725580794859326,173.09479421153785</t>
+          <t>-34.72536020848502,173.09478700639508</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9769,12 +9849,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-34.72568161843292,173.09389887155297</t>
+          <t>-34.72566178638999,173.09389822390298</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.725358856300424,173.09478696222797</t>
+          <t>-34.72537679528256,173.09478754817803</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9791,10 +9871,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.7255408109266,173.09389427324493</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>-34.72564664192079,173.0938977293341</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-34.72537679528256,173.09478754817803</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9809,12 +9893,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.725647182794695,173.09389774699727</t>
+          <t>-34.72563609487972,173.0938973849023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.725353357416445,173.09478678261522</t>
+          <t>-34.725389866400164,173.0947879751267</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9831,12 +9915,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.725688920230525,173.093899110006</t>
+          <t>-34.725638438666635,173.0938974614427</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.7253332549389,173.09478612599824</t>
+          <t>-34.72534758809555,173.09478659416905</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9853,12 +9937,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72568315090897,173.09389892159865</t>
+          <t>-34.72564402769694,173.09389764396212</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.72534145819209,173.09478639394504</t>
+          <t>-34.72533316479327,173.09478612305378</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9875,12 +9959,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.72573543538546,173.09390062904114</t>
+          <t>-34.72565547619449,173.09389801783257</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.725513185632295,173.09479200317358</t>
+          <t>-34.72535570120307,173.09478685917148</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9897,12 +9981,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.725638528812276,173.09389746438657</t>
+          <t>-34.72565358313584,173.09389795601146</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.7251660347754,173.0947806640178</t>
+          <t>-34.725334607123486,173.0947861701653</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -9919,12 +10003,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72554423646136,173.09389438511138</t>
+          <t>-34.72565628750534,173.09389804432732</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.72525446764953,173.094783552534</t>
+          <t>-34.72532694474413,173.09478591988537</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -9941,12 +10025,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.72587651332393,173.09390523620314</t>
+          <t>-34.72569450926079,173.09389929252563</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.725321175423204,173.09478573143932</t>
+          <t>-34.72532162615142,173.09478574616168</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -9963,12 +10047,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72567197284841,173.0938985565595</t>
+          <t>-34.72569126401742,173.09389918654648</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.725373640185204,173.09478744512148</t>
+          <t>-34.725329018093845,173.09478598760816</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -9985,12 +10069,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.72570929314727,173.09389977531964</t>
+          <t>-34.72569351765865,173.0938992601431</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.72540077402242,173.09478833140813</t>
+          <t>-34.725338032657795,173.09478628205517</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10007,12 +10091,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.72571975004256,173.09390011680816</t>
+          <t>-34.725699377125856,173.09389945149437</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.7255208480114,173.09479225345464</t>
+          <t>-34.72536426503877,173.09478713889632</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10029,12 +10113,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72568792862838,173.09389907762346</t>
+          <t>-34.72570163076709,173.093899525091</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.725783712681235,173.09480083959755</t>
+          <t>-34.725442421307164,173.09478969175626</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10051,12 +10135,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.72567053051801,173.0938985094577</t>
+          <t>-34.72569721363027,173.0938993808416</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.72536101979576,173.0947870328953</t>
+          <t>-34.725430792519894,173.09478931191865</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10073,12 +10157,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.72566971920717,173.0938984829629</t>
+          <t>-34.72569369794995,173.09389926603086</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.72533352537581,173.09478613483168</t>
+          <t>-34.72541862285877,173.0947889144143</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10095,12 +10179,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.72564727294035,173.0938977499411</t>
+          <t>-34.725688559647935,173.09389909823054</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.72539212004112,173.09478804873856</t>
+          <t>-34.72541573819834,173.09478882019107</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -10117,12 +10201,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.725633300364564,173.0938972936426</t>
+          <t>-34.72568306076332,173.0938989186548</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.72527258692327,173.09478414437143</t>
+          <t>-34.725401405041865,173.09478835201946</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -10139,12 +10223,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.72569279649345,173.0938992365922</t>
+          <t>-34.725683962219804,173.09389894809345</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.72563506253163,173.09479598412094</t>
+          <t>-34.725422589266834,173.09478904397128</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -10159,10 +10243,14 @@
           <t>2006-07-03 22:07:28+00:00</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-34.725683962219804,173.09389894809345</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.72529647551792,173.09478492465504</t>
+          <t>-34.725412132372824,173.09478870241205</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -10179,12 +10267,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-34.725669809352816,173.09389848590678</t>
+          <t>-34.72569532057163,173.0938993190204</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.72526203988334,173.09478379986902</t>
+          <t>-34.72541276339229,173.09478872302336</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -10201,12 +10289,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.72562004895396,173.09389686089514</t>
+          <t>-34.725689100521826,173.09389911589372</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.72543331659776,173.09478939436403</t>
+          <t>-34.725414295868134,173.09478877307947</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -10223,10 +10311,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.72565178022284,173.09389789713424</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>-34.72567016993542,173.09389849768223</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-34.725426465529274,173.09478917058377</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>L5</t>
@@ -10241,12 +10333,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.72568955125007,173.09389913061304</t>
+          <t>-34.725668367022415,173.09389843880496</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.725461802619236,173.0947903248192</t>
+          <t>-34.72543205455882,173.09478935314135</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -10263,12 +10355,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.7257692400036,173.09390173299224</t>
+          <t>-34.72567521809181,173.0938986625386</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.72538301533164,173.0947877513467</t>
+          <t>-34.72539202989548,173.09478804579408</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -10285,12 +10377,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.72554432660701,173.09389438805525</t>
+          <t>-34.72565502546624,173.09389800311328</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.725287010225706,173.09478461548602</t>
+          <t>-34.725391308730366,173.0947880222383</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -10307,12 +10399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.725749407960976,173.09390108534083</t>
+          <t>-34.725688108919684,173.09389908351122</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.72545350922059,173.0947900539271</t>
+          <t>-34.72539635688613,173.09478818712887</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -10327,10 +10419,14 @@
           <t>2007-02-28 22:08:05+00:00</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-34.72568765819144,173.09389906879187</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.725658680687864,173.09479675557813</t>
+          <t>-34.72544557640448,173.094789794813</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -10347,12 +10443,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.72577068233398,173.09390178009417</t>
+          <t>-34.72570839169078,173.09389974588095</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.72566372884338,173.09479692046978</t>
+          <t>-34.72548920689293,173.09479121994127</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -10369,12 +10465,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.725601839532516,173.09389626623562</t>
+          <t>-34.725687117317534,173.09389905112872</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.72541663965473,173.09478884963582</t>
+          <t>-34.72547712737756,173.09479082538078</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -10391,12 +10487,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-34.72563438211237,173.09389732896895</t>
+          <t>-34.725689100521826,173.09389911589372</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.72515341438549,173.0947802517938</t>
+          <t>-34.72546919456149,173.09479056626654</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -10413,10 +10509,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-34.72576058602137,173.09390145038066</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>-34.72569189503696,173.09389920715353</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-34.72541123091644,173.09478867296727</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10431,12 +10531,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.72557046884596,173.09389524177325</t>
+          <t>-34.725641864201336,173.09389757330942</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.72517991720425,173.09478111746438</t>
+          <t>-34.7252499603675,173.09478340531078</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10453,12 +10553,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72566007362264,173.09389816796957</t>
+          <t>-34.72564547002734,173.0938976910639</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.72554257310975,173.09479296307543</t>
+          <t>-34.72532315862728,173.09478579621765</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -10475,12 +10575,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72569793479547,173.09389940439252</t>
+          <t>-34.72566467105079,173.09389831810657</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.72520750177057,173.09478201846906</t>
+          <t>-34.7252708741561,173.0947840884266</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -10497,12 +10597,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72573354232682,173.09390056721992</t>
+          <t>-34.72567620969395,173.0938986949211</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.725478659853394,173.09479087543696</t>
+          <t>-34.72531243129616,173.09478544582583</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10519,12 +10619,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72568982168703,173.09389913944466</t>
+          <t>-34.7256854045502,173.09389899519527</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.72544368334609,173.09478973297897</t>
+          <t>-34.72537048508784,173.0947873420649</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -10541,12 +10641,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.725792317289496,173.09390248662336</t>
+          <t>-34.72571470188621,173.0938999519516</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.72580300384651,173.09480146972138</t>
+          <t>-34.72549506635933,173.09479141133258</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -10563,12 +10663,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.72571028474941,173.09389980770217</t>
+          <t>-34.72573146897691,173.09390049951094</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.725386170428976,173.09478785440325</t>
+          <t>-34.72552787937105,173.09479248312442</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -10583,10 +10683,14 @@
           <t>2008-06-22 22:07:15+00:00</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>-34.72573146897691,173.09390049951094</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.725121683119355,173.09477921534543</t>
+          <t>-34.72544665815214,173.09478983014677</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -10603,12 +10707,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72566737542029,173.09389840642248</t>
+          <t>-34.725714972323146,173.09389996078323</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.72527781537041,173.09478431515046</t>
+          <t>-34.725406453197614,173.09478851691009</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -10625,12 +10729,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.72573480436591,173.09390060843407</t>
+          <t>-34.72571893873171,173.09390009031338</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.7255432041292,173.09479298368686</t>
+          <t>-34.72542926004404,173.09478926186256</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -10647,10 +10751,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.725789793211355,173.09390240419495</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>-34.72573074781171,173.09390047596</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-34.72542926004404,173.09478926186256</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10665,12 +10773,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72571307926452,173.093899898962</t>
+          <t>-34.72573462407461,173.09390060254634</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.725541311070835,173.09479292185264</t>
+          <t>-34.72544548625884,173.09478979186852</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -10687,12 +10795,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72568955125007,173.09389913061304</t>
+          <t>-34.72571749640132,173.0939000432115</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.72542385130577,173.09478908519392</t>
+          <t>-34.72538238431216,173.0947877307354</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -10709,12 +10817,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.7257051464474,173.09389963990176</t>
+          <t>-34.72571569348835,173.09389998433417</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.725351193921114,173.0947867119479</t>
+          <t>-34.725377877030226,173.0947875835117</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -10731,12 +10839,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.72564646162949,173.09389772344636</t>
+          <t>-34.725707039506034,173.09389970172296</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.72515873297838,173.09478042551675</t>
+          <t>-34.725350472756,173.09478668839213</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -10753,12 +10861,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.725688289210986,173.09389908939895</t>
+          <t>-34.72570433513657,173.093899613407</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.72534425270691,173.09478648522364</t>
+          <t>-34.72537715586512,173.0947875599559</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -10775,12 +10883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-34.72563357080151,173.0938973024742</t>
+          <t>-34.72569649246509,173.09389935729067</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.725460991308495,173.09479029831888</t>
+          <t>-34.72538770290484,173.09478790445934</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -10795,10 +10903,14 @@
           <t>2009-03-21 22:07:47+00:00</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-34.72567936479168,173.09389879795634</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.72534957129961,173.09478665894744</t>
+          <t>-34.725375713534895,173.09478751284436</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10815,12 +10927,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.72571307926452,173.093899898962</t>
+          <t>-34.72567828304389,173.09389876262998</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.72553013301195,173.0947925567365</t>
+          <t>-34.725421237082266,173.09478899980414</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10837,12 +10949,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.72576220864305,173.09390150337035</t>
+          <t>-34.72573759888102,173.093900699694</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-34.72582085268162,173.0948020527334</t>
+          <t>-34.72567544777581,173.0947973032541</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10859,12 +10971,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.72567215313971,173.09389856244724</t>
+          <t>-34.725715783633994,173.093899987278</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.725126190401475,173.09477936256812</t>
+          <t>-34.72549236199022,173.0947913229981</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -10881,12 +10993,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.72565196051414,173.09389790302194</t>
+          <t>-34.725695410717286,173.0938993219643</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.725286379206224,173.09478459487474</t>
+          <t>-34.7254111407708,173.0947886700228</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -10903,10 +11015,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-34.725867318467984,173.09390493592755</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>-34.72573841019186,173.09390072618882</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>-34.7254111407708,173.0947886700228</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10921,12 +11037,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-34.72564754337729,173.0938977587727</t>
+          <t>-34.725720200770795,173.0939001315275</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.725464236551446,173.09479040432015</t>
+          <t>-34.7254243921796,173.0947891028608</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -10943,12 +11059,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72560093807602,173.093896236797</t>
+          <t>-34.725700368728,173.0938994838769</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.725463605531985,173.09479038370878</t>
+          <t>-34.72543223485009,173.0947893590303</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -10965,12 +11081,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.725652050659804,173.0938979059658</t>
+          <t>-34.725693427513,173.09389925719924</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.72523418488034,173.09478289002973</t>
+          <t>-34.725399241546555,173.09478828135207</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -10987,12 +11103,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72571479203186,173.09389995489548</t>
+          <t>-34.72569613188248,173.0938993455152</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.72517234497033,173.09478087012985</t>
+          <t>-34.72536678911666,173.09478722134153</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -11009,12 +11125,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.725740122959174,173.09390078212232</t>
+          <t>-34.725696402319436,173.0938993543468</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.72566490073662,173.09479695874822</t>
+          <t>-34.725380941981946,173.09478768362382</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -11029,10 +11145,14 @@
           <t>2010-06-12 22:09:43+00:00</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>-34.725696402319436,173.0938993543468</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.725509219224286,173.0947918736163</t>
+          <t>-34.725399241546555,173.09478828135207</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -11049,12 +11169,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-34.72557515641982,173.09389539485377</t>
+          <t>-34.72568125785032,173.0938988597775</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.72529259925539,173.09478479804295</t>
+          <t>-34.72538589999206,173.09478784556984</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -11071,12 +11191,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72563429196672,173.0938973260251</t>
+          <t>-34.72565286197064,173.09389793246058</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.72534632605659,173.09478655294646</t>
+          <t>-34.72538328576855,173.0947877601801</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -11093,10 +11213,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.725781770248695,173.09390214219033</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>-34.72568288047202,173.09389891276706</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>-34.72545323878367,173.09479004509367</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11111,12 +11235,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72582008214896,173.0939033933364</t>
+          <t>-34.72571028474941,173.09389980770217</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.72555230883843,173.09479328107992</t>
+          <t>-34.72547307082389,173.09479069287917</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -11133,12 +11257,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.725770952770915,173.09390178892576</t>
+          <t>-34.72571641465354,173.0939000078851</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.72533262391943,173.09478610538696</t>
+          <t>-34.72540663348889,173.094788522799</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -11155,12 +11279,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.72580926467126,173.09390304007152</t>
+          <t>-34.72576329039083,173.09390153869677</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.72539626674048,173.09478818418438</t>
+          <t>-34.72540690392581,173.09478853163245</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -11177,12 +11301,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.72571118620589,173.0938998371408</t>
+          <t>-34.72575454626295,173.09390125314138</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-34.72526519498076,173.0947839029253</t>
+          <t>-34.7253785080497,173.094787604123</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -11199,12 +11323,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.72577077247963,173.09390178303804</t>
+          <t>-34.72575689004979,173.093901329682</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.725447108880324,173.09478984486913</t>
+          <t>-34.725389956545804,173.0947879780712</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -11221,12 +11345,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.72572506863584,173.09390029049635</t>
+          <t>-34.72576987102315,173.09390175359934</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.725414295868134,173.09478877307947</t>
+          <t>-34.725401314896224,173.09478834907497</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -11243,12 +11367,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.72583784084146,173.09390397327982</t>
+          <t>-34.725778344714065,173.09390203032322</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.72550660500083,173.0947917882263</t>
+          <t>-34.72541636921782,173.0947888408024</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -11265,12 +11389,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.72567404619836,173.09389862426838</t>
+          <t>-34.72576680607111,173.09390165350774</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.72549605796132,173.09479144372187</t>
+          <t>-34.725426285238,173.09478916469482</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11287,12 +11411,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.725703073097485,173.09389957219284</t>
+          <t>-34.725750309417464,173.0939011147795</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.725467752231296,173.09479051915486</t>
+          <t>-34.72541573819834,173.09478882019107</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11309,12 +11433,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.72558786695663,173.0938958099376</t>
+          <t>-34.72571641465354,173.0939000078851</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.725363634019295,173.094787118285</t>
+          <t>-34.72544927237562,173.0947899155366</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -11331,12 +11455,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.725649977309835,173.09389783825696</t>
+          <t>-34.725690542852206,173.09389916299557</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.72538373649674,173.09478777490247</t>
+          <t>-34.725443593200445,173.09478973003448</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -11353,12 +11477,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.725693427513,173.09389925719924</t>
+          <t>-34.72565863129225,173.09389812086775</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.7256530015129,173.094796570075</t>
+          <t>-34.7254670310662,173.09479049559903</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -11375,12 +11499,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.725652952116285,173.0938979354044</t>
+          <t>-34.725657459398796,173.09389808259755</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.725234906045486,173.09478291358542</t>
+          <t>-34.725420606062805,173.0947889791928</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -11397,12 +11521,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.725744720387254,173.09390093225963</t>
+          <t>-34.72567197284841,173.0938985565595</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.72552905126431,173.09479252140272</t>
+          <t>-34.72543872533601,173.09478957103266</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -11419,12 +11543,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.72568306076332,173.0938989186548</t>
+          <t>-34.72568486367631,173.09389897753206</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.72531189042232,173.09478542815904</t>
+          <t>-34.7254224991212,173.0947890410268</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -11441,12 +11565,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.72560914133022,173.09389650468816</t>
+          <t>-34.725672513722316,173.0938985742227</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.72542394145141,173.0947890881384</t>
+          <t>-34.725374992369794,173.09478748928856</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11463,12 +11587,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.725777984131476,173.09390201854774</t>
+          <t>-34.72569009212398,173.09389914827622</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.725655435445034,173.09479664957635</t>
+          <t>-34.725463785823244,173.09479038959776</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -11485,12 +11609,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72567170241147,173.09389854772792</t>
+          <t>-34.7257247981989,173.09390028166473</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.7252386921624,173.09478303725288</t>
+          <t>-34.725447108880324,173.09478984486913</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11507,12 +11631,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.725587145791415,173.09389578638675</t>
+          <t>-34.72562942410159,173.0938971670566</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.72517793400013,173.09478105268627</t>
+          <t>-34.725208313081346,173.0947820449692</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -11529,12 +11653,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.72566115537044,173.09389820329594</t>
+          <t>-34.72563997114267,173.09389751148834</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.72544548625884,173.09478979186852</t>
+          <t>-34.72528737080825,173.09478462726386</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -11551,12 +11675,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.725741475143906,173.09390082628033</t>
+          <t>-34.72566539221598,173.09389834165748</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.725402396643894,173.09478838440867</t>
+          <t>-34.725316127267384,173.09478556654906</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -11573,12 +11697,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.72571686538178,173.09390002260443</t>
+          <t>-34.725676660422195,173.09389870964043</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.72555014534318,173.09479321041223</t>
+          <t>-34.72539401309953,173.09478811057255</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -11595,12 +11719,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.725706228195186,173.09389967522816</t>
+          <t>-34.725682610035065,173.09389890393547</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.72538373649674,173.09478777490247</t>
+          <t>-34.72539193974984,173.09478804284961</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11617,12 +11741,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72566890789631,173.09389845646817</t>
+          <t>-34.72568026624817,173.093898827395</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.72545999970647,173.09479026592962</t>
+          <t>-34.72540329810028,173.09478841385345</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -11639,10 +11763,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.725470136735176,173.09389196526544</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>-34.725650247746785,173.09389784708856</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>-34.72540329810028,173.09478841385345</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11657,10 +11785,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.72566989949846,173.09389848885067</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>-34.725662056826934,173.09389823273455</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>-34.72544837091924,173.09478988609183</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11675,12 +11807,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.725695951591184,173.09389933962748</t>
+          <t>-34.725666293672475,173.09389837109612</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.72544566655011,173.0947897977575</t>
+          <t>-34.72544792019106,173.09478987136944</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -11697,12 +11829,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.72553116534185,173.0938939582526</t>
+          <t>-34.72565132949459,173.09389788241492</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.72541294368356,173.0947887289123</t>
+          <t>-34.72544287203535,173.09478970647865</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -11719,12 +11851,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72560905118458,173.09389650174433</t>
+          <t>-34.72564556017298,173.09389769400775</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.72522273638394,173.094782516083</t>
+          <t>-34.725411050625176,173.09478866707832</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -11741,12 +11873,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.72567999581123,173.0938988185634</t>
+          <t>-34.72563870910358,173.09389747027427</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.725329829404615,173.0947860141084</t>
+          <t>-34.72540068387677,173.09478832846366</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -11763,12 +11895,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.72570983402115,173.09389979298282</t>
+          <t>-34.72564583060993,173.09389770283934</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.72530576051883,173.0947852279352</t>
+          <t>-34.72538887479814,173.0947879427375</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -11785,12 +11917,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.72569721363027,173.0938993808416</t>
+          <t>-34.72565051818374,173.09389785592015</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.72540663348889,173.094788522799</t>
+          <t>-34.72539085800217,173.09478800751592</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -11807,12 +11939,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-34.72561094424324,173.09389656356535</t>
+          <t>-34.725647182794695,173.09389774699727</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.72505939247989,173.09477718072898</t>
+          <t>-34.72535768440713,173.09478692394984</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -11829,12 +11961,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-34.72569432896948,173.09389928663788</t>
+          <t>-34.7256507886207,173.09389786475174</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.72527024313661,173.09478406781534</t>
+          <t>-34.72534975159088,173.09478666483636</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -11851,12 +11983,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-34.72569676290202,173.09389936612226</t>
+          <t>-34.72568179872422,173.09389887744067</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.72529908974146,173.09478501004457</t>
+          <t>-34.72526825993253,173.09478400303712</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -11873,12 +12005,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.72565980318569,173.09389815913798</t>
+          <t>-34.72567828304389,173.09389876262998</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.72540465028486,173.09478845802056</t>
+          <t>-34.72535182494058,173.09478673255921</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -11895,12 +12027,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72566989949846,173.09389848885067</t>
+          <t>-34.72567548852874,173.0938986713702</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.72541645936345,173.09478884374687</t>
+          <t>-34.72537336974829,173.09478743628804</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -11917,12 +12049,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.725722995285906,173.0939002227874</t>
+          <t>-34.72568738775449,173.0938990599603</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.72543800417091,173.09478954747686</t>
+          <t>-34.725389595963236,173.0947879662933</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -11939,12 +12071,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.72565511561189,173.09389800605712</t>
+          <t>-34.72568089726773,173.09389884800206</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.72544963295818,173.09478992731454</t>
+          <t>-34.72540158533316,173.0947883579084</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -11961,12 +12093,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.725546760539615,173.0938944675393</t>
+          <t>-34.725650878766345,173.0938978676956</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.725198667497715,173.09478172991192</t>
+          <t>-34.725381482855774,173.09478770129064</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -11983,12 +12115,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.72579484136762,173.0939025690518</t>
+          <t>-34.72567080095496,173.09389851828928</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.7254813642225,173.0947909637714</t>
+          <t>-34.72534001586185,173.09478634683353</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -12005,12 +12137,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.725669358624565,173.09389847118746</t>
+          <t>-34.72567035022672,173.09389850356996</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.72531089882029,173.0947853957699</t>
+          <t>-34.72533028013281,173.09478602883075</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -12027,12 +12159,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.7257448105329,173.0939009352035</t>
+          <t>-34.72573633684193,173.09390065847984</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.72540834625602,173.09478857874404</t>
+          <t>-34.72540023314858,173.09478831374128</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -12049,12 +12181,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.7256497068729,173.0938978294254</t>
+          <t>-34.72571470188621,173.0938999519516</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.72537670513692,173.09478754523354</t>
+          <t>-34.72539428353644,173.09478811940596</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -12071,12 +12203,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-34.725734263492015,173.09390059077086</t>
+          <t>-34.72569955741715,173.0938994573821</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.725479381018495,173.0947908989928</t>
+          <t>-34.725393832808244,173.09478810468357</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12093,12 +12225,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.72572903504439,173.09390042002653</t>
+          <t>-34.72571443144927,173.09389994312002</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.725144039238685,173.0947799455703</t>
+          <t>-34.725352095377495,173.09478674139262</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -12115,12 +12247,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.725707580379925,173.09389971938617</t>
+          <t>-34.7257051464474,173.09389963990176</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.725445125676295,173.0947897800906</t>
+          <t>-34.72536129023269,173.09478704172875</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -12137,12 +12269,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-34.72569577129989,173.09389933373976</t>
+          <t>-34.72570325338878,173.0938995780806</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.72528223250678,173.0947844594293</t>
+          <t>-34.72534551474585,173.09478652644623</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -12159,12 +12291,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.72583342370475,173.0939038290299</t>
+          <t>-34.7257249784902,173.09390028755246</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.725307743722894,173.0947852927135</t>
+          <t>-34.725339204551105,173.09478632033327</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -12181,12 +12313,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-34.72571632450789,173.09390000494122</t>
+          <t>-34.72573642698758,173.0939006614237</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.7252858383324,173.09478457720795</t>
+          <t>-34.72529295983795,173.09478480982082</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -12203,12 +12335,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.72566449075948,173.09389831221887</t>
+          <t>-34.72572443761629,173.09390026988928</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.72528051973961,173.09478440348443</t>
+          <t>-34.72529088648823,173.09478474209806</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -12225,12 +12357,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.725671431974504,173.09389853889633</t>
+          <t>-34.72568405236545,173.0938989510373</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.72517018147493,173.09478079946288</t>
+          <t>-34.72524554323111,173.09478326103206</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -12247,12 +12379,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.72574841635883,173.09390105295824</t>
+          <t>-34.725700188436704,173.09389947798914</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.725308735324944,173.09478532510263</t>
+          <t>-34.72526131871822,173.0947837763133</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -12269,12 +12401,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.725703433680074,173.09389958396832</t>
+          <t>-34.725696943193306,173.09389937201</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.72522994803522,173.09478275163997</t>
+          <t>-34.725247346143924,173.09478331992133</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -12291,12 +12423,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72576220864305,173.09390150337035</t>
+          <t>-34.725721372664225,173.09390016979776</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.72547280038698,173.09479068404573</t>
+          <t>-34.72529539377023,173.09478488932143</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -12313,12 +12445,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.72570118003883,173.09389951037167</t>
+          <t>-34.725717316110035,173.09390003732375</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.72541294368356,173.0947887289123</t>
+          <t>-34.72531892178221,173.0947856578276</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -12335,12 +12467,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.72566863745938,173.09389844763658</t>
+          <t>-34.725709203001614,173.09389977237578</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.72528124090474,173.09478442704017</t>
+          <t>-34.72531261158744,173.09478545171478</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -12357,12 +12489,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.72571839785782,173.09390007265014</t>
+          <t>-34.725710555186346,173.09389981653374</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.72540365868283,173.09478842563135</t>
+          <t>-34.72532568270519,173.0947858786628</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -12379,12 +12511,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.72562176172131,173.09389691682847</t>
+          <t>-34.72569441911515,173.09389928958177</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.72512781302305,173.09477941556833</t>
+          <t>-34.7253396552793,173.09478633505563</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -12401,12 +12533,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.72564483900779,173.09389767045687</t>
+          <t>-34.72567098124626,173.093898524177</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.72521579516957,173.09478228935947</t>
+          <t>-34.72528827226467,173.09478465670855</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -12423,10 +12555,14 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-34.72584225797815,173.09390411752972</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
+          <t>-34.72569919683456,173.0938994456066</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>-34.72525708187311,173.09478363792348</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>L8</t>
@@ -12441,12 +12577,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.72562383507127,173.09389698453728</t>
+          <t>-34.72568315090897,173.09389892159865</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.72524491221162,173.09478324042084</t>
+          <t>-34.72519614341975,173.09478164746704</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -12463,12 +12599,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72571127635155,173.09389984008467</t>
+          <t>-34.72570550703001,173.09389965167725</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.72523706954086,173.0947829842525</t>
+          <t>-34.72523256225881,173.0947828370294</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -12485,12 +12621,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.72576347068213,173.09390154458453</t>
+          <t>-34.72573525509415,173.09390062315342</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.72553211621595,173.09479262151518</t>
+          <t>-34.725338032657795,173.09478628205517</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -12507,12 +12643,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.725831260209205,173.09390375837688</t>
+          <t>-34.72573246057904,173.0939005318935</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.72518271171913,173.0947812087426</t>
+          <t>-34.72529917988711,173.09478501298906</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -12529,12 +12665,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.725792317289496,173.09390248662336</t>
+          <t>-34.7257444499503,173.093900923428</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.725517873205405,173.0947921562867</t>
+          <t>-34.72534290052231,173.09478644105656</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -12551,12 +12687,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72566809658547,173.09389842997336</t>
+          <t>-34.72575328422386,173.0939012119272</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.72531423420896,173.09478550471525</t>
+          <t>-34.72535678295073,173.09478689450515</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -12573,12 +12709,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72559561948262,173.09389606310938</t>
+          <t>-34.725726961694455,173.09390035231758</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.725080306269184,173.0947778638415</t>
+          <t>-34.725310718529,173.09478538988094</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -12595,12 +12731,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.72562960439289,173.09389717294434</t>
+          <t>-34.72571343984713,173.09389991073746</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.72508679675551,173.09477807584204</t>
+          <t>-34.72528565804111,173.094784571319</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -12615,10 +12751,14 @@
           <t>2018-05-25 22:16:28+00:00</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>-34.72571343984713,173.09389991073746</t>
+        </is>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.72518496536018,173.09478128235406</t>
+          <t>-34.72527132488431,173.09478410314892</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -12635,12 +12775,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.72561491065188,173.09389669309516</t>
+          <t>-34.72569928698021,173.0938994485505</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.72521976157778,173.09478241891577</t>
+          <t>-34.72526483439821,173.09478389114744</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -12657,12 +12797,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72563681604492,173.09389740845322</t>
+          <t>-34.72568125785032,173.0938988597775</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.72523896259933,173.09478304608623</t>
+          <t>-34.72522823526805,173.0947826956952</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -12679,12 +12819,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.72558002428499,173.09389555382205</t>
+          <t>-34.725668547313724,173.0938984446927</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.72546676062928,173.0947904867656</t>
+          <t>-34.725254738086456,173.0947835613674</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -12701,12 +12841,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72568324105461,173.09389892454254</t>
+          <t>-34.72562879308205,173.0938971464496</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.72520623973159,173.09478197724658</t>
+          <t>-34.725263301922304,173.09478384109153</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -12723,12 +12863,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.72568603556975,173.09389901580232</t>
+          <t>-34.72564024157963,173.09389752031993</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.72522850570497,173.0947827045286</t>
+          <t>-34.725272046049426,173.09478412670467</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -12745,12 +12885,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.72575337436951,173.09390121487107</t>
+          <t>-34.72566791629418,173.09389842408567</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.725412042227184,173.09478869946756</t>
+          <t>-34.725310538237736,173.09478538399202</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -12767,12 +12907,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.725716594944835,173.0939000137728</t>
+          <t>-34.72570983402115,173.09389979298282</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.725424121742684,173.09478909402736</t>
+          <t>-34.72531774988891,173.0947856195495</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -12789,12 +12929,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72567693085913,173.09389871847202</t>
+          <t>-34.72570325338878,173.0938995780806</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.725311800276685,173.09478542521458</t>
+          <t>-34.725316577995585,173.09478558127142</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -12811,12 +12951,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.72567314474186,173.09389859482974</t>
+          <t>-34.72569820523241,173.0938994132241</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.72539239047804,173.09478805757198</t>
+          <t>-34.72532919838513,173.0947859934971</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -12833,12 +12973,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.72563393138412,173.09389731424966</t>
+          <t>-34.72568901037618,173.09389911294986</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.72531333275256,173.09478547527053</t>
+          <t>-34.72532694474413,173.09478591988537</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -12855,12 +12995,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.725666744400726,173.0938983858154</t>
+          <t>-34.7256866665893,173.09389903640937</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.72513817977194,173.0947797541807</t>
+          <t>-34.725317209015074,173.09478560188268</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -12877,12 +13017,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.72567891406342,173.09389878323702</t>
+          <t>-34.72568567498715,173.09389900402687</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.72523148051112,173.09478280169586</t>
+          <t>-34.72531765974327,173.09478561660504</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -12899,12 +13039,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.72568946110443,173.09389912766918</t>
+          <t>-34.72567657027654,173.09389870669656</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.72529755726559,173.09478495998866</t>
+          <t>-34.72530125323682,173.0947850807118</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -12921,12 +13061,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.72570108989319,173.0938995074278</t>
+          <t>-34.72568405236545,173.0938989510373</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.725156479337336,173.0947803519053</t>
+          <t>-34.72520596929466,173.09478196841323</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -12943,12 +13083,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.72564330653173,173.0938976204112</t>
+          <t>-34.725678192898236,173.0938987596861</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.72529899959582,173.09478500710014</t>
+          <t>-34.725246084104946,173.09478327869886</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -12965,12 +13105,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-34.72571993033385,173.0939001226959</t>
+          <t>-34.72568657644365,173.0938990334655</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.72525744245567,173.09478364970133</t>
+          <t>-34.72524842789161,173.09478335525492</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -12987,12 +13127,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-34.72574120470696,173.09390081744874</t>
+          <t>-34.725701360330135,173.0938995162594</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.725514267379936,173.09479203850736</t>
+          <t>-34.7253068422665,173.09478526326882</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -13009,12 +13149,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-34.725714521594924,173.09389994606389</t>
+          <t>-34.72570397455396,173.09389960163153</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.72538562955514,173.09478783673643</t>
+          <t>-34.72532252760781,173.09478577560637</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -13031,12 +13171,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-34.725774378305545,173.09390190079287</t>
+          <t>-34.72571569348835,173.09389998433417</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.72532396993804,173.09478582271788</t>
+          <t>-34.72532279804473,173.09478578443978</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -13053,12 +13193,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.725712989118875,173.09389989601814</t>
+          <t>-34.72571533290574,173.0938999725587</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.725357774552776,173.09478692689433</t>
+          <t>-34.7253277560549,173.09478594638557</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -13075,12 +13215,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.72568053668513,173.0938988362266</t>
+          <t>-34.7257110059146,173.0938998312531</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.72547442300844,173.09479073704637</t>
+          <t>-34.725346145765315,173.09478654705754</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -13097,10 +13237,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.7255434251505,173.0938943586167</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>-34.72569450926079,173.09389929252563</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-34.72541123091644,173.09478867296727</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>L8</t>
@@ -13115,12 +13259,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.725799979669546,173.09390273685256</t>
+          <t>-34.72570956358421,173.09389978415123</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.725679864911875,173.09479744753435</t>
+          <t>-34.725455943152795,173.09479013342803</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -13137,12 +13281,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.72565854114658,173.0938981179239</t>
+          <t>-34.725694959989035,173.09389930724495</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.725310718529,173.09478538988094</t>
+          <t>-34.72542935018968,173.09478926480702</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -13159,12 +13303,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.725705416884345,173.09389964873338</t>
+          <t>-34.725721282518585,173.0939001668539</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.72524833774596,173.09478335231046</t>
+          <t>-34.72541294368356,173.0947887289123</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -13181,12 +13325,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.72564150361873,173.093897561534</t>
+          <t>-34.725673415178804,173.09389860366133</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.72536931319455,173.09478730378677</t>
+          <t>-34.72530882547057,173.09478532804712</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -13203,12 +13347,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-34.725682339598116,173.09389889510388</t>
+          <t>-34.725676389985246,173.09389870080884</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.72534208921156,173.09478641455632</t>
+          <t>-34.725319913384254,173.09478569021675</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -13225,12 +13369,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-34.72566764585722,173.09389841525407</t>
+          <t>-34.72567422648965,173.0938986301561</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.72526222017463,173.09478380575794</t>
+          <t>-34.7253054900819,173.0947852191018</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -13247,12 +13391,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-34.72566070464219,173.09389818857662</t>
+          <t>-34.72567152212016,173.0938985418402</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.725027210484996,173.09477612956078</t>
+          <t>-34.72524987022186,173.09478340236632</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -13269,12 +13413,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-34.72570469571916,173.09389962518244</t>
+          <t>-34.72567134182886,173.09389853595246</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.72537616426309,173.09478752756672</t>
+          <t>-34.72527538143812,173.09478423564988</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -13291,12 +13435,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-34.72569847566937,173.0938994220557</t>
+          <t>-34.72568279032637,173.0938989098232</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.72534443299818,173.09478649111256</t>
+          <t>-34.72527042342791,173.09478407370426</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -13313,12 +13457,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-34.72568657644365,173.0938990334655</t>
+          <t>-34.72568756804579,173.093899065848</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.725409157566766,173.09478860524433</t>
+          <t>-34.72528926386671,173.09478468909768</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -13335,12 +13479,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-34.72572957591827,173.09390043768974</t>
+          <t>-34.725704876010454,173.09389963107017</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.72526501468948,173.09478389703634</t>
+          <t>-34.725348669843214,173.0947866295027</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -13357,12 +13501,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-34.72580466724324,173.09390288993396</t>
+          <t>-34.7257247981989,173.09390028166473</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.72533109144356,173.09478605533096</t>
+          <t>-34.72534515416328,173.09478651466833</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -13379,12 +13523,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-34.72569559100858,173.093899327852</t>
+          <t>-34.725722995285906,173.0939002227874</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.725367780718685,173.09478725373071</t>
+          <t>-34.725343531541775,173.09478646166787</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -13401,12 +13545,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-34.72586668744845,173.09390491532042</t>
+          <t>-34.72574697402847,173.09390100585634</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-34.72541808198494,173.09478889674745</t>
+          <t>-34.72535597163999,173.0947868680049</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -13423,12 +13567,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-34.725667014837676,173.09389839464703</t>
+          <t>-34.72574165543521,173.0939008321681</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-34.725306661975225,173.0947852573799</t>
+          <t>-34.72534966144525,173.0947866618919</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -13445,12 +13589,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-34.725624826673425,173.09389701691975</t>
+          <t>-34.7257249784902,173.09390028755246</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.7255208480114,173.09479225345464</t>
+          <t>-34.7253740909134,173.09478745984381</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -13467,12 +13611,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-34.72568873993923,173.09389910411826</t>
+          <t>-34.72572047120773,173.0939001403591</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.72529286969232,173.09478480687636</t>
+          <t>-34.725363904456216,173.09478712711842</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -13489,12 +13633,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-34.72565141964025,173.09389788535879</t>
+          <t>-34.72571605407094,173.09389999610963</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.72534326110486,173.09478645283446</t>
+          <t>-34.72535570120307,173.09478685917148</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -13511,12 +13655,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-34.72566187653564,173.09389822684682</t>
+          <t>-34.725707580379925,173.09389971938617</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.72536147052396,173.09478704761767</t>
+          <t>-34.725367780718685,173.09478725373071</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -13533,12 +13677,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-34.72567016993542,173.09389849768223</t>
+          <t>-34.72569081328917,173.09389917182713</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.72514935783159,173.09478011929323</t>
+          <t>-34.72534506401766,173.09478651172387</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -13555,12 +13699,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-34.72562717046032,173.0938970934601</t>
+          <t>-34.72568224945246,173.09389889216</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.7254830769896,173.09479101971652</t>
+          <t>-34.72535948731991,173.0947869828393</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -13577,12 +13721,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-34.725694959989035,173.09389930724495</t>
+          <t>-34.725660794787835,173.09389819152048</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.725161166910716,173.0947805050171</t>
+          <t>-34.725327305326694,173.09478593166324</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -13599,12 +13743,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-34.72569667275637,173.0938993631784</t>
+          <t>-34.72567224328536,173.09389856539113</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.72538472809877,173.09478780729168</t>
+          <t>-34.725294582459476,173.09478486282123</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -13621,12 +13765,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-34.725852444436256,173.09390445018778</t>
+          <t>-34.72570830154513,173.09389974293708</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.72548929703856,173.09479122288576</t>
+          <t>-34.72533352537581,173.09478613483168</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -13643,12 +13787,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-34.72569216547391,173.09389921598512</t>
+          <t>-34.72571271868192,173.09389988718655</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.72533848338599,173.09478629677753</t>
+          <t>-34.72537138654423,173.09478737150965</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -13665,12 +13809,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-34.7257152427601,173.09389996961482</t>
+          <t>-34.72571307926452,173.093899898962</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.7253941933908,173.09478811646147</t>
+          <t>-34.72537517266107,173.09478749517748</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -13687,12 +13831,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-34.72568657644365,173.0938990334655</t>
+          <t>-34.72570929314727,173.09389977531964</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.725098605834766,173.09477846156528</t>
+          <t>-34.72533568887116,173.09478620549893</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -13709,12 +13853,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-34.725716594944835,173.0939000137728</t>
+          <t>-34.72571019460375,173.09389980475828</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.72565083801768,173.09479649940715</t>
+          <t>-34.72537508251543,173.09478749223305</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -13731,12 +13875,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-34.725688920230525,173.093899110006</t>
+          <t>-34.725717947129574,173.09390005793082</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.7255896291316,173.09479450009772</t>
+          <t>-34.72538833392429,173.09478792507065</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -13753,12 +13897,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-34.72568846950229,173.09389909528667</t>
+          <t>-34.72571470188621,173.0938999519516</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.72558593316054,173.0947943793737</t>
+          <t>-34.72541032946005,173.09478864352252</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -13775,12 +13919,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-34.72569757421286,173.09389939261706</t>
+          <t>-34.725712989118875,173.09389989601814</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.725264113233074,173.0947838675917</t>
+          <t>-34.725395725866655,173.09478816651753</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -13797,12 +13941,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-34.72567206299406,173.09389855950337</t>
+          <t>-34.725710645332,173.09389981947763</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.72506822675295,173.0947774692851</t>
+          <t>-34.7253864408659,173.09478786323672</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -13819,12 +13963,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-34.72568152828727,173.0938988686091</t>
+          <t>-34.72570803110818,173.0938997341055</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.72535029246473,173.09478668250318</t>
+          <t>-34.72538310547726,173.09478775429116</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -13841,12 +13985,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-34.7256285226451,173.093897137618</t>
+          <t>-34.725701360330135,173.0938995162594</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.725549874906264,173.0947932015788</t>
+          <t>-34.7253969879056,173.09478820774018</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -13863,12 +14007,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-34.72568251988942,173.0938989009916</t>
+          <t>-34.72569991799975,173.09389946915755</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.72526113842694,173.09478377042436</t>
+          <t>-34.72538653101154,173.09478786618115</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -13885,12 +14029,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-34.725667285274625,173.09389840347862</t>
+          <t>-34.725697664358506,173.09389939556092</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.725141515160715,173.09477986312555</t>
+          <t>-34.72536787086432,173.0947872566752</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -13907,12 +14051,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-34.72553792626574,173.09389417904163</t>
+          <t>-34.725660524350886,173.0938981826889</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.725460991308495,173.09479029831888</t>
+          <t>-34.72536354387366,173.09478711534055</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -13929,12 +14073,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-34.725658360855284,173.0938981120362</t>
+          <t>-34.72565709881619,173.09389807082212</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.72540555174124,173.0947884874653</t>
+          <t>-34.725343080813595,173.0947864469455</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -13951,12 +14095,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-34.725691083726126,173.09389918065875</t>
+          <t>-34.7256524112424,173.09389791774126</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-34.725517422477225,173.09479214156428</t>
+          <t>-34.72534434285254,173.09478648816813</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -13973,12 +14117,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-34.72569847566937,173.0938994220557</t>
+          <t>-34.72565754954445,173.0938980855414</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-34.725249509639305,173.09478339058847</t>
+          <t>-34.72533379581274,173.09478614366506</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -13995,12 +14139,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-34.72570433513657,173.093899613407</t>
+          <t>-34.72566223711823,173.09389823862227</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-34.7249547333866,173.09477376222713</t>
+          <t>-34.725295934644066,173.09478490698822</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -14017,12 +14161,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-34.725709743875505,173.09389979003896</t>
+          <t>-34.72566602323552,173.09389836226453</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-34.725349841736524,173.09478666778082</t>
+          <t>-34.725324060083665,173.09478582566234</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -14039,12 +14183,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-34.725743548493824,173.09390089398931</t>
+          <t>-34.725676389985246,173.09389870080884</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-34.72560738782174,173.09479508016213</t>
+          <t>-34.72533586916244,173.09478621138788</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -14061,12 +14205,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-34.72573146897691,173.09390049951094</t>
+          <t>-34.72568432280241,173.0938989598689</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-34.725339204551105,173.09478632033327</t>
+          <t>-34.72536056906757,173.09478701817295</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -14083,12 +14227,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-34.72568657644365,173.0938990334655</t>
+          <t>-34.72568459323935,173.09389896870047</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-34.725324330520586,173.09478583449575</t>
+          <t>-34.72535651251382,173.09478688567174</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -14105,12 +14249,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-34.72572669125751,173.09390034348596</t>
+          <t>-34.72571145664285,173.09389984597243</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-34.72553337825485,173.09479266273797</t>
+          <t>-34.72535948731991,173.0947869828393</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -14127,12 +14271,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-34.725700008145395,173.09389947210144</t>
+          <t>-34.72571019460375,173.09389980475828</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-34.72550930936993,173.09479187656078</t>
+          <t>-34.72537616426309,173.09478752756672</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -14149,12 +14293,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-34.72565430430104,173.09389797956234</t>
+          <t>-34.725706138049546,173.0938996722843</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-34.72522426885983,173.09478256613886</t>
+          <t>-34.725343531541775,173.09478646166787</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -14171,12 +14315,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-34.72567260386796,173.09389857716656</t>
+          <t>-34.72570325338878,173.0938995780806</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-34.72525509866901,173.09478357314524</t>
+          <t>-34.725344162561264,173.09478648227918</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -14193,12 +14337,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-34.72563167774286,173.09389724065312</t>
+          <t>-34.72569613188248,173.0938993455152</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-34.72524833774596,173.09478335231046</t>
+          <t>-34.725334607123486,173.0947861701653</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -14215,12 +14359,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-34.72568459323935,173.09389896870047</t>
+          <t>-34.72569414867819,173.09389928075018</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-34.72544692858904,173.09478983898018</t>
+          <t>-34.72538382664238,173.09478777784696</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -14237,12 +14381,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-34.725705957758244,173.09389966639657</t>
+          <t>-34.7256937880956,173.0938992689747</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-34.72520813279007,173.09478203908026</t>
+          <t>-34.7253696737771,173.09478731556464</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -14259,12 +14403,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-34.72569216547391,173.09389921598512</t>
+          <t>-34.72569360780431,173.09389926308697</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-34.7254446749481,173.09478976536823</t>
+          <t>-34.72537643470001,173.09478753640013</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -14281,12 +14425,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-34.72566953891587,173.09389847707521</t>
+          <t>-34.7256916246,173.09389919832196</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-34.72540960829496,173.09478861996672</t>
+          <t>-34.72537922921481,173.09478762767878</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -14303,12 +14447,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-34.72561770516704,173.0938967843548</t>
+          <t>-34.72568107755903,173.09389885388975</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-34.7252742095448,173.0947841973718</t>
+          <t>-34.725351464358035,173.09478672078131</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -14325,12 +14469,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-34.72565223095109,173.09389791185353</t>
+          <t>-34.7256744969266,173.0938986389877</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-34.72504298597271,173.0947766448392</t>
+          <t>-34.725326764452866,173.09478591399642</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -14347,12 +14491,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-34.72565926231179,173.0938981414748</t>
+          <t>-34.72567224328536,173.09389856539113</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-34.7253277560549,173.09478594638557</t>
+          <t>-34.72532703488978,173.09478592282983</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -14369,12 +14513,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-34.725649977309835,173.09389783825696</t>
+          <t>-34.72567053051801,173.0938985094577</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-34.72503388126267,173.09477634744994</t>
+          <t>-34.725304498479865,173.09478518671264</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -14391,12 +14535,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-34.72571217780803,173.09389986952337</t>
+          <t>-34.72567152212016,173.0938985418402</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-34.725481544513784,173.09479096966038</t>
+          <t>-34.72529665580919,173.09478493054397</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -14413,12 +14557,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-34.72580268403898,173.09390282516873</t>
+          <t>-34.72568197901552,173.09389888332842</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-34.72540374882847,173.0947884285758</t>
+          <t>-34.725302334984505,173.09478511604541</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -14435,12 +14579,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-34.72575481669989,173.09390126197297</t>
+          <t>-34.7257051464474,173.09389963990176</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-34.7255970210737,173.0947947415458</t>
+          <t>-34.72531450464588,173.09478551354863</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -14457,10 +14601,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-34.72564159376437,173.09389756447783</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
+          <t>-34.72572786315095,173.09390038175624</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>-34.72549407475732,173.09479137894326</t>
+        </is>
+      </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>L8</t>
@@ -14473,10 +14621,14 @@
           <t>2025-03-17 22:17:32+00:00</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>-34.72572786315095,173.09390038175624</t>
+        </is>
+      </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-34.725440167666214,173.09478961814432</t>
+          <t>-34.725480643057416,173.09479094021555</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -14493,12 +14645,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-34.725872096187246,173.0939050919531</t>
+          <t>-34.72575670975849,173.09390132379426</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-34.725580434276786,173.0947941997599</t>
+          <t>-34.72550056524317,173.094791590946</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -14515,12 +14667,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-34.72565430430104,173.09389797956234</t>
+          <t>-34.72574508096985,173.09390094403508</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-34.72524770672648,173.0947833316992</t>
+          <t>-34.7254537796575,173.09479006276055</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -14537,10 +14689,14 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-34.725712989118875,173.09389989601814</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr"/>
+          <t>-34.725739762376584,173.09390077034683</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>-34.7254537796575,173.09479006276055</t>
+        </is>
+      </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>L8</t>
@@ -14555,12 +14711,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-34.7256737757614,173.09389861543679</t>
+          <t>-34.72571830771216,173.0939000697063</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-34.72518920220535,173.09478142074363</t>
+          <t>-34.725410870333896,173.09478866118937</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -14577,12 +14733,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-34.72565565648579,173.0938980237203</t>
+          <t>-34.72570929314727,173.09389977531964</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-34.72511194738993,173.09477889734438</t>
+          <t>-34.7253611099414,173.09478703583977</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -14599,12 +14755,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-34.72563906968618,173.09389748204973</t>
+          <t>-34.72569279649345,173.0938992365922</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-34.72539545542974,173.09478815768412</t>
+          <t>-34.72532748561798,173.0947859375522</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -14621,12 +14777,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-34.72565610721403,173.09389803843962</t>
+          <t>-34.72568819906534,173.09389908645508</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-34.72528836241031,173.09478465965302</t>
+          <t>-34.725321896588326,173.09478575499506</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -14643,12 +14799,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-34.725717676692625,173.09390004909923</t>
+          <t>-34.725691444308715,173.0938991924342</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-34.72531630755867,173.09478557243798</t>
+          <t>-34.725321175423204,173.09478573143932</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -14665,12 +14821,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-34.72573282116164,173.09390054366898</t>
+          <t>-34.72569559100858,173.093899327852</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-34.7256399303959,173.09479614312352</t>
+          <t>-34.72535660265945,173.0947868886162</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -14687,12 +14843,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-34.72568937095877,173.0938991247253</t>
+          <t>-34.72568134799598,173.09389886272137</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-34.72524941949364,173.09478338764401</t>
+          <t>-34.725304768916786,173.09478519554605</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -14709,12 +14865,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-34.72571821756652,173.09390006676244</t>
+          <t>-34.72568837935664,173.09389909234278</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-34.725519856409406,173.09479222106532</t>
+          <t>-34.725338843968544,173.0947863085554</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">

--- a/data/nzd0015/nzd0015.xlsx
+++ b/data/nzd0015/nzd0015.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5453,6 +5453,24 @@
       <c r="D279" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>432.18</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8435,6 +8453,16 @@
       </c>
       <c r="B296" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -8608,28 +8636,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07038721587968715</v>
+        <v>-0.07010452738287087</v>
       </c>
       <c r="J2" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03158270296971255</v>
+        <v>0.03160352582278392</v>
       </c>
       <c r="M2" t="n">
-        <v>2.367760984724699</v>
+        <v>2.360660753561372</v>
       </c>
       <c r="N2" t="n">
-        <v>9.028196993230647</v>
+        <v>8.996378633202051</v>
       </c>
       <c r="O2" t="n">
-        <v>3.004695823745001</v>
+        <v>2.99939637814045</v>
       </c>
       <c r="P2" t="n">
-        <v>396.9541755407337</v>
+        <v>396.9515542496121</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8680,34 +8708,34 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0215</v>
+        <v>0.0213</v>
       </c>
       <c r="H3" t="n">
         <v>0.026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.262909635472747</v>
+        <v>0.26227059155798</v>
       </c>
       <c r="J3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K3" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07550431705909233</v>
+        <v>0.07578149613842977</v>
       </c>
       <c r="M3" t="n">
-        <v>5.347671090633647</v>
+        <v>5.331370284839626</v>
       </c>
       <c r="N3" t="n">
-        <v>49.03247805079945</v>
+        <v>48.85748883533866</v>
       </c>
       <c r="O3" t="n">
-        <v>7.002319476487734</v>
+        <v>6.989813218916415</v>
       </c>
       <c r="P3" t="n">
-        <v>426.1378193887199</v>
+        <v>426.1438822298421</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8745,7 +8773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14879,6 +14907,28 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>-34.72569649246509,173.09389935729067</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>-34.725346416202235,173.09478655589092</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
